--- a/s60_signal/position-01157-000157.xlsx
+++ b/s60_signal/position-01157-000157.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="679">
   <si>
     <t>trade_time</t>
   </si>
@@ -1478,6 +1478,9 @@
   </si>
   <si>
     <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
   </si>
   <si>
     <t>2016-07-13</t>
@@ -2505,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2555,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2605,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2655,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2705,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2755,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2955,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3005,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3055,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3205,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -3255,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -3605,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3655,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3805,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3855,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3905,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3955,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -4005,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -4055,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -4105,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -4155,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -4205,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -4255,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -4305,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -4505,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -4555,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -4605,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -4655,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -4705,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4755,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4805,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4855,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4905,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4955,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -5005,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -5055,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -5105,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -5155,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -5305,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -5355,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -5405,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -5455,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -5505,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -5555,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -5605,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -5755,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5805,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5955,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -6005,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -6055,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -6105,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -6155,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -6205,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -6355,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -6405,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -6455,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -6505,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -6555,7 +6558,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -6605,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -6655,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -6705,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6755,7 +6758,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6805,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6855,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6905,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6955,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -7205,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -7255,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -7305,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -7455,7 +7458,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -7505,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -9505,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -9555,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -9605,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -10055,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -10105,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -10155,7 +10158,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -10205,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -10255,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -10455,7 +10458,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -10505,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -10555,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -10755,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10805,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10855,7 +10858,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10905,7 +10908,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -11205,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -11255,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -11305,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -11355,7 +11358,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -11405,7 +11408,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -11655,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -11705,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -11755,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11805,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -13205,7 +13208,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -13255,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -13305,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -13355,7 +13358,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -13405,7 +13408,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -13455,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -13905,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13955,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -14105,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -14155,7 +14158,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -14205,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -14655,7 +14658,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -14705,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -14755,7 +14758,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -14805,7 +14808,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14855,7 +14858,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -15805,7 +15808,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15855,7 +15858,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15905,7 +15908,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15955,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -16005,7 +16008,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -16055,7 +16058,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -16855,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16905,7 +16908,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16955,7 +16958,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -17005,7 +17008,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -17055,7 +17058,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -17555,7 +17558,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -17605,7 +17608,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -17655,7 +17658,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -17705,7 +17708,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -17755,7 +17758,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -17805,7 +17808,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17855,7 +17858,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -19355,7 +19358,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -19405,7 +19408,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -19455,7 +19458,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -19505,7 +19508,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -19555,7 +19558,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -19605,7 +19608,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -19655,7 +19658,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -21305,7 +21308,7 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -21355,7 +21358,7 @@
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -21555,7 +21558,7 @@
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -21605,7 +21608,7 @@
         <v>1</v>
       </c>
       <c r="P384" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -21655,7 +21658,7 @@
         <v>1</v>
       </c>
       <c r="P385" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -21705,7 +21708,7 @@
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -21855,7 +21858,7 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -21905,7 +21908,7 @@
         <v>1</v>
       </c>
       <c r="P390" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -21955,7 +21958,7 @@
         <v>1</v>
       </c>
       <c r="P391" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -22105,7 +22108,7 @@
         <v>1</v>
       </c>
       <c r="P394" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -22155,7 +22158,7 @@
         <v>1</v>
       </c>
       <c r="P395" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -22205,7 +22208,7 @@
         <v>1</v>
       </c>
       <c r="P396" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -22455,7 +22458,7 @@
         <v>1</v>
       </c>
       <c r="P401" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="402" spans="1:16">
@@ -22505,7 +22508,7 @@
         <v>1</v>
       </c>
       <c r="P402" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="403" spans="1:16">
@@ -22555,7 +22558,7 @@
         <v>1</v>
       </c>
       <c r="P403" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="404" spans="1:16">
@@ -22605,7 +22608,7 @@
         <v>1</v>
       </c>
       <c r="P404" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="405" spans="1:16">
@@ -22655,7 +22658,7 @@
         <v>1</v>
       </c>
       <c r="P405" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="406" spans="1:16">
@@ -22705,7 +22708,7 @@
         <v>1</v>
       </c>
       <c r="P406" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -22755,7 +22758,7 @@
         <v>1</v>
       </c>
       <c r="P407" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="408" spans="1:16">
@@ -22805,7 +22808,7 @@
         <v>1</v>
       </c>
       <c r="P408" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="409" spans="1:16">
@@ -22855,7 +22858,7 @@
         <v>1</v>
       </c>
       <c r="P409" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -22905,7 +22908,7 @@
         <v>1</v>
       </c>
       <c r="P410" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -22955,7 +22958,7 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -23005,7 +23008,7 @@
         <v>1</v>
       </c>
       <c r="P412" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -23055,7 +23058,7 @@
         <v>1</v>
       </c>
       <c r="P413" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -23155,7 +23158,7 @@
         <v>1</v>
       </c>
       <c r="P415" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -23205,7 +23208,7 @@
         <v>1</v>
       </c>
       <c r="P416" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -23255,7 +23258,7 @@
         <v>1</v>
       </c>
       <c r="P417" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -23305,7 +23308,7 @@
         <v>1</v>
       </c>
       <c r="P418" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -23355,7 +23358,7 @@
         <v>1</v>
       </c>
       <c r="P419" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -23405,7 +23408,7 @@
         <v>1</v>
       </c>
       <c r="P420" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -23455,7 +23458,7 @@
         <v>1</v>
       </c>
       <c r="P421" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -23505,7 +23508,7 @@
         <v>1</v>
       </c>
       <c r="P422" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -23955,7 +23958,7 @@
         <v>1</v>
       </c>
       <c r="P431" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -24005,7 +24008,7 @@
         <v>1</v>
       </c>
       <c r="P432" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -24055,7 +24058,7 @@
         <v>1</v>
       </c>
       <c r="P433" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -24255,7 +24258,7 @@
         <v>1</v>
       </c>
       <c r="P437" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -24305,7 +24308,7 @@
         <v>1</v>
       </c>
       <c r="P438" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -24355,7 +24358,7 @@
         <v>1</v>
       </c>
       <c r="P439" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -24405,7 +24408,7 @@
         <v>1</v>
       </c>
       <c r="P440" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -24455,7 +24458,7 @@
         <v>1</v>
       </c>
       <c r="P441" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -24505,7 +24508,7 @@
         <v>1</v>
       </c>
       <c r="P442" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -24555,7 +24558,7 @@
         <v>1</v>
       </c>
       <c r="P443" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -24605,7 +24608,7 @@
         <v>1</v>
       </c>
       <c r="P444" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -24655,7 +24658,7 @@
         <v>1</v>
       </c>
       <c r="P445" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -24705,7 +24708,7 @@
         <v>1</v>
       </c>
       <c r="P446" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -24755,7 +24758,7 @@
         <v>1</v>
       </c>
       <c r="P447" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -24805,7 +24808,7 @@
         <v>1</v>
       </c>
       <c r="P448" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -24855,7 +24858,7 @@
         <v>1</v>
       </c>
       <c r="P449" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -24905,7 +24908,7 @@
         <v>1</v>
       </c>
       <c r="P450" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -24955,7 +24958,7 @@
         <v>1</v>
       </c>
       <c r="P451" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -25005,7 +25008,7 @@
         <v>1</v>
       </c>
       <c r="P452" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -25055,7 +25058,7 @@
         <v>1</v>
       </c>
       <c r="P453" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -25105,7 +25108,7 @@
         <v>1</v>
       </c>
       <c r="P454" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -25155,7 +25158,7 @@
         <v>1</v>
       </c>
       <c r="P455" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -25205,7 +25208,7 @@
         <v>1</v>
       </c>
       <c r="P456" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -25705,7 +25708,7 @@
         <v>1</v>
       </c>
       <c r="P466" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -25755,7 +25758,7 @@
         <v>1</v>
       </c>
       <c r="P467" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -25805,7 +25808,7 @@
         <v>1</v>
       </c>
       <c r="P468" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -25855,7 +25858,7 @@
         <v>1</v>
       </c>
       <c r="P469" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -25905,7 +25908,7 @@
         <v>1</v>
       </c>
       <c r="P470" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -26155,7 +26158,7 @@
         <v>1</v>
       </c>
       <c r="P475" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -26205,7 +26208,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -26255,7 +26258,7 @@
         <v>1</v>
       </c>
       <c r="P477" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -26305,7 +26308,7 @@
         <v>1</v>
       </c>
       <c r="P478" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -26355,7 +26358,7 @@
         <v>1</v>
       </c>
       <c r="P479" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -26405,7 +26408,7 @@
         <v>1</v>
       </c>
       <c r="P480" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -26455,7 +26458,7 @@
         <v>1</v>
       </c>
       <c r="P481" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -26505,7 +26508,7 @@
         <v>1</v>
       </c>
       <c r="P482" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -26555,7 +26558,7 @@
         <v>1</v>
       </c>
       <c r="P483" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -26605,7 +26608,7 @@
         <v>1</v>
       </c>
       <c r="P484" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -26655,7 +26658,7 @@
         <v>1</v>
       </c>
       <c r="P485" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -26705,7 +26708,7 @@
         <v>1</v>
       </c>
       <c r="P486" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -26755,7 +26758,7 @@
         <v>1</v>
       </c>
       <c r="P487" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -26805,7 +26808,7 @@
         <v>1</v>
       </c>
       <c r="P488" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -27005,7 +27008,7 @@
         <v>1</v>
       </c>
       <c r="P492" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -27055,7 +27058,7 @@
         <v>1</v>
       </c>
       <c r="P493" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -27105,7 +27108,7 @@
         <v>1</v>
       </c>
       <c r="P494" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -27155,7 +27158,7 @@
         <v>1</v>
       </c>
       <c r="P495" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -27705,7 +27708,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -27755,7 +27758,7 @@
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -27805,7 +27808,7 @@
         <v>1</v>
       </c>
       <c r="P508" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -27855,7 +27858,7 @@
         <v>1</v>
       </c>
       <c r="P509" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -27905,7 +27908,7 @@
         <v>1</v>
       </c>
       <c r="P510" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -28155,7 +28158,7 @@
         <v>1</v>
       </c>
       <c r="P515" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -28205,7 +28208,7 @@
         <v>1</v>
       </c>
       <c r="P516" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -28255,7 +28258,7 @@
         <v>1</v>
       </c>
       <c r="P517" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -28305,7 +28308,7 @@
         <v>1</v>
       </c>
       <c r="P518" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="519" spans="1:16">
@@ -28505,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="P522" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="523" spans="1:16">
@@ -28555,7 +28558,7 @@
         <v>1</v>
       </c>
       <c r="P523" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -28605,7 +28608,7 @@
         <v>1</v>
       </c>
       <c r="P524" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -28655,7 +28658,7 @@
         <v>1</v>
       </c>
       <c r="P525" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -28705,7 +28708,7 @@
         <v>1</v>
       </c>
       <c r="P526" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -28755,7 +28758,7 @@
         <v>1</v>
       </c>
       <c r="P527" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -28805,7 +28808,7 @@
         <v>1</v>
       </c>
       <c r="P528" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -29105,7 +29108,7 @@
         <v>1</v>
       </c>
       <c r="P534" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -29155,7 +29158,7 @@
         <v>1</v>
       </c>
       <c r="P535" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -29205,7 +29208,7 @@
         <v>1</v>
       </c>
       <c r="P536" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -29255,7 +29258,7 @@
         <v>1</v>
       </c>
       <c r="P537" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -29405,7 +29408,7 @@
         <v>1</v>
       </c>
       <c r="P540" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -29455,7 +29458,7 @@
         <v>1</v>
       </c>
       <c r="P541" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -29505,7 +29508,7 @@
         <v>1</v>
       </c>
       <c r="P542" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -29555,7 +29558,7 @@
         <v>1</v>
       </c>
       <c r="P543" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="544" spans="1:16">
@@ -29605,7 +29608,7 @@
         <v>1</v>
       </c>
       <c r="P544" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -29755,7 +29758,7 @@
         <v>1</v>
       </c>
       <c r="P547" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="548" spans="1:16">
@@ -29805,7 +29808,7 @@
         <v>1</v>
       </c>
       <c r="P548" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -29955,7 +29958,7 @@
         <v>1</v>
       </c>
       <c r="P551" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -30005,7 +30008,7 @@
         <v>1</v>
       </c>
       <c r="P552" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -30055,7 +30058,7 @@
         <v>1</v>
       </c>
       <c r="P553" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -30105,7 +30108,7 @@
         <v>1</v>
       </c>
       <c r="P554" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -30155,7 +30158,7 @@
         <v>1</v>
       </c>
       <c r="P555" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -30205,7 +30208,7 @@
         <v>1</v>
       </c>
       <c r="P556" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -30255,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="P557" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -30305,7 +30308,7 @@
         <v>1</v>
       </c>
       <c r="P558" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -30555,7 +30558,7 @@
         <v>1</v>
       </c>
       <c r="P563" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="564" spans="1:16">
@@ -30605,7 +30608,7 @@
         <v>1</v>
       </c>
       <c r="P564" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -30655,7 +30658,7 @@
         <v>1</v>
       </c>
       <c r="P565" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -30705,7 +30708,7 @@
         <v>1</v>
       </c>
       <c r="P566" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -30755,7 +30758,7 @@
         <v>1</v>
       </c>
       <c r="P567" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -30805,7 +30808,7 @@
         <v>1</v>
       </c>
       <c r="P568" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -30855,7 +30858,7 @@
         <v>1</v>
       </c>
       <c r="P569" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -30905,7 +30908,7 @@
         <v>1</v>
       </c>
       <c r="P570" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -30955,7 +30958,7 @@
         <v>1</v>
       </c>
       <c r="P571" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -31005,7 +31008,7 @@
         <v>1</v>
       </c>
       <c r="P572" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -31055,7 +31058,7 @@
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -31105,7 +31108,7 @@
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -31155,7 +31158,7 @@
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -31205,7 +31208,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -31255,7 +31258,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -31305,7 +31308,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -31555,7 +31558,7 @@
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -31605,7 +31608,7 @@
         <v>1</v>
       </c>
       <c r="P584" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -31805,7 +31808,7 @@
         <v>1</v>
       </c>
       <c r="P588" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="589" spans="1:16">
@@ -31855,7 +31858,7 @@
         <v>1</v>
       </c>
       <c r="P589" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="590" spans="1:16">
@@ -31905,7 +31908,7 @@
         <v>1</v>
       </c>
       <c r="P590" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="591" spans="1:16">
@@ -31955,7 +31958,7 @@
         <v>1</v>
       </c>
       <c r="P591" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="592" spans="1:16">
@@ -32005,7 +32008,7 @@
         <v>1</v>
       </c>
       <c r="P592" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -32055,7 +32058,7 @@
         <v>1</v>
       </c>
       <c r="P593" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -32105,7 +32108,7 @@
         <v>1</v>
       </c>
       <c r="P594" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -32155,7 +32158,7 @@
         <v>1</v>
       </c>
       <c r="P595" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -32205,7 +32208,7 @@
         <v>1</v>
       </c>
       <c r="P596" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -32355,7 +32358,7 @@
         <v>1</v>
       </c>
       <c r="P599" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="600" spans="1:16">
@@ -32405,7 +32408,7 @@
         <v>1</v>
       </c>
       <c r="P600" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="601" spans="1:16">
@@ -32605,7 +32608,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -32655,7 +32658,7 @@
         <v>1</v>
       </c>
       <c r="P605" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -32855,7 +32858,7 @@
         <v>1</v>
       </c>
       <c r="P609" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -32905,7 +32908,7 @@
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -32955,7 +32958,7 @@
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -33005,7 +33008,7 @@
         <v>1</v>
       </c>
       <c r="P612" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -33055,7 +33058,7 @@
         <v>1</v>
       </c>
       <c r="P613" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -33155,7 +33158,7 @@
         <v>1</v>
       </c>
       <c r="P615" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -33205,7 +33208,7 @@
         <v>1</v>
       </c>
       <c r="P616" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -33255,7 +33258,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -33305,7 +33308,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -33555,7 +33558,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -33605,7 +33608,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -33655,7 +33658,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -34005,7 +34008,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -34055,7 +34058,7 @@
         <v>1</v>
       </c>
       <c r="P633" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -34105,7 +34108,7 @@
         <v>1</v>
       </c>
       <c r="P634" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -35055,7 +35058,7 @@
         <v>1</v>
       </c>
       <c r="P653" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="654" spans="1:16">
@@ -35105,7 +35108,7 @@
         <v>1</v>
       </c>
       <c r="P654" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="655" spans="1:16">
@@ -35155,7 +35158,7 @@
         <v>1</v>
       </c>
       <c r="P655" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="656" spans="1:16">
@@ -35205,7 +35208,7 @@
         <v>1</v>
       </c>
       <c r="P656" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="657" spans="1:16">
@@ -35405,7 +35408,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -35455,7 +35458,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -35505,7 +35508,7 @@
         <v>1</v>
       </c>
       <c r="P662" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -36305,7 +36308,7 @@
         <v>1</v>
       </c>
       <c r="P678" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -36355,7 +36358,7 @@
         <v>1</v>
       </c>
       <c r="P679" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -36405,7 +36408,7 @@
         <v>1</v>
       </c>
       <c r="P680" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -36455,7 +36458,7 @@
         <v>1</v>
       </c>
       <c r="P681" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="682" spans="1:16">
@@ -36505,7 +36508,7 @@
         <v>1</v>
       </c>
       <c r="P682" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="683" spans="1:16">
@@ -36555,7 +36558,7 @@
         <v>1</v>
       </c>
       <c r="P683" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="684" spans="1:16">
@@ -36605,7 +36608,7 @@
         <v>1</v>
       </c>
       <c r="P684" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="685" spans="1:16">
@@ -36655,7 +36658,7 @@
         <v>1</v>
       </c>
       <c r="P685" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="686" spans="1:16">
@@ -36705,7 +36708,7 @@
         <v>1</v>
       </c>
       <c r="P686" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="687" spans="1:16">
@@ -36755,7 +36758,7 @@
         <v>1</v>
       </c>
       <c r="P687" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="688" spans="1:16">
@@ -36805,7 +36808,7 @@
         <v>1</v>
       </c>
       <c r="P688" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -36855,7 +36858,7 @@
         <v>1</v>
       </c>
       <c r="P689" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -36905,7 +36908,7 @@
         <v>1</v>
       </c>
       <c r="P690" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -36955,7 +36958,7 @@
         <v>1</v>
       </c>
       <c r="P691" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -37055,7 +37058,7 @@
         <v>1</v>
       </c>
       <c r="P693" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -37105,7 +37108,7 @@
         <v>1</v>
       </c>
       <c r="P694" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="695" spans="1:16">
@@ -37155,7 +37158,7 @@
         <v>1</v>
       </c>
       <c r="P695" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="696" spans="1:16">
@@ -37205,7 +37208,7 @@
         <v>1</v>
       </c>
       <c r="P696" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="697" spans="1:16">
@@ -37255,7 +37258,7 @@
         <v>1</v>
       </c>
       <c r="P697" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="698" spans="1:16">
@@ -37305,7 +37308,7 @@
         <v>1</v>
       </c>
       <c r="P698" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="699" spans="1:16">
@@ -37355,7 +37358,7 @@
         <v>1</v>
       </c>
       <c r="P699" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="700" spans="1:16">
@@ -37555,7 +37558,7 @@
         <v>1</v>
       </c>
       <c r="P703" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="704" spans="1:16">
@@ -37605,7 +37608,7 @@
         <v>1</v>
       </c>
       <c r="P704" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="705" spans="1:16">
@@ -37655,7 +37658,7 @@
         <v>1</v>
       </c>
       <c r="P705" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="706" spans="1:16">
@@ -38105,7 +38108,7 @@
         <v>1</v>
       </c>
       <c r="P714" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="715" spans="1:16">
@@ -38155,7 +38158,7 @@
         <v>1</v>
       </c>
       <c r="P715" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="716" spans="1:16">
@@ -38205,7 +38208,7 @@
         <v>1</v>
       </c>
       <c r="P716" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="717" spans="1:16">
@@ -38255,7 +38258,7 @@
         <v>1</v>
       </c>
       <c r="P717" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="718" spans="1:16">
@@ -38455,7 +38458,7 @@
         <v>1</v>
       </c>
       <c r="P721" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="722" spans="1:16">
@@ -38505,7 +38508,7 @@
         <v>1</v>
       </c>
       <c r="P722" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="723" spans="1:16">
@@ -38555,7 +38558,7 @@
         <v>1</v>
       </c>
       <c r="P723" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="724" spans="1:16">
@@ -38605,7 +38608,7 @@
         <v>1</v>
       </c>
       <c r="P724" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="725" spans="1:16">
@@ -38655,7 +38658,7 @@
         <v>1</v>
       </c>
       <c r="P725" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="726" spans="1:16">
@@ -38705,7 +38708,7 @@
         <v>1</v>
       </c>
       <c r="P726" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="727" spans="1:16">
@@ -38755,7 +38758,7 @@
         <v>1</v>
       </c>
       <c r="P727" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="728" spans="1:16">
@@ -38805,7 +38808,7 @@
         <v>1</v>
       </c>
       <c r="P728" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="729" spans="1:16">
@@ -38855,7 +38858,7 @@
         <v>1</v>
       </c>
       <c r="P729" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="730" spans="1:16">
@@ -38905,7 +38908,7 @@
         <v>1</v>
       </c>
       <c r="P730" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="731" spans="1:16">
@@ -38955,7 +38958,7 @@
         <v>1</v>
       </c>
       <c r="P731" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="732" spans="1:16">
@@ -39005,7 +39008,7 @@
         <v>1</v>
       </c>
       <c r="P732" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="733" spans="1:16">
@@ -40005,7 +40008,7 @@
         <v>1</v>
       </c>
       <c r="P752" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="753" spans="1:16">
@@ -40055,7 +40058,7 @@
         <v>1</v>
       </c>
       <c r="P753" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="754" spans="1:16">
@@ -40105,7 +40108,7 @@
         <v>1</v>
       </c>
       <c r="P754" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="755" spans="1:16">
@@ -40155,7 +40158,7 @@
         <v>1</v>
       </c>
       <c r="P755" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="756" spans="1:16">
@@ -40405,7 +40408,7 @@
         <v>1</v>
       </c>
       <c r="P760" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="761" spans="1:16">
@@ -40455,7 +40458,7 @@
         <v>1</v>
       </c>
       <c r="P761" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="762" spans="1:16">
@@ -40505,7 +40508,7 @@
         <v>1</v>
       </c>
       <c r="P762" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="763" spans="1:16">
@@ -40555,7 +40558,7 @@
         <v>1</v>
       </c>
       <c r="P763" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="764" spans="1:16">
@@ -40755,7 +40758,7 @@
         <v>1</v>
       </c>
       <c r="P767" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="768" spans="1:16">
@@ -40805,7 +40808,7 @@
         <v>1</v>
       </c>
       <c r="P768" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -40855,7 +40858,7 @@
         <v>1</v>
       </c>
       <c r="P769" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="770" spans="1:16">
@@ -40955,7 +40958,7 @@
         <v>1</v>
       </c>
       <c r="P771" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="772" spans="1:16">
@@ -41305,7 +41308,7 @@
         <v>1</v>
       </c>
       <c r="P778" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="779" spans="1:16">
@@ -41355,7 +41358,7 @@
         <v>1</v>
       </c>
       <c r="P779" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="780" spans="1:16">
@@ -41405,7 +41408,7 @@
         <v>1</v>
       </c>
       <c r="P780" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="781" spans="1:16">
@@ -41455,7 +41458,7 @@
         <v>1</v>
       </c>
       <c r="P781" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="782" spans="1:16">
@@ -41505,7 +41508,7 @@
         <v>1</v>
       </c>
       <c r="P782" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="783" spans="1:16">
@@ -41555,7 +41558,7 @@
         <v>1</v>
       </c>
       <c r="P783" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="784" spans="1:16">
@@ -41605,7 +41608,7 @@
         <v>1</v>
       </c>
       <c r="P784" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="785" spans="1:16">
@@ -41655,7 +41658,7 @@
         <v>1</v>
       </c>
       <c r="P785" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="786" spans="1:16">
@@ -41705,7 +41708,7 @@
         <v>1</v>
       </c>
       <c r="P786" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="787" spans="1:16">
@@ -41755,7 +41758,7 @@
         <v>1</v>
       </c>
       <c r="P787" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="788" spans="1:16">
@@ -42005,7 +42008,7 @@
         <v>1</v>
       </c>
       <c r="P792" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="793" spans="1:16">
@@ -42055,7 +42058,7 @@
         <v>1</v>
       </c>
       <c r="P793" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="794" spans="1:16">
@@ -42105,7 +42108,7 @@
         <v>1</v>
       </c>
       <c r="P794" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="795" spans="1:16">
@@ -42405,7 +42408,7 @@
         <v>1</v>
       </c>
       <c r="P800" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="801" spans="1:16">
@@ -42455,7 +42458,7 @@
         <v>1</v>
       </c>
       <c r="P801" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="802" spans="1:16">
@@ -42505,7 +42508,7 @@
         <v>1</v>
       </c>
       <c r="P802" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="803" spans="1:16">
@@ -42755,7 +42758,7 @@
         <v>1</v>
       </c>
       <c r="P807" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="808" spans="1:16">
@@ -42805,7 +42808,7 @@
         <v>1</v>
       </c>
       <c r="P808" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="809" spans="1:16">
@@ -42855,7 +42858,7 @@
         <v>1</v>
       </c>
       <c r="P809" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="810" spans="1:16">
@@ -42905,7 +42908,7 @@
         <v>1</v>
       </c>
       <c r="P810" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="811" spans="1:16">
@@ -42955,7 +42958,7 @@
         <v>1</v>
       </c>
       <c r="P811" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="812" spans="1:16">
@@ -43405,7 +43408,7 @@
         <v>1</v>
       </c>
       <c r="P820" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="821" spans="1:16">
@@ -43455,7 +43458,7 @@
         <v>1</v>
       </c>
       <c r="P821" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="822" spans="1:16">
@@ -43555,7 +43558,7 @@
         <v>1</v>
       </c>
       <c r="P823" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="824" spans="1:16">
@@ -43605,7 +43608,7 @@
         <v>1</v>
       </c>
       <c r="P824" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="825" spans="1:16">
@@ -43655,7 +43658,7 @@
         <v>1</v>
       </c>
       <c r="P825" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="826" spans="1:16">
@@ -43705,7 +43708,7 @@
         <v>1</v>
       </c>
       <c r="P826" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="827" spans="1:16">
@@ -44855,7 +44858,7 @@
         <v>1</v>
       </c>
       <c r="P849" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="850" spans="1:16">
@@ -44905,7 +44908,7 @@
         <v>1</v>
       </c>
       <c r="P850" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="851" spans="1:16">
@@ -44955,7 +44958,7 @@
         <v>1</v>
       </c>
       <c r="P851" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="852" spans="1:16">
@@ -45005,7 +45008,7 @@
         <v>1</v>
       </c>
       <c r="P852" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="853" spans="1:16">
@@ -45055,7 +45058,7 @@
         <v>1</v>
       </c>
       <c r="P853" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="854" spans="1:16">
@@ -45105,7 +45108,7 @@
         <v>1</v>
       </c>
       <c r="P854" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="855" spans="1:16">
@@ -45155,7 +45158,7 @@
         <v>1</v>
       </c>
       <c r="P855" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="856" spans="1:16">
@@ -45205,7 +45208,7 @@
         <v>1</v>
       </c>
       <c r="P856" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="857" spans="1:16">
@@ -45255,7 +45258,7 @@
         <v>1</v>
       </c>
       <c r="P857" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="858" spans="1:16">
@@ -46005,7 +46008,7 @@
         <v>1</v>
       </c>
       <c r="P872" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="873" spans="1:16">
@@ -46055,7 +46058,7 @@
         <v>1</v>
       </c>
       <c r="P873" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="874" spans="1:16">
@@ -46105,7 +46108,7 @@
         <v>1</v>
       </c>
       <c r="P874" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="875" spans="1:16">
@@ -46355,7 +46358,7 @@
         <v>1</v>
       </c>
       <c r="P879" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="880" spans="1:16">
@@ -46405,7 +46408,7 @@
         <v>1</v>
       </c>
       <c r="P880" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="881" spans="1:16">
@@ -46455,7 +46458,7 @@
         <v>1</v>
       </c>
       <c r="P881" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="882" spans="1:16">
@@ -46505,7 +46508,7 @@
         <v>1</v>
       </c>
       <c r="P882" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="883" spans="1:16">
@@ -46555,7 +46558,7 @@
         <v>1</v>
       </c>
       <c r="P883" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="884" spans="1:16">
@@ -46605,7 +46608,7 @@
         <v>1</v>
       </c>
       <c r="P884" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="885" spans="1:16">
@@ -46655,7 +46658,7 @@
         <v>1</v>
       </c>
       <c r="P885" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="886" spans="1:16">
@@ -46705,7 +46708,7 @@
         <v>1</v>
       </c>
       <c r="P886" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="887" spans="1:16">
@@ -46755,7 +46758,7 @@
         <v>1</v>
       </c>
       <c r="P887" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="888" spans="1:16">
@@ -46805,7 +46808,7 @@
         <v>1</v>
       </c>
       <c r="P888" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="889" spans="1:16">
@@ -46855,7 +46858,7 @@
         <v>1</v>
       </c>
       <c r="P889" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="890" spans="1:16">
@@ -47055,7 +47058,7 @@
         <v>1</v>
       </c>
       <c r="P893" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="894" spans="1:16">
@@ -47105,7 +47108,7 @@
         <v>1</v>
       </c>
       <c r="P894" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="895" spans="1:16">
@@ -47155,7 +47158,7 @@
         <v>1</v>
       </c>
       <c r="P895" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="896" spans="1:16">
@@ -47355,7 +47358,7 @@
         <v>1</v>
       </c>
       <c r="P899" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="900" spans="1:16">
@@ -47405,7 +47408,7 @@
         <v>1</v>
       </c>
       <c r="P900" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="901" spans="1:16">
@@ -47455,7 +47458,7 @@
         <v>1</v>
       </c>
       <c r="P901" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="902" spans="1:16">
@@ -47505,7 +47508,7 @@
         <v>1</v>
       </c>
       <c r="P902" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="903" spans="1:16">
@@ -47555,7 +47558,7 @@
         <v>1</v>
       </c>
       <c r="P903" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="904" spans="1:16">
@@ -47605,7 +47608,7 @@
         <v>1</v>
       </c>
       <c r="P904" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="905" spans="1:16">
@@ -48505,7 +48508,7 @@
         <v>1</v>
       </c>
       <c r="P922" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="923" spans="1:16">
@@ -48555,7 +48558,7 @@
         <v>1</v>
       </c>
       <c r="P923" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="924" spans="1:16">
@@ -48655,7 +48658,7 @@
         <v>1</v>
       </c>
       <c r="P925" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="926" spans="1:16">
@@ -48705,7 +48708,7 @@
         <v>1</v>
       </c>
       <c r="P926" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="927" spans="1:16">
@@ -48755,7 +48758,7 @@
         <v>1</v>
       </c>
       <c r="P927" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="928" spans="1:16">
@@ -49055,7 +49058,7 @@
         <v>1</v>
       </c>
       <c r="P933" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="934" spans="1:16">
@@ -49105,7 +49108,7 @@
         <v>1</v>
       </c>
       <c r="P934" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="935" spans="1:16">
@@ -49155,7 +49158,7 @@
         <v>1</v>
       </c>
       <c r="P935" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="936" spans="1:16">
@@ -49205,7 +49208,7 @@
         <v>1</v>
       </c>
       <c r="P936" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="937" spans="1:16">
@@ -49255,7 +49258,7 @@
         <v>1</v>
       </c>
       <c r="P937" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="938" spans="1:16">
@@ -49405,7 +49408,7 @@
         <v>1</v>
       </c>
       <c r="P940" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="941" spans="1:16">
@@ -49505,7 +49508,7 @@
         <v>1</v>
       </c>
       <c r="P942" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="943" spans="1:16">
@@ -49555,7 +49558,7 @@
         <v>1</v>
       </c>
       <c r="P943" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="944" spans="1:16">
@@ -49605,7 +49608,7 @@
         <v>1</v>
       </c>
       <c r="P944" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="945" spans="1:16">
@@ -49755,7 +49758,7 @@
         <v>1</v>
       </c>
       <c r="P947" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="948" spans="1:16">
@@ -49805,7 +49808,7 @@
         <v>1</v>
       </c>
       <c r="P948" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="949" spans="1:16">
@@ -49855,7 +49858,7 @@
         <v>1</v>
       </c>
       <c r="P949" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="950" spans="1:16">
@@ -50055,7 +50058,7 @@
         <v>1</v>
       </c>
       <c r="P953" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="954" spans="1:16">
@@ -50105,7 +50108,7 @@
         <v>1</v>
       </c>
       <c r="P954" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="955" spans="1:16">
@@ -50155,7 +50158,7 @@
         <v>1</v>
       </c>
       <c r="P955" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="956" spans="1:16">
@@ -50205,7 +50208,7 @@
         <v>1</v>
       </c>
       <c r="P956" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="957" spans="1:16">
@@ -50255,7 +50258,7 @@
         <v>1</v>
       </c>
       <c r="P957" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="958" spans="1:16">
@@ -50605,7 +50608,7 @@
         <v>1</v>
       </c>
       <c r="P964" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="965" spans="1:16">
@@ -50655,7 +50658,7 @@
         <v>1</v>
       </c>
       <c r="P965" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="966" spans="1:16">
@@ -50705,7 +50708,7 @@
         <v>1</v>
       </c>
       <c r="P966" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="967" spans="1:16">
@@ -50755,7 +50758,7 @@
         <v>1</v>
       </c>
       <c r="P967" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="968" spans="1:16">
@@ -50955,7 +50958,7 @@
         <v>1</v>
       </c>
       <c r="P971" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="972" spans="1:16">
@@ -51005,7 +51008,7 @@
         <v>1</v>
       </c>
       <c r="P972" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="973" spans="1:16">
@@ -51505,7 +51508,7 @@
         <v>1</v>
       </c>
       <c r="P982" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="983" spans="1:16">
@@ -51555,7 +51558,7 @@
         <v>1</v>
       </c>
       <c r="P983" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="984" spans="1:16">
@@ -51605,7 +51608,7 @@
         <v>1</v>
       </c>
       <c r="P984" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="985" spans="1:16">
@@ -51655,7 +51658,7 @@
         <v>1</v>
       </c>
       <c r="P985" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="986" spans="1:16">
@@ -51705,7 +51708,7 @@
         <v>1</v>
       </c>
       <c r="P986" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="987" spans="1:16">
@@ -52105,7 +52108,7 @@
         <v>1</v>
       </c>
       <c r="P994" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="995" spans="1:16">
@@ -52305,7 +52308,7 @@
         <v>1</v>
       </c>
       <c r="P998" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="999" spans="1:16">
@@ -52355,7 +52358,7 @@
         <v>1</v>
       </c>
       <c r="P999" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1000" spans="1:16">
@@ -52405,7 +52408,7 @@
         <v>1</v>
       </c>
       <c r="P1000" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1001" spans="1:16">
@@ -52455,7 +52458,7 @@
         <v>1</v>
       </c>
       <c r="P1001" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1002" spans="1:16">
@@ -53005,7 +53008,7 @@
         <v>1</v>
       </c>
       <c r="P1012" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1013" spans="1:16">
@@ -53055,7 +53058,7 @@
         <v>1</v>
       </c>
       <c r="P1013" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1014" spans="1:16">
@@ -53105,7 +53108,7 @@
         <v>1</v>
       </c>
       <c r="P1014" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1015" spans="1:16">
@@ -53755,7 +53758,7 @@
         <v>1</v>
       </c>
       <c r="P1027" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1028" spans="1:16">
@@ -53805,7 +53808,7 @@
         <v>1</v>
       </c>
       <c r="P1028" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1029" spans="1:16">
@@ -53855,7 +53858,7 @@
         <v>1</v>
       </c>
       <c r="P1029" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1030" spans="1:16">
@@ -54755,7 +54758,7 @@
         <v>1</v>
       </c>
       <c r="P1047" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1048" spans="1:16">
@@ -54869,10 +54872,10 @@
         <v>2.944630897775695</v>
       </c>
       <c r="D1050" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E1050">
-        <v>2.745189730674658</v>
+        <v>2.717860330153417</v>
       </c>
       <c r="F1050">
         <v>-1</v>
@@ -54881,10 +54884,10 @@
         <v>0.0154553691022243</v>
       </c>
       <c r="H1050">
-        <v>0.01533481026932534</v>
+        <v>0.01540213966984658</v>
       </c>
       <c r="I1050">
-        <v>0.1994411671010363</v>
+        <v>0.2267705676222773</v>
       </c>
       <c r="J1050">
         <v>0.7888233420207194</v>
@@ -54896,10 +54899,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M1050">
-        <v>7.98</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="N1050">
-        <v>9.039999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="O1050">
         <v>1</v>
@@ -54919,10 +54922,10 @@
         <v>2.385066165658595</v>
       </c>
       <c r="D1051" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E1051">
-        <v>2.47239556617984</v>
+        <v>2.397054367222326</v>
       </c>
       <c r="F1051">
         <v>1</v>
@@ -54931,10 +54934,10 @@
         <v>0.0146749338343414</v>
       </c>
       <c r="H1051">
-        <v>0.01466760443382016</v>
+        <v>0.01440294563277767</v>
       </c>
       <c r="I1051">
-        <v>0.08732940052124416</v>
+        <v>0.0119882015637307</v>
       </c>
       <c r="J1051">
         <v>0.7888233420207194</v>
@@ -54946,10 +54949,10 @@
         <v>8.529999999999999</v>
       </c>
       <c r="M1051">
-        <v>7.73</v>
+        <v>7.61</v>
       </c>
       <c r="N1051">
-        <v>8.57</v>
+        <v>8.4</v>
       </c>
       <c r="O1051">
         <v>1</v>
@@ -54969,10 +54972,10 @@
         <v>2.24487135359287</v>
       </c>
       <c r="D1052" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E1052">
-        <v>2.333280560112053</v>
+        <v>2.260098973150417</v>
       </c>
       <c r="F1052">
         <v>1</v>
@@ -54981,10 +54984,10 @@
         <v>0.01481512864640713</v>
       </c>
       <c r="H1052">
-        <v>0.01480671943988795</v>
+        <v>0.01453990102684958</v>
       </c>
       <c r="I1052">
-        <v>0.0884092065191826</v>
+        <v>0.01522761955754692</v>
       </c>
       <c r="J1052">
         <v>0.8068201086530332</v>
@@ -54996,10 +54999,10 @@
         <v>8.529999999999999</v>
       </c>
       <c r="M1052">
-        <v>7.73</v>
+        <v>7.61</v>
       </c>
       <c r="N1052">
-        <v>8.57</v>
+        <v>8.4</v>
       </c>
       <c r="O1052">
         <v>1</v>

--- a/s60_signal/position-01157-000157.xlsx
+++ b/s60_signal/position-01157-000157.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="680">
   <si>
     <t>trade_time</t>
   </si>
@@ -1481,6 +1481,9 @@
   </si>
   <si>
     <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2016-07-13</t>
@@ -2508,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2558,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2608,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2658,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2708,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2758,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2958,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3008,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3058,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3208,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -3258,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -3608,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3658,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3808,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3858,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3908,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3958,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -4008,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -4058,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -4108,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -4158,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -4208,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -4258,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -4308,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -4508,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -4558,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -4608,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -4658,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -4708,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4758,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4808,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4858,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4908,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4958,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -5008,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -5058,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -5108,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -5158,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -5308,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -5358,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -5408,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -5458,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -5508,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -5558,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -5608,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -5758,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5808,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5958,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -6008,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -6058,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -6108,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -6158,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -6208,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -6358,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -6408,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -6458,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -6508,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -6558,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -6608,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -6658,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -6708,7 +6711,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6758,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6808,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6858,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6908,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6958,7 +6961,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -7208,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -7258,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -7308,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -7458,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -7508,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -9508,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -9558,7 +9561,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -9608,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -10058,7 +10061,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -10108,7 +10111,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -10158,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -10208,7 +10211,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -10258,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -10458,7 +10461,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -10508,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -10558,7 +10561,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -10758,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10808,7 +10811,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10858,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10908,7 +10911,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -11208,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -11258,7 +11261,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -11308,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -11358,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -11408,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -11658,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -11708,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -11758,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11808,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -13208,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -13258,7 +13261,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -13308,7 +13311,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -13358,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -13408,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -13458,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -13908,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13958,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -14108,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -14158,7 +14161,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -14208,7 +14211,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -14658,7 +14661,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -14708,7 +14711,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -14758,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -14808,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14858,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -15808,7 +15811,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15858,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15908,7 +15911,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15958,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -16008,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -16058,7 +16061,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -16858,7 +16861,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16908,7 +16911,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16958,7 +16961,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -17008,7 +17011,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -17058,7 +17061,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -17558,7 +17561,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -17608,7 +17611,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -17658,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -17708,7 +17711,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -17758,7 +17761,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -17808,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17858,7 +17861,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -19358,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -19408,7 +19411,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -19458,7 +19461,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -19508,7 +19511,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -19558,7 +19561,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -19608,7 +19611,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -19658,7 +19661,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -21308,7 +21311,7 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -21358,7 +21361,7 @@
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -21558,7 +21561,7 @@
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -21608,7 +21611,7 @@
         <v>1</v>
       </c>
       <c r="P384" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -21658,7 +21661,7 @@
         <v>1</v>
       </c>
       <c r="P385" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -21708,7 +21711,7 @@
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -21858,7 +21861,7 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -21908,7 +21911,7 @@
         <v>1</v>
       </c>
       <c r="P390" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -21958,7 +21961,7 @@
         <v>1</v>
       </c>
       <c r="P391" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -22108,7 +22111,7 @@
         <v>1</v>
       </c>
       <c r="P394" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -22158,7 +22161,7 @@
         <v>1</v>
       </c>
       <c r="P395" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -22208,7 +22211,7 @@
         <v>1</v>
       </c>
       <c r="P396" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -22458,7 +22461,7 @@
         <v>1</v>
       </c>
       <c r="P401" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="402" spans="1:16">
@@ -22508,7 +22511,7 @@
         <v>1</v>
       </c>
       <c r="P402" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="403" spans="1:16">
@@ -22558,7 +22561,7 @@
         <v>1</v>
       </c>
       <c r="P403" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="404" spans="1:16">
@@ -22608,7 +22611,7 @@
         <v>1</v>
       </c>
       <c r="P404" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="405" spans="1:16">
@@ -22658,7 +22661,7 @@
         <v>1</v>
       </c>
       <c r="P405" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="406" spans="1:16">
@@ -22708,7 +22711,7 @@
         <v>1</v>
       </c>
       <c r="P406" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -22758,7 +22761,7 @@
         <v>1</v>
       </c>
       <c r="P407" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="408" spans="1:16">
@@ -22808,7 +22811,7 @@
         <v>1</v>
       </c>
       <c r="P408" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="409" spans="1:16">
@@ -22858,7 +22861,7 @@
         <v>1</v>
       </c>
       <c r="P409" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -22908,7 +22911,7 @@
         <v>1</v>
       </c>
       <c r="P410" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -22958,7 +22961,7 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -23008,7 +23011,7 @@
         <v>1</v>
       </c>
       <c r="P412" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -23058,7 +23061,7 @@
         <v>1</v>
       </c>
       <c r="P413" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -23158,7 +23161,7 @@
         <v>1</v>
       </c>
       <c r="P415" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -23208,7 +23211,7 @@
         <v>1</v>
       </c>
       <c r="P416" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -23258,7 +23261,7 @@
         <v>1</v>
       </c>
       <c r="P417" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -23308,7 +23311,7 @@
         <v>1</v>
       </c>
       <c r="P418" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -23358,7 +23361,7 @@
         <v>1</v>
       </c>
       <c r="P419" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -23408,7 +23411,7 @@
         <v>1</v>
       </c>
       <c r="P420" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -23458,7 +23461,7 @@
         <v>1</v>
       </c>
       <c r="P421" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -23508,7 +23511,7 @@
         <v>1</v>
       </c>
       <c r="P422" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -23958,7 +23961,7 @@
         <v>1</v>
       </c>
       <c r="P431" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -24008,7 +24011,7 @@
         <v>1</v>
       </c>
       <c r="P432" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -24058,7 +24061,7 @@
         <v>1</v>
       </c>
       <c r="P433" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -24258,7 +24261,7 @@
         <v>1</v>
       </c>
       <c r="P437" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -24308,7 +24311,7 @@
         <v>1</v>
       </c>
       <c r="P438" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -24358,7 +24361,7 @@
         <v>1</v>
       </c>
       <c r="P439" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -24408,7 +24411,7 @@
         <v>1</v>
       </c>
       <c r="P440" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -24458,7 +24461,7 @@
         <v>1</v>
       </c>
       <c r="P441" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -24508,7 +24511,7 @@
         <v>1</v>
       </c>
       <c r="P442" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -24558,7 +24561,7 @@
         <v>1</v>
       </c>
       <c r="P443" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -24608,7 +24611,7 @@
         <v>1</v>
       </c>
       <c r="P444" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -24658,7 +24661,7 @@
         <v>1</v>
       </c>
       <c r="P445" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -24708,7 +24711,7 @@
         <v>1</v>
       </c>
       <c r="P446" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -24758,7 +24761,7 @@
         <v>1</v>
       </c>
       <c r="P447" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -24808,7 +24811,7 @@
         <v>1</v>
       </c>
       <c r="P448" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -24858,7 +24861,7 @@
         <v>1</v>
       </c>
       <c r="P449" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -24908,7 +24911,7 @@
         <v>1</v>
       </c>
       <c r="P450" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -24958,7 +24961,7 @@
         <v>1</v>
       </c>
       <c r="P451" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -25008,7 +25011,7 @@
         <v>1</v>
       </c>
       <c r="P452" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -25058,7 +25061,7 @@
         <v>1</v>
       </c>
       <c r="P453" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -25108,7 +25111,7 @@
         <v>1</v>
       </c>
       <c r="P454" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -25158,7 +25161,7 @@
         <v>1</v>
       </c>
       <c r="P455" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -25208,7 +25211,7 @@
         <v>1</v>
       </c>
       <c r="P456" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -25708,7 +25711,7 @@
         <v>1</v>
       </c>
       <c r="P466" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -25758,7 +25761,7 @@
         <v>1</v>
       </c>
       <c r="P467" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -25808,7 +25811,7 @@
         <v>1</v>
       </c>
       <c r="P468" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -25858,7 +25861,7 @@
         <v>1</v>
       </c>
       <c r="P469" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -25908,7 +25911,7 @@
         <v>1</v>
       </c>
       <c r="P470" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -26158,7 +26161,7 @@
         <v>1</v>
       </c>
       <c r="P475" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -26208,7 +26211,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -26258,7 +26261,7 @@
         <v>1</v>
       </c>
       <c r="P477" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -26308,7 +26311,7 @@
         <v>1</v>
       </c>
       <c r="P478" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -26358,7 +26361,7 @@
         <v>1</v>
       </c>
       <c r="P479" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -26408,7 +26411,7 @@
         <v>1</v>
       </c>
       <c r="P480" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -26458,7 +26461,7 @@
         <v>1</v>
       </c>
       <c r="P481" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -26508,7 +26511,7 @@
         <v>1</v>
       </c>
       <c r="P482" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -26558,7 +26561,7 @@
         <v>1</v>
       </c>
       <c r="P483" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -26608,7 +26611,7 @@
         <v>1</v>
       </c>
       <c r="P484" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -26658,7 +26661,7 @@
         <v>1</v>
       </c>
       <c r="P485" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -26708,7 +26711,7 @@
         <v>1</v>
       </c>
       <c r="P486" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -26758,7 +26761,7 @@
         <v>1</v>
       </c>
       <c r="P487" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -26808,7 +26811,7 @@
         <v>1</v>
       </c>
       <c r="P488" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -27008,7 +27011,7 @@
         <v>1</v>
       </c>
       <c r="P492" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -27058,7 +27061,7 @@
         <v>1</v>
       </c>
       <c r="P493" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -27108,7 +27111,7 @@
         <v>1</v>
       </c>
       <c r="P494" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -27158,7 +27161,7 @@
         <v>1</v>
       </c>
       <c r="P495" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -27708,7 +27711,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -27758,7 +27761,7 @@
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -27808,7 +27811,7 @@
         <v>1</v>
       </c>
       <c r="P508" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -27858,7 +27861,7 @@
         <v>1</v>
       </c>
       <c r="P509" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -27908,7 +27911,7 @@
         <v>1</v>
       </c>
       <c r="P510" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -28158,7 +28161,7 @@
         <v>1</v>
       </c>
       <c r="P515" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -28208,7 +28211,7 @@
         <v>1</v>
       </c>
       <c r="P516" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -28258,7 +28261,7 @@
         <v>1</v>
       </c>
       <c r="P517" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -28308,7 +28311,7 @@
         <v>1</v>
       </c>
       <c r="P518" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="519" spans="1:16">
@@ -28508,7 +28511,7 @@
         <v>1</v>
       </c>
       <c r="P522" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="523" spans="1:16">
@@ -28558,7 +28561,7 @@
         <v>1</v>
       </c>
       <c r="P523" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -28608,7 +28611,7 @@
         <v>1</v>
       </c>
       <c r="P524" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -28658,7 +28661,7 @@
         <v>1</v>
       </c>
       <c r="P525" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -28708,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="P526" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -28758,7 +28761,7 @@
         <v>1</v>
       </c>
       <c r="P527" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -28808,7 +28811,7 @@
         <v>1</v>
       </c>
       <c r="P528" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -29108,7 +29111,7 @@
         <v>1</v>
       </c>
       <c r="P534" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -29158,7 +29161,7 @@
         <v>1</v>
       </c>
       <c r="P535" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -29208,7 +29211,7 @@
         <v>1</v>
       </c>
       <c r="P536" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -29258,7 +29261,7 @@
         <v>1</v>
       </c>
       <c r="P537" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -29408,7 +29411,7 @@
         <v>1</v>
       </c>
       <c r="P540" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -29458,7 +29461,7 @@
         <v>1</v>
       </c>
       <c r="P541" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -29508,7 +29511,7 @@
         <v>1</v>
       </c>
       <c r="P542" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -29558,7 +29561,7 @@
         <v>1</v>
       </c>
       <c r="P543" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="544" spans="1:16">
@@ -29608,7 +29611,7 @@
         <v>1</v>
       </c>
       <c r="P544" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -29758,7 +29761,7 @@
         <v>1</v>
       </c>
       <c r="P547" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="548" spans="1:16">
@@ -29808,7 +29811,7 @@
         <v>1</v>
       </c>
       <c r="P548" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -29958,7 +29961,7 @@
         <v>1</v>
       </c>
       <c r="P551" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -30008,7 +30011,7 @@
         <v>1</v>
       </c>
       <c r="P552" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -30058,7 +30061,7 @@
         <v>1</v>
       </c>
       <c r="P553" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -30108,7 +30111,7 @@
         <v>1</v>
       </c>
       <c r="P554" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -30158,7 +30161,7 @@
         <v>1</v>
       </c>
       <c r="P555" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -30208,7 +30211,7 @@
         <v>1</v>
       </c>
       <c r="P556" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -30258,7 +30261,7 @@
         <v>1</v>
       </c>
       <c r="P557" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -30308,7 +30311,7 @@
         <v>1</v>
       </c>
       <c r="P558" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -30558,7 +30561,7 @@
         <v>1</v>
       </c>
       <c r="P563" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="564" spans="1:16">
@@ -30608,7 +30611,7 @@
         <v>1</v>
       </c>
       <c r="P564" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -30658,7 +30661,7 @@
         <v>1</v>
       </c>
       <c r="P565" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -30708,7 +30711,7 @@
         <v>1</v>
       </c>
       <c r="P566" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -30758,7 +30761,7 @@
         <v>1</v>
       </c>
       <c r="P567" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -30808,7 +30811,7 @@
         <v>1</v>
       </c>
       <c r="P568" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -30858,7 +30861,7 @@
         <v>1</v>
       </c>
       <c r="P569" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -30908,7 +30911,7 @@
         <v>1</v>
       </c>
       <c r="P570" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -30958,7 +30961,7 @@
         <v>1</v>
       </c>
       <c r="P571" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -31008,7 +31011,7 @@
         <v>1</v>
       </c>
       <c r="P572" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -31058,7 +31061,7 @@
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -31108,7 +31111,7 @@
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -31158,7 +31161,7 @@
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -31208,7 +31211,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -31258,7 +31261,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -31308,7 +31311,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -31558,7 +31561,7 @@
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -31608,7 +31611,7 @@
         <v>1</v>
       </c>
       <c r="P584" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -31808,7 +31811,7 @@
         <v>1</v>
       </c>
       <c r="P588" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="589" spans="1:16">
@@ -31858,7 +31861,7 @@
         <v>1</v>
       </c>
       <c r="P589" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="590" spans="1:16">
@@ -31908,7 +31911,7 @@
         <v>1</v>
       </c>
       <c r="P590" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="591" spans="1:16">
@@ -31958,7 +31961,7 @@
         <v>1</v>
       </c>
       <c r="P591" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="592" spans="1:16">
@@ -32008,7 +32011,7 @@
         <v>1</v>
       </c>
       <c r="P592" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -32058,7 +32061,7 @@
         <v>1</v>
       </c>
       <c r="P593" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -32108,7 +32111,7 @@
         <v>1</v>
       </c>
       <c r="P594" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -32158,7 +32161,7 @@
         <v>1</v>
       </c>
       <c r="P595" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -32208,7 +32211,7 @@
         <v>1</v>
       </c>
       <c r="P596" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -32358,7 +32361,7 @@
         <v>1</v>
       </c>
       <c r="P599" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="600" spans="1:16">
@@ -32408,7 +32411,7 @@
         <v>1</v>
       </c>
       <c r="P600" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="601" spans="1:16">
@@ -32608,7 +32611,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -32658,7 +32661,7 @@
         <v>1</v>
       </c>
       <c r="P605" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -32858,7 +32861,7 @@
         <v>1</v>
       </c>
       <c r="P609" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -32908,7 +32911,7 @@
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -32958,7 +32961,7 @@
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -33008,7 +33011,7 @@
         <v>1</v>
       </c>
       <c r="P612" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -33058,7 +33061,7 @@
         <v>1</v>
       </c>
       <c r="P613" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -33158,7 +33161,7 @@
         <v>1</v>
       </c>
       <c r="P615" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -33208,7 +33211,7 @@
         <v>1</v>
       </c>
       <c r="P616" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -33258,7 +33261,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -33308,7 +33311,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -33558,7 +33561,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -33608,7 +33611,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -33658,7 +33661,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -34008,7 +34011,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -34058,7 +34061,7 @@
         <v>1</v>
       </c>
       <c r="P633" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -34108,7 +34111,7 @@
         <v>1</v>
       </c>
       <c r="P634" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -35058,7 +35061,7 @@
         <v>1</v>
       </c>
       <c r="P653" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="654" spans="1:16">
@@ -35108,7 +35111,7 @@
         <v>1</v>
       </c>
       <c r="P654" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="655" spans="1:16">
@@ -35158,7 +35161,7 @@
         <v>1</v>
       </c>
       <c r="P655" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="656" spans="1:16">
@@ -35208,7 +35211,7 @@
         <v>1</v>
       </c>
       <c r="P656" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="657" spans="1:16">
@@ -35408,7 +35411,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -35458,7 +35461,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -35508,7 +35511,7 @@
         <v>1</v>
       </c>
       <c r="P662" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -36308,7 +36311,7 @@
         <v>1</v>
       </c>
       <c r="P678" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -36358,7 +36361,7 @@
         <v>1</v>
       </c>
       <c r="P679" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -36408,7 +36411,7 @@
         <v>1</v>
       </c>
       <c r="P680" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -36458,7 +36461,7 @@
         <v>1</v>
       </c>
       <c r="P681" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="682" spans="1:16">
@@ -36508,7 +36511,7 @@
         <v>1</v>
       </c>
       <c r="P682" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="683" spans="1:16">
@@ -36558,7 +36561,7 @@
         <v>1</v>
       </c>
       <c r="P683" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="684" spans="1:16">
@@ -36608,7 +36611,7 @@
         <v>1</v>
       </c>
       <c r="P684" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="685" spans="1:16">
@@ -36658,7 +36661,7 @@
         <v>1</v>
       </c>
       <c r="P685" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="686" spans="1:16">
@@ -36708,7 +36711,7 @@
         <v>1</v>
       </c>
       <c r="P686" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="687" spans="1:16">
@@ -36758,7 +36761,7 @@
         <v>1</v>
       </c>
       <c r="P687" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="688" spans="1:16">
@@ -36808,7 +36811,7 @@
         <v>1</v>
       </c>
       <c r="P688" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -36858,7 +36861,7 @@
         <v>1</v>
       </c>
       <c r="P689" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -36908,7 +36911,7 @@
         <v>1</v>
       </c>
       <c r="P690" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -36958,7 +36961,7 @@
         <v>1</v>
       </c>
       <c r="P691" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -37058,7 +37061,7 @@
         <v>1</v>
       </c>
       <c r="P693" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -37108,7 +37111,7 @@
         <v>1</v>
       </c>
       <c r="P694" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="695" spans="1:16">
@@ -37158,7 +37161,7 @@
         <v>1</v>
       </c>
       <c r="P695" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="696" spans="1:16">
@@ -37208,7 +37211,7 @@
         <v>1</v>
       </c>
       <c r="P696" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="697" spans="1:16">
@@ -37258,7 +37261,7 @@
         <v>1</v>
       </c>
       <c r="P697" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="698" spans="1:16">
@@ -37308,7 +37311,7 @@
         <v>1</v>
       </c>
       <c r="P698" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="699" spans="1:16">
@@ -37358,7 +37361,7 @@
         <v>1</v>
       </c>
       <c r="P699" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="700" spans="1:16">
@@ -37558,7 +37561,7 @@
         <v>1</v>
       </c>
       <c r="P703" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="704" spans="1:16">
@@ -37608,7 +37611,7 @@
         <v>1</v>
       </c>
       <c r="P704" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="705" spans="1:16">
@@ -37658,7 +37661,7 @@
         <v>1</v>
       </c>
       <c r="P705" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="706" spans="1:16">
@@ -38108,7 +38111,7 @@
         <v>1</v>
       </c>
       <c r="P714" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="715" spans="1:16">
@@ -38158,7 +38161,7 @@
         <v>1</v>
       </c>
       <c r="P715" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="716" spans="1:16">
@@ -38208,7 +38211,7 @@
         <v>1</v>
       </c>
       <c r="P716" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="717" spans="1:16">
@@ -38258,7 +38261,7 @@
         <v>1</v>
       </c>
       <c r="P717" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="718" spans="1:16">
@@ -38458,7 +38461,7 @@
         <v>1</v>
       </c>
       <c r="P721" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="722" spans="1:16">
@@ -38508,7 +38511,7 @@
         <v>1</v>
       </c>
       <c r="P722" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="723" spans="1:16">
@@ -38558,7 +38561,7 @@
         <v>1</v>
       </c>
       <c r="P723" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="724" spans="1:16">
@@ -38608,7 +38611,7 @@
         <v>1</v>
       </c>
       <c r="P724" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="725" spans="1:16">
@@ -38658,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="P725" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="726" spans="1:16">
@@ -38708,7 +38711,7 @@
         <v>1</v>
       </c>
       <c r="P726" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="727" spans="1:16">
@@ -38758,7 +38761,7 @@
         <v>1</v>
       </c>
       <c r="P727" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="728" spans="1:16">
@@ -38808,7 +38811,7 @@
         <v>1</v>
       </c>
       <c r="P728" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="729" spans="1:16">
@@ -38858,7 +38861,7 @@
         <v>1</v>
       </c>
       <c r="P729" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="730" spans="1:16">
@@ -38908,7 +38911,7 @@
         <v>1</v>
       </c>
       <c r="P730" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="731" spans="1:16">
@@ -38958,7 +38961,7 @@
         <v>1</v>
       </c>
       <c r="P731" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="732" spans="1:16">
@@ -39008,7 +39011,7 @@
         <v>1</v>
       </c>
       <c r="P732" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="733" spans="1:16">
@@ -40008,7 +40011,7 @@
         <v>1</v>
       </c>
       <c r="P752" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="753" spans="1:16">
@@ -40058,7 +40061,7 @@
         <v>1</v>
       </c>
       <c r="P753" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="754" spans="1:16">
@@ -40108,7 +40111,7 @@
         <v>1</v>
       </c>
       <c r="P754" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="755" spans="1:16">
@@ -40158,7 +40161,7 @@
         <v>1</v>
       </c>
       <c r="P755" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="756" spans="1:16">
@@ -40408,7 +40411,7 @@
         <v>1</v>
       </c>
       <c r="P760" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="761" spans="1:16">
@@ -40458,7 +40461,7 @@
         <v>1</v>
       </c>
       <c r="P761" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="762" spans="1:16">
@@ -40508,7 +40511,7 @@
         <v>1</v>
       </c>
       <c r="P762" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="763" spans="1:16">
@@ -40558,7 +40561,7 @@
         <v>1</v>
       </c>
       <c r="P763" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="764" spans="1:16">
@@ -40758,7 +40761,7 @@
         <v>1</v>
       </c>
       <c r="P767" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="768" spans="1:16">
@@ -40808,7 +40811,7 @@
         <v>1</v>
       </c>
       <c r="P768" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -40858,7 +40861,7 @@
         <v>1</v>
       </c>
       <c r="P769" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="770" spans="1:16">
@@ -40958,7 +40961,7 @@
         <v>1</v>
       </c>
       <c r="P771" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="772" spans="1:16">
@@ -41308,7 +41311,7 @@
         <v>1</v>
       </c>
       <c r="P778" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="779" spans="1:16">
@@ -41358,7 +41361,7 @@
         <v>1</v>
       </c>
       <c r="P779" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="780" spans="1:16">
@@ -41408,7 +41411,7 @@
         <v>1</v>
       </c>
       <c r="P780" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="781" spans="1:16">
@@ -41458,7 +41461,7 @@
         <v>1</v>
       </c>
       <c r="P781" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="782" spans="1:16">
@@ -41508,7 +41511,7 @@
         <v>1</v>
       </c>
       <c r="P782" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="783" spans="1:16">
@@ -41558,7 +41561,7 @@
         <v>1</v>
       </c>
       <c r="P783" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="784" spans="1:16">
@@ -41608,7 +41611,7 @@
         <v>1</v>
       </c>
       <c r="P784" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="785" spans="1:16">
@@ -41658,7 +41661,7 @@
         <v>1</v>
       </c>
       <c r="P785" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="786" spans="1:16">
@@ -41708,7 +41711,7 @@
         <v>1</v>
       </c>
       <c r="P786" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="787" spans="1:16">
@@ -41758,7 +41761,7 @@
         <v>1</v>
       </c>
       <c r="P787" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="788" spans="1:16">
@@ -42008,7 +42011,7 @@
         <v>1</v>
       </c>
       <c r="P792" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="793" spans="1:16">
@@ -42058,7 +42061,7 @@
         <v>1</v>
       </c>
       <c r="P793" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="794" spans="1:16">
@@ -42108,7 +42111,7 @@
         <v>1</v>
       </c>
       <c r="P794" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="795" spans="1:16">
@@ -42408,7 +42411,7 @@
         <v>1</v>
       </c>
       <c r="P800" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="801" spans="1:16">
@@ -42458,7 +42461,7 @@
         <v>1</v>
       </c>
       <c r="P801" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="802" spans="1:16">
@@ -42508,7 +42511,7 @@
         <v>1</v>
       </c>
       <c r="P802" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="803" spans="1:16">
@@ -42758,7 +42761,7 @@
         <v>1</v>
       </c>
       <c r="P807" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="808" spans="1:16">
@@ -42808,7 +42811,7 @@
         <v>1</v>
       </c>
       <c r="P808" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="809" spans="1:16">
@@ -42858,7 +42861,7 @@
         <v>1</v>
       </c>
       <c r="P809" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="810" spans="1:16">
@@ -42908,7 +42911,7 @@
         <v>1</v>
       </c>
       <c r="P810" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="811" spans="1:16">
@@ -42958,7 +42961,7 @@
         <v>1</v>
       </c>
       <c r="P811" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="812" spans="1:16">
@@ -43408,7 +43411,7 @@
         <v>1</v>
       </c>
       <c r="P820" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="821" spans="1:16">
@@ -43458,7 +43461,7 @@
         <v>1</v>
       </c>
       <c r="P821" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="822" spans="1:16">
@@ -43558,7 +43561,7 @@
         <v>1</v>
       </c>
       <c r="P823" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="824" spans="1:16">
@@ -43608,7 +43611,7 @@
         <v>1</v>
       </c>
       <c r="P824" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="825" spans="1:16">
@@ -43658,7 +43661,7 @@
         <v>1</v>
       </c>
       <c r="P825" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="826" spans="1:16">
@@ -43708,7 +43711,7 @@
         <v>1</v>
       </c>
       <c r="P826" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="827" spans="1:16">
@@ -44858,7 +44861,7 @@
         <v>1</v>
       </c>
       <c r="P849" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="850" spans="1:16">
@@ -44908,7 +44911,7 @@
         <v>1</v>
       </c>
       <c r="P850" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="851" spans="1:16">
@@ -44958,7 +44961,7 @@
         <v>1</v>
       </c>
       <c r="P851" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="852" spans="1:16">
@@ -45008,7 +45011,7 @@
         <v>1</v>
       </c>
       <c r="P852" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="853" spans="1:16">
@@ -45058,7 +45061,7 @@
         <v>1</v>
       </c>
       <c r="P853" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="854" spans="1:16">
@@ -45108,7 +45111,7 @@
         <v>1</v>
       </c>
       <c r="P854" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="855" spans="1:16">
@@ -45158,7 +45161,7 @@
         <v>1</v>
       </c>
       <c r="P855" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="856" spans="1:16">
@@ -45208,7 +45211,7 @@
         <v>1</v>
       </c>
       <c r="P856" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="857" spans="1:16">
@@ -45258,7 +45261,7 @@
         <v>1</v>
       </c>
       <c r="P857" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="858" spans="1:16">
@@ -46008,7 +46011,7 @@
         <v>1</v>
       </c>
       <c r="P872" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="873" spans="1:16">
@@ -46058,7 +46061,7 @@
         <v>1</v>
       </c>
       <c r="P873" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="874" spans="1:16">
@@ -46108,7 +46111,7 @@
         <v>1</v>
       </c>
       <c r="P874" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="875" spans="1:16">
@@ -46358,7 +46361,7 @@
         <v>1</v>
       </c>
       <c r="P879" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="880" spans="1:16">
@@ -46408,7 +46411,7 @@
         <v>1</v>
       </c>
       <c r="P880" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="881" spans="1:16">
@@ -46458,7 +46461,7 @@
         <v>1</v>
       </c>
       <c r="P881" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="882" spans="1:16">
@@ -46508,7 +46511,7 @@
         <v>1</v>
       </c>
       <c r="P882" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="883" spans="1:16">
@@ -46558,7 +46561,7 @@
         <v>1</v>
       </c>
       <c r="P883" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="884" spans="1:16">
@@ -46608,7 +46611,7 @@
         <v>1</v>
       </c>
       <c r="P884" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="885" spans="1:16">
@@ -46658,7 +46661,7 @@
         <v>1</v>
       </c>
       <c r="P885" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="886" spans="1:16">
@@ -46708,7 +46711,7 @@
         <v>1</v>
       </c>
       <c r="P886" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="887" spans="1:16">
@@ -46758,7 +46761,7 @@
         <v>1</v>
       </c>
       <c r="P887" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="888" spans="1:16">
@@ -46808,7 +46811,7 @@
         <v>1</v>
       </c>
       <c r="P888" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="889" spans="1:16">
@@ -46858,7 +46861,7 @@
         <v>1</v>
       </c>
       <c r="P889" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="890" spans="1:16">
@@ -47058,7 +47061,7 @@
         <v>1</v>
       </c>
       <c r="P893" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="894" spans="1:16">
@@ -47108,7 +47111,7 @@
         <v>1</v>
       </c>
       <c r="P894" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="895" spans="1:16">
@@ -47158,7 +47161,7 @@
         <v>1</v>
       </c>
       <c r="P895" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="896" spans="1:16">
@@ -47358,7 +47361,7 @@
         <v>1</v>
       </c>
       <c r="P899" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="900" spans="1:16">
@@ -47408,7 +47411,7 @@
         <v>1</v>
       </c>
       <c r="P900" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="901" spans="1:16">
@@ -47458,7 +47461,7 @@
         <v>1</v>
       </c>
       <c r="P901" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="902" spans="1:16">
@@ -47508,7 +47511,7 @@
         <v>1</v>
       </c>
       <c r="P902" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="903" spans="1:16">
@@ -47558,7 +47561,7 @@
         <v>1</v>
       </c>
       <c r="P903" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="904" spans="1:16">
@@ -47608,7 +47611,7 @@
         <v>1</v>
       </c>
       <c r="P904" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="905" spans="1:16">
@@ -48508,7 +48511,7 @@
         <v>1</v>
       </c>
       <c r="P922" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="923" spans="1:16">
@@ -48558,7 +48561,7 @@
         <v>1</v>
       </c>
       <c r="P923" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="924" spans="1:16">
@@ -48658,7 +48661,7 @@
         <v>1</v>
       </c>
       <c r="P925" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="926" spans="1:16">
@@ -48708,7 +48711,7 @@
         <v>1</v>
       </c>
       <c r="P926" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="927" spans="1:16">
@@ -48758,7 +48761,7 @@
         <v>1</v>
       </c>
       <c r="P927" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="928" spans="1:16">
@@ -49058,7 +49061,7 @@
         <v>1</v>
       </c>
       <c r="P933" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="934" spans="1:16">
@@ -49108,7 +49111,7 @@
         <v>1</v>
       </c>
       <c r="P934" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="935" spans="1:16">
@@ -49158,7 +49161,7 @@
         <v>1</v>
       </c>
       <c r="P935" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="936" spans="1:16">
@@ -49208,7 +49211,7 @@
         <v>1</v>
       </c>
       <c r="P936" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="937" spans="1:16">
@@ -49258,7 +49261,7 @@
         <v>1</v>
       </c>
       <c r="P937" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="938" spans="1:16">
@@ -49408,7 +49411,7 @@
         <v>1</v>
       </c>
       <c r="P940" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="941" spans="1:16">
@@ -49508,7 +49511,7 @@
         <v>1</v>
       </c>
       <c r="P942" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="943" spans="1:16">
@@ -49558,7 +49561,7 @@
         <v>1</v>
       </c>
       <c r="P943" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="944" spans="1:16">
@@ -49608,7 +49611,7 @@
         <v>1</v>
       </c>
       <c r="P944" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="945" spans="1:16">
@@ -49758,7 +49761,7 @@
         <v>1</v>
       </c>
       <c r="P947" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="948" spans="1:16">
@@ -49808,7 +49811,7 @@
         <v>1</v>
       </c>
       <c r="P948" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="949" spans="1:16">
@@ -49858,7 +49861,7 @@
         <v>1</v>
       </c>
       <c r="P949" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="950" spans="1:16">
@@ -50058,7 +50061,7 @@
         <v>1</v>
       </c>
       <c r="P953" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="954" spans="1:16">
@@ -50108,7 +50111,7 @@
         <v>1</v>
       </c>
       <c r="P954" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="955" spans="1:16">
@@ -50158,7 +50161,7 @@
         <v>1</v>
       </c>
       <c r="P955" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="956" spans="1:16">
@@ -50208,7 +50211,7 @@
         <v>1</v>
       </c>
       <c r="P956" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="957" spans="1:16">
@@ -50258,7 +50261,7 @@
         <v>1</v>
       </c>
       <c r="P957" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="958" spans="1:16">
@@ -50608,7 +50611,7 @@
         <v>1</v>
       </c>
       <c r="P964" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="965" spans="1:16">
@@ -50658,7 +50661,7 @@
         <v>1</v>
       </c>
       <c r="P965" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="966" spans="1:16">
@@ -50708,7 +50711,7 @@
         <v>1</v>
       </c>
       <c r="P966" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="967" spans="1:16">
@@ -50758,7 +50761,7 @@
         <v>1</v>
       </c>
       <c r="P967" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="968" spans="1:16">
@@ -50958,7 +50961,7 @@
         <v>1</v>
       </c>
       <c r="P971" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="972" spans="1:16">
@@ -51008,7 +51011,7 @@
         <v>1</v>
       </c>
       <c r="P972" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="973" spans="1:16">
@@ -51508,7 +51511,7 @@
         <v>1</v>
       </c>
       <c r="P982" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="983" spans="1:16">
@@ -51558,7 +51561,7 @@
         <v>1</v>
       </c>
       <c r="P983" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="984" spans="1:16">
@@ -51608,7 +51611,7 @@
         <v>1</v>
       </c>
       <c r="P984" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="985" spans="1:16">
@@ -51658,7 +51661,7 @@
         <v>1</v>
       </c>
       <c r="P985" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="986" spans="1:16">
@@ -51708,7 +51711,7 @@
         <v>1</v>
       </c>
       <c r="P986" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="987" spans="1:16">
@@ -52108,7 +52111,7 @@
         <v>1</v>
       </c>
       <c r="P994" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="995" spans="1:16">
@@ -52308,7 +52311,7 @@
         <v>1</v>
       </c>
       <c r="P998" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="999" spans="1:16">
@@ -52358,7 +52361,7 @@
         <v>1</v>
       </c>
       <c r="P999" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1000" spans="1:16">
@@ -52408,7 +52411,7 @@
         <v>1</v>
       </c>
       <c r="P1000" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1001" spans="1:16">
@@ -52458,7 +52461,7 @@
         <v>1</v>
       </c>
       <c r="P1001" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1002" spans="1:16">
@@ -53008,7 +53011,7 @@
         <v>1</v>
       </c>
       <c r="P1012" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1013" spans="1:16">
@@ -53058,7 +53061,7 @@
         <v>1</v>
       </c>
       <c r="P1013" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1014" spans="1:16">
@@ -53108,7 +53111,7 @@
         <v>1</v>
       </c>
       <c r="P1014" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1015" spans="1:16">
@@ -53758,7 +53761,7 @@
         <v>1</v>
       </c>
       <c r="P1027" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1028" spans="1:16">
@@ -53808,7 +53811,7 @@
         <v>1</v>
       </c>
       <c r="P1028" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1029" spans="1:16">
@@ -53858,7 +53861,7 @@
         <v>1</v>
       </c>
       <c r="P1029" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1030" spans="1:16">
@@ -54758,7 +54761,7 @@
         <v>1</v>
       </c>
       <c r="P1047" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1048" spans="1:16">
@@ -54972,10 +54975,10 @@
         <v>2.24487135359287</v>
       </c>
       <c r="D1052" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E1052">
-        <v>2.260098973150417</v>
+        <v>2.40691738618878</v>
       </c>
       <c r="F1052">
         <v>1</v>
@@ -54984,10 +54987,10 @@
         <v>0.01481512864640713</v>
       </c>
       <c r="H1052">
-        <v>0.01453990102684958</v>
+        <v>0.01449308261381122</v>
       </c>
       <c r="I1052">
-        <v>0.01522761955754692</v>
+        <v>0.1620460325959101</v>
       </c>
       <c r="J1052">
         <v>0.8068201086530332</v>
@@ -54999,10 +55002,10 @@
         <v>8.529999999999999</v>
       </c>
       <c r="M1052">
-        <v>7.61</v>
+        <v>7.49</v>
       </c>
       <c r="N1052">
-        <v>8.4</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="O1052">
         <v>1</v>

--- a/s60_signal/position-01157-000157.xlsx
+++ b/s60_signal/position-01157-000157.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3171" uniqueCount="680">
   <si>
     <t>trade_time</t>
   </si>
@@ -781,6 +781,9 @@
     <t>2021-06-18</t>
   </si>
   <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
     <t>2016-07-27</t>
   </si>
   <si>
@@ -1478,9 +1481,6 @@
   </si>
   <si>
     <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>2021-07-12</t>
   </si>
   <si>
     <t>2021-07-13</t>
@@ -2411,7 +2411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1052"/>
+  <dimension ref="A1:P1053"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2475,7 +2475,7 @@
         <v>3.884543405261527</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E2">
         <v>3.78675384935409</v>
@@ -2525,7 +2525,7 @@
         <v>3.770269359268803</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E3">
         <v>3.818058915176241</v>
@@ -2575,7 +2575,7 @@
         <v>3.726283698323597</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E4">
         <v>3.640587862046794</v>
@@ -2625,7 +2625,7 @@
         <v>3.720717008109171</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E5">
         <v>3.640587862046794</v>
@@ -2675,7 +2675,7 @@
         <v>3.717044107631589</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E6">
         <v>3.640587862046794</v>
@@ -2725,7 +2725,7 @@
         <v>3.596154552261219</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E7">
         <v>3.664762879707613</v>
@@ -2775,7 +2775,7 @@
         <v>3.616153124804634</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E8">
         <v>3.5297140892325</v>
@@ -2825,7 +2825,7 @@
         <v>3.607522453997958</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E9">
         <v>3.5297140892325</v>
@@ -2875,7 +2875,7 @@
         <v>3.478069477150061</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E10">
         <v>3.548480630170671</v>
@@ -2925,7 +2925,7 @@
         <v>3.6211534433677</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E11">
         <v>3.535016151157131</v>
@@ -2975,7 +2975,7 @@
         <v>3.63792232694662</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E12">
         <v>3.535016151157131</v>
@@ -3025,7 +3025,7 @@
         <v>3.483716388630765</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E13">
         <v>3.640485272209684</v>
@@ -3075,7 +3075,7 @@
         <v>3.724444444444444</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E14">
         <v>3.623333333333333</v>
@@ -3125,7 +3125,7 @@
         <v>3.577777777777778</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E15">
         <v>3.737777777777777</v>
@@ -3175,7 +3175,7 @@
         <v>3.725076246034183</v>
       </c>
       <c r="D16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E16">
         <v>3.890136117081158</v>
@@ -3225,7 +3225,7 @@
         <v>3.801006899525658</v>
       </c>
       <c r="D17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E17">
         <v>3.968675075463562</v>
@@ -3275,7 +3275,7 @@
         <v>3.913131402331332</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E18">
         <v>4.084651183327447</v>
@@ -3325,7 +3325,7 @@
         <v>4.104651183327447</v>
       </c>
       <c r="D19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E19">
         <v>4.236900388555282</v>
@@ -3375,7 +3375,7 @@
         <v>3.999289428173886</v>
       </c>
       <c r="D20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E20">
         <v>4.17376883601192</v>
@@ -3425,7 +3425,7 @@
         <v>4.248676029044779</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E21">
         <v>4.311129625561207</v>
@@ -3475,7 +3475,7 @@
         <v>4.051994680851064</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E22">
         <v>4.228284574468085</v>
@@ -3511,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3525,7 +3525,7 @@
         <v>4.301582446808511</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E23">
         <v>4.306529255319149</v>
@@ -3561,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3575,7 +3575,7 @@
         <v>4.074350620567376</v>
       </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E24">
         <v>4.251408466312056</v>
@@ -3625,7 +3625,7 @@
         <v>4.324023714539007</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E25">
         <v>4.316965868794326</v>
@@ -3675,7 +3675,7 @@
         <v>4.364946030833204</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E26">
         <v>4.216145185906084</v>
@@ -3725,7 +3725,7 @@
         <v>4.356374026472485</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E27">
         <v>4.207801333752685</v>
@@ -3775,7 +3775,7 @@
         <v>4.370893981759741</v>
       </c>
       <c r="D28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E28">
         <v>4.221934826351687</v>
@@ -3825,7 +3825,7 @@
         <v>4.168236676602161</v>
       </c>
       <c r="D29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E29">
         <v>4.307881117011886</v>
@@ -3875,7 +3875,7 @@
         <v>4.378829275919285</v>
       </c>
       <c r="D30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E30">
         <v>4.229658914963259</v>
@@ -3925,7 +3925,7 @@
         <v>4.145711993582029</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E31">
         <v>4.285104292017649</v>
@@ -3975,7 +3975,7 @@
         <v>4.356724829522663</v>
       </c>
       <c r="D32" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E32">
         <v>4.20814279983955</v>
@@ -4025,7 +4025,7 @@
         <v>4.122379129462614</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E33">
         <v>4.261510239120778</v>
@@ -4075,7 +4075,7 @@
         <v>4.333827280032342</v>
       </c>
       <c r="D34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E34">
         <v>4.185854690829959</v>
@@ -4125,7 +4125,7 @@
         <v>4.116144320943905</v>
       </c>
       <c r="D35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E35">
         <v>4.115565060716015</v>
@@ -4175,7 +4175,7 @@
         <v>4.050892067199531</v>
       </c>
       <c r="D36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E36">
         <v>4.189222948548778</v>
@@ -4225,7 +4225,7 @@
         <v>4.26367393161745</v>
       </c>
       <c r="D37" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E37">
         <v>4.117568541802536</v>
@@ -4275,7 +4275,7 @@
         <v>4.04812491468612</v>
       </c>
       <c r="D38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E38">
         <v>4.103117558733866</v>
@@ -4325,7 +4325,7 @@
         <v>3.978921561402215</v>
       </c>
       <c r="D39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E39">
         <v>4.116446802761195</v>
@@ -4361,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -4375,7 +4375,7 @@
         <v>4.193046159137248</v>
       </c>
       <c r="D40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E40">
         <v>4.048820595966294</v>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -4425,7 +4425,7 @@
         <v>3.979645515513302</v>
       </c>
       <c r="D41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E41">
         <v>4.151598250915074</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -4525,7 +4525,7 @@
         <v>4.207807428966269</v>
       </c>
       <c r="D43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E43">
         <v>4.249228522372746</v>
@@ -4575,7 +4575,7 @@
         <v>4.250223789364667</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E44">
         <v>4.23959011098714</v>
@@ -4625,7 +4625,7 @@
         <v>4.358523641488584</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E45">
         <v>4.23959011098714</v>
@@ -4725,7 +4725,7 @@
         <v>3.360089577732704</v>
       </c>
       <c r="D47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E47">
         <v>3.139912266229293</v>
@@ -4775,7 +4775,7 @@
         <v>3.06079882374635</v>
       </c>
       <c r="D48" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E48">
         <v>3.141153446753172</v>
@@ -4825,7 +4825,7 @@
         <v>3.334468923585049</v>
       </c>
       <c r="D49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E49">
         <v>3.11447267677526</v>
@@ -4875,7 +4875,7 @@
         <v>3.034453910824202</v>
       </c>
       <c r="D50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E50">
         <v>3.034423885302509</v>
@@ -4925,7 +4925,7 @@
         <v>2.968635897856295</v>
       </c>
       <c r="D51" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E51">
         <v>2.807652170348814</v>
@@ -4975,7 +4975,7 @@
         <v>2.948893716440547</v>
       </c>
       <c r="D52" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E52">
         <v>2.807652170348814</v>
@@ -5025,7 +5025,7 @@
         <v>2.669829897118499</v>
       </c>
       <c r="D53" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E53">
         <v>2.657652170348815</v>
@@ -5075,7 +5075,7 @@
         <v>3.11290583468651</v>
       </c>
       <c r="D54" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E54">
         <v>2.954936702873989</v>
@@ -5125,7 +5125,7 @@
         <v>3.087995774936545</v>
       </c>
       <c r="D55" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E55">
         <v>2.954936702873989</v>
@@ -5175,7 +5175,7 @@
         <v>3.189318004623606</v>
       </c>
       <c r="D56" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E56">
         <v>2.869925402935528</v>
@@ -5225,7 +5225,7 @@
         <v>2.662759928391166</v>
       </c>
       <c r="D57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E57">
         <v>2.565391987742828</v>
@@ -5275,7 +5275,7 @@
         <v>4.932437513584003</v>
       </c>
       <c r="D58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E58">
         <v>5.110138013475331</v>
@@ -5375,7 +5375,7 @@
         <v>5.159737688076782</v>
       </c>
       <c r="D60" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E60">
         <v>5.359455868688208</v>
@@ -5425,7 +5425,7 @@
         <v>5.513022445128038</v>
       </c>
       <c r="D61" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E61">
         <v>5.711729931262155</v>
@@ -5475,7 +5475,7 @@
         <v>2.881029964976003</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E62">
         <v>3.029527824620574</v>
@@ -5525,7 +5525,7 @@
         <v>2.809093267609288</v>
       </c>
       <c r="D63" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E63">
         <v>3.029527824620574</v>
@@ -5575,7 +5575,7 @@
         <v>3.278480347645609</v>
       </c>
       <c r="D64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E64">
         <v>3.046978207290181</v>
@@ -5625,7 +5625,7 @@
         <v>2.839558394704231</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E65">
         <v>3.057078896080348</v>
@@ -5675,7 +5675,7 @@
         <v>3.305435362270917</v>
       </c>
       <c r="D66" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E66">
         <v>2.930671953805517</v>
@@ -5725,7 +5725,7 @@
         <v>2.88317873369117</v>
       </c>
       <c r="D67" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E67">
         <v>3.096526854816362</v>
@@ -5775,7 +5775,7 @@
         <v>3.34402987959197</v>
       </c>
       <c r="D68" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E68">
         <v>2.967369934648875</v>
@@ -5825,7 +5825,7 @@
         <v>3.390547506768122</v>
       </c>
       <c r="D69" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E69">
         <v>3.011601683339713</v>
@@ -5875,7 +5875,7 @@
         <v>3.007548974511134</v>
       </c>
       <c r="D70" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E70">
         <v>3.009707100996873</v>
@@ -5925,7 +5925,7 @@
         <v>2.169622958782912</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E71">
         <v>2.09903813171421</v>
@@ -5975,7 +5975,7 @@
         <v>2.081155097127951</v>
       </c>
       <c r="D72" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E72">
         <v>2.155389027955432</v>
@@ -6025,7 +6025,7 @@
         <v>1.912370798132592</v>
       </c>
       <c r="D73" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E73">
         <v>1.822925841983955</v>
@@ -6075,7 +6075,7 @@
         <v>1.808814833213683</v>
       </c>
       <c r="D74" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E74">
         <v>1.890592815673137</v>
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -6311,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -6425,7 +6425,7 @@
         <v>1.500907943631776</v>
       </c>
       <c r="D81" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E81">
         <v>1.526734286937149</v>
@@ -6575,7 +6575,7 @@
         <v>1.413520482809071</v>
       </c>
       <c r="D84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E84">
         <v>1.42980797366496</v>
@@ -6775,7 +6775,7 @@
         <v>1.439743103271459</v>
       </c>
       <c r="D88" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E88">
         <v>1.538563224284689</v>
@@ -6975,7 +6975,7 @@
         <v>2.785288432798644</v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E92">
         <v>2.826745043339642</v>
@@ -7175,7 +7175,7 @@
         <v>2.893486390532543</v>
       </c>
       <c r="D96" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E96">
         <v>2.93881785906401</v>
@@ -7325,7 +7325,7 @@
         <v>3.148387843312465</v>
       </c>
       <c r="D99" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E99">
         <v>3.073002424710967</v>
@@ -7375,7 +7375,7 @@
         <v>3.167609174744852</v>
       </c>
       <c r="D100" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E100">
         <v>3.162994593346351</v>
@@ -7475,7 +7475,7 @@
         <v>3.066916881646007</v>
       </c>
       <c r="D102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E102">
         <v>3.118033096331717</v>
@@ -7561,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -7611,7 +7611,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -7661,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -7675,7 +7675,7 @@
         <v>3.045908890706599</v>
       </c>
       <c r="D106" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E106">
         <v>3.042930954927745</v>
@@ -7711,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7875,7 +7875,7 @@
         <v>3.052131147540983</v>
       </c>
       <c r="D110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E110">
         <v>3.050282867245258</v>
@@ -8025,7 +8025,7 @@
         <v>3.004346995870153</v>
       </c>
       <c r="D113" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E113">
         <v>3.021879005876517</v>
@@ -8111,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -8125,7 +8125,7 @@
         <v>3.011297257899711</v>
       </c>
       <c r="D115" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E115">
         <v>2.901391067511534</v>
@@ -8161,7 +8161,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -8175,7 +8175,7 @@
         <v>2.999450568611793</v>
       </c>
       <c r="D116" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E116">
         <v>2.901391067511534</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -8225,7 +8225,7 @@
         <v>2.602221307961445</v>
       </c>
       <c r="D117" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E117">
         <v>2.781759967363196</v>
@@ -8375,7 +8375,7 @@
         <v>2.837775285050675</v>
       </c>
       <c r="D120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E120">
         <v>2.731024598817567</v>
@@ -8425,7 +8425,7 @@
         <v>2.820246516047297</v>
       </c>
       <c r="D121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E121">
         <v>2.731024598817567</v>
@@ -8475,7 +8475,7 @@
         <v>2.87140299962853</v>
       </c>
       <c r="D122" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E122">
         <v>2.702940425334325</v>
@@ -8525,7 +8525,7 @@
         <v>2.854975390044578</v>
       </c>
       <c r="D123" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E123">
         <v>2.702940425334325</v>
@@ -8575,7 +8575,7 @@
         <v>3.064599665445997</v>
       </c>
       <c r="D124" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E124">
         <v>2.889324110493241</v>
@@ -8625,7 +8625,7 @@
         <v>3.054498395044984</v>
       </c>
       <c r="D125" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E125">
         <v>2.889324110493241</v>
@@ -8675,7 +8675,7 @@
         <v>3.006759347167593</v>
       </c>
       <c r="D126" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E126">
         <v>2.889324110493241</v>
@@ -8725,7 +8725,7 @@
         <v>2.81570901756664</v>
       </c>
       <c r="D127" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E127">
         <v>2.872718834603418</v>
@@ -8761,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8775,7 +8775,7 @@
         <v>2.987536123963711</v>
       </c>
       <c r="D128" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E128">
         <v>2.814978175007812</v>
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8825,7 +8825,7 @@
         <v>2.974911362279903</v>
       </c>
       <c r="D129" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E129">
         <v>2.814978175007812</v>
@@ -8861,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8875,7 +8875,7 @@
         <v>2.926007626118145</v>
       </c>
       <c r="D130" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E130">
         <v>2.814978175007812</v>
@@ -8911,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8925,7 +8925,7 @@
         <v>2.824290814229628</v>
       </c>
       <c r="D131" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E131">
         <v>2.886339672478456</v>
@@ -8975,7 +8975,7 @@
         <v>2.996339672478456</v>
       </c>
       <c r="D132" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E132">
         <v>2.823471270930097</v>
@@ -9025,7 +9025,7 @@
         <v>2.984003188201932</v>
       </c>
       <c r="D133" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E133">
         <v>2.823471270930097</v>
@@ -9075,7 +9075,7 @@
         <v>2.935232503151227</v>
       </c>
       <c r="D134" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E134">
         <v>2.823471270930097</v>
@@ -9125,7 +9125,7 @@
         <v>2.735724901017758</v>
       </c>
       <c r="D135" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E135">
         <v>2.79548523437739</v>
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -9175,7 +9175,7 @@
         <v>2.90548523437739</v>
       </c>
       <c r="D136" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E136">
         <v>2.789981934432617</v>
@@ -9211,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -9225,7 +9225,7 @@
         <v>2.890173667744912</v>
       </c>
       <c r="D137" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E137">
         <v>2.789981934432617</v>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -9311,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -9325,7 +9325,7 @@
         <v>2.755443385061204</v>
       </c>
       <c r="D139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E139">
         <v>2.652622768184349</v>
@@ -9361,7 +9361,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -9375,7 +9375,7 @@
         <v>1.676414379078604</v>
       </c>
       <c r="D140" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E140">
         <v>1.856149698529876</v>
@@ -9411,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -9425,7 +9425,7 @@
         <v>1.848491854548167</v>
       </c>
       <c r="D141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E141">
         <v>1.792544790657912</v>
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -9475,7 +9475,7 @@
         <v>1.557098210760008</v>
       </c>
       <c r="D142" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E142">
         <v>1.746082845584814</v>
@@ -9525,7 +9525,7 @@
         <v>1.749981309067294</v>
       </c>
       <c r="D143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E143">
         <v>1.680319764125692</v>
@@ -9575,7 +9575,7 @@
         <v>1.756082845584813</v>
       </c>
       <c r="D144" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E144">
         <v>1.714218227608173</v>
@@ -9625,7 +9625,7 @@
         <v>3.056114387498504</v>
       </c>
       <c r="D145" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E145">
         <v>2.961333822296731</v>
@@ -9775,7 +9775,7 @@
         <v>3.027597144054604</v>
       </c>
       <c r="D148" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E148">
         <v>2.970426296251946</v>
@@ -9825,7 +9825,7 @@
         <v>2.985335724177111</v>
       </c>
       <c r="D149" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E149">
         <v>2.888515428043887</v>
@@ -9861,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9925,7 +9925,7 @@
         <v>2.952331072684017</v>
       </c>
       <c r="D151" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E151">
         <v>2.892100628484181</v>
@@ -9961,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9975,7 +9975,7 @@
         <v>2.849326421190923</v>
       </c>
       <c r="D152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E152">
         <v>2.868054539644213</v>
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -10025,7 +10025,7 @@
         <v>2.853696304047078</v>
       </c>
       <c r="D153" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E153">
         <v>2.789456316406717</v>
@@ -10125,7 +10125,7 @@
         <v>2.797710331115444</v>
       </c>
       <c r="D155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E155">
         <v>2.699981818758038</v>
@@ -10175,7 +10175,7 @@
         <v>2.777103995036021</v>
       </c>
       <c r="D156" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E156">
         <v>2.699981818758038</v>
@@ -10225,7 +10225,7 @@
         <v>2.67139660294336</v>
       </c>
       <c r="D157" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E157">
         <v>2.73750821908897</v>
@@ -10275,7 +10275,7 @@
         <v>2.788331146152862</v>
       </c>
       <c r="D158" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E158">
         <v>2.721715052289565</v>
@@ -10311,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -10325,7 +10325,7 @@
         <v>2.797684708607543</v>
       </c>
       <c r="D159" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E159">
         <v>2.721715052289565</v>
@@ -10361,7 +10361,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -10375,7 +10375,7 @@
         <v>2.692361489834884</v>
       </c>
       <c r="D160" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E160">
         <v>2.757869405049062</v>
@@ -10411,7 +10411,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -10425,7 +10425,7 @@
         <v>2.756127820449931</v>
       </c>
       <c r="D161" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E161">
         <v>2.686389520493553</v>
@@ -10475,7 +10475,7 @@
         <v>2.76423250046738</v>
       </c>
       <c r="D162" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E162">
         <v>2.686389520493553</v>
@@ -10525,7 +10525,7 @@
         <v>2.658284840476104</v>
       </c>
       <c r="D163" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E163">
         <v>2.724774020462394</v>
@@ -10575,7 +10575,7 @@
         <v>2.723982406381016</v>
       </c>
       <c r="D164" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E164">
         <v>2.651127515032915</v>
@@ -10625,7 +10625,7 @@
         <v>2.730840449841776</v>
       </c>
       <c r="D165" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E165">
         <v>2.651127515032915</v>
@@ -10675,7 +10675,7 @@
         <v>2.624269471572156</v>
       </c>
       <c r="D166" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E166">
         <v>2.69173815171013</v>
@@ -10725,7 +10725,7 @@
         <v>2.720274615489797</v>
       </c>
       <c r="D167" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E167">
         <v>2.616880075159782</v>
@@ -10775,7 +10775,7 @@
         <v>2.698409162083127</v>
       </c>
       <c r="D168" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E168">
         <v>2.616880075159782</v>
@@ -10825,7 +10825,7 @@
         <v>2.591232799775345</v>
       </c>
       <c r="D169" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E169">
         <v>2.659652797687573</v>
@@ -10875,7 +10875,7 @@
         <v>2.702476435379792</v>
       </c>
       <c r="D170" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E170">
         <v>2.663098253182016</v>
@@ -10925,7 +10925,7 @@
         <v>2.688105605696522</v>
       </c>
       <c r="D171" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E171">
         <v>2.607334789987493</v>
@@ -10975,7 +10975,7 @@
         <v>2.684060250468397</v>
       </c>
       <c r="D172" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E172">
         <v>2.607334789987493</v>
@@ -11025,7 +11025,7 @@
         <v>2.689370066276036</v>
       </c>
       <c r="D173" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E173">
         <v>2.607334789987493</v>
@@ -11075,7 +11075,7 @@
         <v>2.582024974179855</v>
       </c>
       <c r="D174" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E174">
         <v>2.650710118902424</v>
@@ -11125,7 +11125,7 @@
         <v>2.693365026806243</v>
       </c>
       <c r="D175" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E175">
         <v>2.615375105745827</v>
@@ -11175,7 +11175,7 @@
         <v>2.654111708020125</v>
       </c>
       <c r="D176" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E176">
         <v>2.567030647832243</v>
@@ -11225,7 +11225,7 @@
         <v>2.647318343099596</v>
       </c>
       <c r="D177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E177">
         <v>2.567030647832243</v>
@@ -11275,7 +11275,7 @@
         <v>2.651203264992655</v>
       </c>
       <c r="D178" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E178">
         <v>2.567030647832243</v>
@@ -11325,7 +11325,7 @@
         <v>2.543145725939185</v>
       </c>
       <c r="D179" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E179">
         <v>2.612950430166066</v>
@@ -11375,7 +11375,7 @@
         <v>2.654892891112596</v>
       </c>
       <c r="D180" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E180">
         <v>2.577513638872713</v>
@@ -11425,7 +11425,7 @@
         <v>2.613215980031323</v>
       </c>
       <c r="D181" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E181">
         <v>2.529621961474803</v>
@@ -11475,7 +11475,7 @@
         <v>2.615778372608715</v>
       </c>
       <c r="D182" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E182">
         <v>2.529621961474803</v>
@@ -11525,7 +11525,7 @@
         <v>2.507059568897411</v>
       </c>
       <c r="D183" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E183">
         <v>2.577903403300888</v>
@@ -11575,7 +11575,7 @@
         <v>2.619184599589585</v>
       </c>
       <c r="D184" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E184">
         <v>2.542372145627845</v>
@@ -11625,7 +11625,7 @@
         <v>2.623320491563446</v>
       </c>
       <c r="D185" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E185">
         <v>2.540706134789818</v>
@@ -11675,7 +11675,7 @@
         <v>2.626274748853995</v>
       </c>
       <c r="D186" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E186">
         <v>2.540706134789818</v>
@@ -11725,7 +11725,7 @@
         <v>2.493791085535941</v>
       </c>
       <c r="D187" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E187">
         <v>2.588287818199552</v>
@@ -11775,7 +11775,7 @@
         <v>2.629764946844826</v>
       </c>
       <c r="D188" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E188">
         <v>2.552784550863162</v>
@@ -11825,7 +11825,7 @@
         <v>2.663805817656947</v>
       </c>
       <c r="D189" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E189">
         <v>2.580338943445735</v>
@@ -11875,7 +11875,7 @@
         <v>2.517596264198201</v>
       </c>
       <c r="D190" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E190">
         <v>2.625418555601938</v>
@@ -11925,7 +11925,7 @@
         <v>2.667596264198202</v>
       </c>
       <c r="D191" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E191">
         <v>2.551386710739457</v>
@@ -11975,7 +11975,7 @@
         <v>2.473805817656946</v>
       </c>
       <c r="D192" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E192">
         <v>2.411386710739457</v>
@@ -12075,7 +12075,7 @@
         <v>2.671028205213792</v>
       </c>
       <c r="D194" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E194">
         <v>2.554845889382155</v>
@@ -12125,7 +12125,7 @@
         <v>2.477210521045428</v>
       </c>
       <c r="D195" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E195">
         <v>2.464057678827731</v>
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -12225,7 +12225,7 @@
         <v>2.752469410456063</v>
       </c>
       <c r="D197" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E197">
         <v>2.636933453396191</v>
@@ -12261,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -12275,7 +12275,7 @@
         <v>2.558005367515936</v>
       </c>
       <c r="D198" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E198">
         <v>2.608005367515935</v>
@@ -12311,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -12325,7 +12325,7 @@
         <v>2.760118302964375</v>
       </c>
       <c r="D199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E199">
         <v>2.6446430514006</v>
@@ -12375,7 +12375,7 @@
         <v>2.565593554528149</v>
       </c>
       <c r="D200" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E200">
         <v>2.635910388903999</v>
@@ -12425,7 +12425,7 @@
         <v>2.829270661186353</v>
       </c>
       <c r="D201" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E201">
         <v>2.714344237862436</v>
@@ -12461,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -12475,7 +12475,7 @@
         <v>2.634197084510271</v>
       </c>
       <c r="D202" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E202">
         <v>2.724049931158106</v>
@@ -12511,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -12525,7 +12525,7 @@
         <v>2.904384470979854</v>
       </c>
       <c r="D203" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E203">
         <v>2.790054189003504</v>
@@ -12625,7 +12625,7 @@
         <v>2.929433294817497</v>
       </c>
       <c r="D205" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E205">
         <v>2.815301813030334</v>
@@ -12661,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -12711,7 +12711,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -12725,7 +12725,7 @@
         <v>2.964160465630297</v>
       </c>
       <c r="D207" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E207">
         <v>2.850304596309902</v>
@@ -12825,7 +12825,7 @@
         <v>2.945007420193452</v>
       </c>
       <c r="D209" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E209">
         <v>2.875007420193452</v>
@@ -12875,7 +12875,7 @@
         <v>3.004080065248422</v>
       </c>
       <c r="D210" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E210">
         <v>2.890541018147219</v>
@@ -12975,7 +12975,7 @@
         <v>2.982392442058046</v>
       </c>
       <c r="D212" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E212">
         <v>2.919470536260452</v>
@@ -13025,7 +13025,7 @@
         <v>3.029043042833921</v>
       </c>
       <c r="D213" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E213">
         <v>2.915702114602444</v>
@@ -13125,7 +13125,7 @@
         <v>3.005770468685736</v>
       </c>
       <c r="D215" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E215">
         <v>2.951346277303007</v>
@@ -13175,7 +13175,7 @@
         <v>3.115406554762734</v>
       </c>
       <c r="D216" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E216">
         <v>3.002751051229105</v>
@@ -13275,7 +13275,7 @@
         <v>3.086650583031767</v>
       </c>
       <c r="D218" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E218">
         <v>3.016650583031767</v>
@@ -13325,7 +13325,7 @@
         <v>3.171907995720733</v>
       </c>
       <c r="D219" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E219">
         <v>3.059700916321691</v>
@@ -13425,7 +13425,7 @@
         <v>3.139564630913067</v>
       </c>
       <c r="D221" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E221">
         <v>3.069564630913067</v>
@@ -13525,7 +13525,7 @@
         <v>3.192857523606458</v>
       </c>
       <c r="D223" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E223">
         <v>3.122857523606458</v>
@@ -13575,7 +13575,7 @@
         <v>3.220411970758454</v>
       </c>
       <c r="D224" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E224">
         <v>3.129879302467256</v>
@@ -13661,7 +13661,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -13675,7 +13675,7 @@
         <v>3.22201015370712</v>
       </c>
       <c r="D226" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E226">
         <v>3.109552096346648</v>
@@ -13711,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -13725,7 +13725,7 @@
         <v>3.247094038986177</v>
       </c>
       <c r="D227" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E227">
         <v>3.109552096346648</v>
@@ -13761,7 +13761,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13775,7 +13775,7 @@
         <v>3.179698840379459</v>
       </c>
       <c r="D228" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E228">
         <v>3.087246996946805</v>
@@ -13811,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -13825,7 +13825,7 @@
         <v>3.225775890887212</v>
       </c>
       <c r="D229" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E229">
         <v>3.087246996946805</v>
@@ -13861,7 +13861,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13875,7 +13875,7 @@
         <v>3.194058355437667</v>
       </c>
       <c r="D230" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E230">
         <v>3.100620281575191</v>
@@ -13925,7 +13925,7 @@
         <v>3.238557437257704</v>
       </c>
       <c r="D231" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E231">
         <v>3.100620281575191</v>
@@ -13975,7 +13975,7 @@
         <v>3.206607745922255</v>
       </c>
       <c r="D232" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E232">
         <v>3.112307763372649</v>
@@ -14011,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -14025,7 +14025,7 @@
         <v>3.249727773842886</v>
       </c>
       <c r="D233" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E233">
         <v>3.112307763372649</v>
@@ -14061,7 +14061,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -14075,7 +14075,7 @@
         <v>2.81509812627653</v>
       </c>
       <c r="D234" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E234">
         <v>2.765377852766185</v>
@@ -14125,7 +14125,7 @@
         <v>2.665155707957519</v>
       </c>
       <c r="D235" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E235">
         <v>2.587022735763465</v>
@@ -14175,7 +14175,7 @@
         <v>2.679333004216259</v>
       </c>
       <c r="D236" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E236">
         <v>2.625851924000642</v>
@@ -14225,7 +14225,7 @@
         <v>2.488635552660644</v>
       </c>
       <c r="D237" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E237">
         <v>2.566921922347144</v>
@@ -14275,7 +14275,7 @@
         <v>2.591330038798109</v>
       </c>
       <c r="D238" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E238">
         <v>2.521859902013537</v>
@@ -14325,7 +14325,7 @@
         <v>2.577575826229787</v>
       </c>
       <c r="D239" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E239">
         <v>2.487902778171108</v>
@@ -14375,7 +14375,7 @@
         <v>2.382189969131431</v>
       </c>
       <c r="D240" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E240">
         <v>2.42734940953244</v>
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -14425,7 +14425,7 @@
         <v>2.488584435445045</v>
       </c>
       <c r="D241" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E241">
         <v>2.414560476905213</v>
@@ -14461,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -14475,7 +14475,7 @@
         <v>2.468066466540171</v>
       </c>
       <c r="D242" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E242">
         <v>2.414560476905213</v>
@@ -14511,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -14525,7 +14525,7 @@
         <v>2.480237886211095</v>
       </c>
       <c r="D243" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E243">
         <v>2.39312636288975</v>
@@ -14561,7 +14561,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -14575,7 +14575,7 @@
         <v>2.336731896576137</v>
       </c>
       <c r="D244" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E244">
         <v>2.388484891393616</v>
@@ -14611,7 +14611,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -14625,7 +14625,7 @@
         <v>2.395396863176382</v>
       </c>
       <c r="D245" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E245">
         <v>2.451547975673612</v>
@@ -14675,7 +14675,7 @@
         <v>2.513472419424997</v>
       </c>
       <c r="D246" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E246">
         <v>2.440551529427213</v>
@@ -14725,7 +14725,7 @@
         <v>2.493781751926659</v>
       </c>
       <c r="D247" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E247">
         <v>2.440551529427213</v>
@@ -14775,7 +14775,7 @@
         <v>2.503815976297366</v>
       </c>
       <c r="D248" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E248">
         <v>2.416083976921119</v>
@@ -14875,7 +14875,7 @@
         <v>2.459500183194918</v>
       </c>
       <c r="D250" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E250">
         <v>2.551482657547629</v>
@@ -14925,7 +14925,7 @@
         <v>2.575847887151929</v>
       </c>
       <c r="D251" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E251">
         <v>2.505691560820712</v>
@@ -14975,7 +14975,7 @@
         <v>2.558230642403516</v>
       </c>
       <c r="D252" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E252">
         <v>2.505691560820712</v>
@@ -15025,7 +15025,7 @@
         <v>2.562908524670248</v>
       </c>
       <c r="D253" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E253">
         <v>2.473621458231557</v>
@@ -15075,7 +15075,7 @@
         <v>2.420369443087444</v>
       </c>
       <c r="D254" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E254">
         <v>2.48123870297997</v>
@@ -15125,7 +15125,7 @@
         <v>2.444334391792866</v>
       </c>
       <c r="D255" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E255">
         <v>2.48123870297997</v>
@@ -15175,7 +15175,7 @@
         <v>2.644473444785625</v>
       </c>
       <c r="D256" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E256">
         <v>2.577358694416013</v>
@@ -15225,7 +15225,7 @@
         <v>2.629137382008416</v>
       </c>
       <c r="D257" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E257">
         <v>2.577358694416013</v>
@@ -15275,7 +15275,7 @@
         <v>2.627922210849539</v>
       </c>
       <c r="D258" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E258">
         <v>2.536924257932446</v>
@@ -15325,7 +15325,7 @@
         <v>2.683590673274826</v>
       </c>
       <c r="D259" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E259">
         <v>2.618209650483682</v>
@@ -15361,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -15375,7 +15375,7 @@
         <v>2.669554906181468</v>
       </c>
       <c r="D260" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E260">
         <v>2.618209650483682</v>
@@ -15411,7 +15411,7 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -15425,7 +15425,7 @@
         <v>2.523635382141522</v>
       </c>
       <c r="D261" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E261">
         <v>2.533096880892721</v>
@@ -15461,7 +15461,7 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -15475,7 +15475,7 @@
         <v>2.541034288479344</v>
       </c>
       <c r="D262" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E262">
         <v>2.533096880892721</v>
@@ -15511,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -15525,7 +15525,7 @@
         <v>2.688107897843115</v>
       </c>
       <c r="D263" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E263">
         <v>2.577174321279105</v>
@@ -15561,7 +15561,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -15575,7 +15575,7 @@
         <v>2.674222287799119</v>
       </c>
       <c r="D264" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E264">
         <v>2.577174321279105</v>
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -15625,7 +15625,7 @@
         <v>2.689546088636118</v>
       </c>
       <c r="D265" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E265">
         <v>2.577174321279105</v>
@@ -15661,7 +15661,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -15711,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15775,7 +15775,7 @@
         <v>2.6750945898669</v>
       </c>
       <c r="D268" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E268">
         <v>2.565170355749799</v>
@@ -15825,7 +15825,7 @@
         <v>2.660776404488514</v>
       </c>
       <c r="D269" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E269">
         <v>2.565170355749799</v>
@@ -15875,7 +15875,7 @@
         <v>2.676136253270046</v>
       </c>
       <c r="D270" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E270">
         <v>2.565170355749799</v>
@@ -15925,7 +15925,7 @@
         <v>2.65693171671601</v>
       </c>
       <c r="D271" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E271">
         <v>2.565170355749799</v>
@@ -16075,7 +16075,7 @@
         <v>2.651758894307871</v>
       </c>
       <c r="D274" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E274">
         <v>2.5571198707896</v>
@@ -16125,7 +16125,7 @@
         <v>2.667142918719914</v>
       </c>
       <c r="D275" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E275">
         <v>2.5571198707896</v>
@@ -16175,7 +16175,7 @@
         <v>2.648663651081211</v>
       </c>
       <c r="D276" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E276">
         <v>2.5571198707896</v>
@@ -16325,7 +16325,7 @@
         <v>2.61748405412426</v>
       </c>
       <c r="D279" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E279">
         <v>2.52652061668466</v>
@@ -16361,7 +16361,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -16375,7 +16375,7 @@
         <v>2.63295996818827</v>
       </c>
       <c r="D280" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E280">
         <v>2.52652061668466</v>
@@ -16411,7 +16411,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -16425,7 +16425,7 @@
         <v>2.617237390108571</v>
       </c>
       <c r="D281" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E281">
         <v>2.52652061668466</v>
@@ -16461,7 +16461,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -16511,7 +16511,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -16575,7 +16575,7 @@
         <v>2.482231585452781</v>
       </c>
       <c r="D284" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E284">
         <v>2.511279757324761</v>
@@ -16611,7 +16611,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -16625,7 +16625,7 @@
         <v>2.598511796392573</v>
       </c>
       <c r="D285" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E285">
         <v>2.495683946770771</v>
@@ -16675,7 +16675,7 @@
         <v>2.585567296683496</v>
       </c>
       <c r="D286" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E286">
         <v>2.495683946770771</v>
@@ -16825,7 +16825,7 @@
         <v>2.575914921046296</v>
       </c>
       <c r="D289" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E289">
         <v>2.475456098678539</v>
@@ -16875,7 +16875,7 @@
         <v>2.53538792323967</v>
       </c>
       <c r="D290" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E290">
         <v>2.475456098678539</v>
@@ -16975,7 +16975,7 @@
         <v>2.433007230257691</v>
       </c>
       <c r="D292" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E292">
         <v>2.461085359643469</v>
@@ -17025,7 +17025,7 @@
         <v>2.433602403503186</v>
       </c>
       <c r="D293" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E293">
         <v>2.461085359643469</v>
@@ -17075,7 +17075,7 @@
         <v>2.562903442795941</v>
       </c>
       <c r="D294" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E294">
         <v>2.463808727018947</v>
@@ -17111,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -17125,7 +17125,7 @@
         <v>2.523180918106945</v>
       </c>
       <c r="D295" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E295">
         <v>2.463808727018947</v>
@@ -17161,7 +17161,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -17175,7 +17175,7 @@
         <v>2.410173632277946</v>
       </c>
       <c r="D296" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E296">
         <v>2.47177958370295</v>
@@ -17211,7 +17211,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -17261,7 +17261,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -17311,7 +17311,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -17325,7 +17325,7 @@
         <v>2.53110105901022</v>
       </c>
       <c r="D299" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E299">
         <v>2.4713657669066</v>
@@ -17375,7 +17375,7 @@
         <v>2.418025691740792</v>
       </c>
       <c r="D300" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E300">
         <v>2.479064297828884</v>
@@ -17425,7 +17425,7 @@
         <v>2.429064297828885</v>
       </c>
       <c r="D301" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E301">
         <v>2.44649812085479</v>
@@ -17475,7 +17475,7 @@
         <v>2.429573488124219</v>
       </c>
       <c r="D302" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E302">
         <v>2.44649812085479</v>
@@ -17525,7 +17525,7 @@
         <v>2.397220582315203</v>
       </c>
       <c r="D303" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E303">
         <v>2.459762447754856</v>
@@ -17575,7 +17575,7 @@
         <v>2.499762447754856</v>
       </c>
       <c r="D304" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E304">
         <v>2.422392590871406</v>
@@ -17625,7 +17625,7 @@
         <v>2.409762447754856</v>
       </c>
       <c r="D305" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E305">
         <v>2.455464122372442</v>
@@ -17675,7 +17675,7 @@
         <v>2.409850725431753</v>
       </c>
       <c r="D306" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E306">
         <v>2.455464122372442</v>
@@ -17725,7 +17725,7 @@
         <v>2.496955120420453</v>
       </c>
       <c r="D307" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E307">
         <v>2.419742683761362</v>
@@ -17775,7 +17775,7 @@
         <v>2.406955120420453</v>
       </c>
       <c r="D308" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E308">
         <v>2.452665540606059</v>
@@ -17825,7 +17825,7 @@
         <v>2.40698217912121</v>
       </c>
       <c r="D309" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E309">
         <v>2.452665540606059</v>
@@ -17875,7 +17875,7 @@
         <v>2.481899700070572</v>
       </c>
       <c r="D310" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E310">
         <v>2.405531492589979</v>
@@ -17925,7 +17925,7 @@
         <v>2.391899700070572</v>
       </c>
       <c r="D311" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E311">
         <v>2.437657021877206</v>
@@ -17975,7 +17975,7 @@
         <v>2.391598447424136</v>
       </c>
       <c r="D312" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E312">
         <v>2.437657021877206</v>
@@ -18025,7 +18025,7 @@
         <v>2.480338250029471</v>
       </c>
       <c r="D313" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E313">
         <v>2.404057600495108</v>
@@ -18075,7 +18075,7 @@
         <v>2.390338250029471</v>
       </c>
       <c r="D314" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E314">
         <v>2.436100436166451</v>
@@ -18125,7 +18125,7 @@
         <v>2.390002947070612</v>
       </c>
       <c r="D315" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E315">
         <v>2.436100436166451</v>
@@ -18175,7 +18175,7 @@
         <v>2.479157214819855</v>
       </c>
       <c r="D316" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E316">
         <v>2.402942791558929</v>
@@ -18211,7 +18211,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -18225,7 +18225,7 @@
         <v>2.389157214819855</v>
       </c>
       <c r="D317" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E317">
         <v>2.434923080194248</v>
@@ -18261,7 +18261,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -18275,7 +18275,7 @@
         <v>2.388796157199104</v>
       </c>
       <c r="D318" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E318">
         <v>2.434923080194248</v>
@@ -18311,7 +18311,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -18325,7 +18325,7 @@
         <v>2.471028111867845</v>
       </c>
       <c r="D319" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E319">
         <v>2.39526952615563</v>
@@ -18375,7 +18375,7 @@
         <v>2.381028111867845</v>
       </c>
       <c r="D320" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E320">
         <v>2.4268193015505</v>
@@ -18425,7 +18425,7 @@
         <v>2.380489784089263</v>
       </c>
       <c r="D321" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E321">
         <v>2.4268193015505</v>
@@ -18475,7 +18475,7 @@
         <v>2.468401680915809</v>
       </c>
       <c r="D322" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E322">
         <v>2.495775249963773</v>
@@ -18525,7 +18525,7 @@
         <v>2.494647032160011</v>
       </c>
       <c r="D323" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E323">
         <v>2.417564021010852</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -18575,7 +18575,7 @@
         <v>2.404647032160011</v>
       </c>
       <c r="D324" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E324">
         <v>2.481823137077145</v>
@@ -18611,7 +18611,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -18625,7 +18625,7 @@
         <v>2.404623758718018</v>
       </c>
       <c r="D325" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E325">
         <v>2.481823137077145</v>
@@ -18661,7 +18661,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -18675,7 +18675,7 @@
         <v>2.491799863635151</v>
       </c>
       <c r="D326" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E326">
         <v>2.517517474126865</v>
@@ -18711,7 +18711,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -18725,7 +18725,7 @@
         <v>2.404401920213214</v>
       </c>
       <c r="D327" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E327">
         <v>2.48158566101654</v>
@@ -18775,7 +18775,7 @@
         <v>2.404373301650885</v>
       </c>
       <c r="D328" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E328">
         <v>2.48158566101654</v>
@@ -18825,7 +18825,7 @@
         <v>2.53158566101654</v>
       </c>
       <c r="D329" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E329">
         <v>2.50868354613288</v>
@@ -18875,7 +18875,7 @@
         <v>2.386665433216467</v>
       </c>
       <c r="D330" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E330">
         <v>2.464401712555517</v>
@@ -18911,7 +18911,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18925,7 +18925,7 @@
         <v>2.386250037679131</v>
       </c>
       <c r="D331" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E331">
         <v>2.464401712555517</v>
@@ -18961,7 +18961,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18975,7 +18975,7 @@
         <v>2.514401712555517</v>
       </c>
       <c r="D332" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E332">
         <v>2.456665433216466</v>
@@ -19011,7 +19011,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -19025,7 +19025,7 @@
         <v>2.379823773855941</v>
       </c>
       <c r="D333" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E333">
         <v>2.457773189000615</v>
@@ -19075,7 +19075,7 @@
         <v>2.379259183254669</v>
       </c>
       <c r="D334" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E334">
         <v>2.457773189000615</v>
@@ -19125,7 +19125,7 @@
         <v>2.507773189000615</v>
       </c>
       <c r="D335" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E335">
         <v>2.447208598399343</v>
@@ -19175,7 +19175,7 @@
         <v>2.380365422859535</v>
       </c>
       <c r="D336" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E336">
         <v>2.458297964203474</v>
@@ -19211,7 +19211,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -19225,7 +19225,7 @@
         <v>2.379812643918777</v>
       </c>
       <c r="D337" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E337">
         <v>2.458297964203474</v>
@@ -19261,7 +19261,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -19311,7 +19311,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -19325,7 +19325,7 @@
         <v>2.340948298102886</v>
       </c>
       <c r="D339" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E339">
         <v>2.42010878725856</v>
@@ -19375,7 +19375,7 @@
         <v>2.339535955693915</v>
       </c>
       <c r="D340" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E340">
         <v>2.42010878725856</v>
@@ -19475,7 +19475,7 @@
         <v>2.307123929096562</v>
       </c>
       <c r="D342" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E342">
         <v>2.387338136912868</v>
@@ -19525,7 +19525,7 @@
         <v>2.304973983625148</v>
       </c>
       <c r="D343" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E343">
         <v>2.387338136912868</v>
@@ -19575,7 +19575,7 @@
         <v>2.320995404406778</v>
       </c>
       <c r="D344" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E344">
         <v>2.387338136912868</v>
@@ -19675,7 +19675,7 @@
         <v>2.267436823104691</v>
       </c>
       <c r="D346" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E346">
         <v>2.351746499955972</v>
@@ -19725,7 +19725,7 @@
         <v>2.283572686448884</v>
       </c>
       <c r="D347" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E347">
         <v>2.351746499955972</v>
@@ -19825,7 +19825,7 @@
         <v>2.214132181495051</v>
       </c>
       <c r="D349" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E349">
         <v>2.301204598917563</v>
@@ -19861,7 +19861,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19911,7 +19911,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19961,7 +19961,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -20025,7 +20025,7 @@
         <v>2.120111782749789</v>
       </c>
       <c r="D353" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E353">
         <v>2.170425124401212</v>
@@ -20061,7 +20061,7 @@
         <v>1</v>
       </c>
       <c r="P353" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -20075,7 +20075,7 @@
         <v>2.220425124401212</v>
       </c>
       <c r="D354" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E354">
         <v>2.153236221648839</v>
@@ -20111,7 +20111,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -20161,7 +20161,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -20175,7 +20175,7 @@
         <v>2.134388925433161</v>
       </c>
       <c r="D356" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E356">
         <v>2.184432037254615</v>
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -20225,7 +20225,7 @@
         <v>2.234432037254614</v>
       </c>
       <c r="D357" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E357">
         <v>2.167693517552191</v>
@@ -20261,7 +20261,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -20311,7 +20311,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -20325,7 +20325,7 @@
         <v>2.236880504960912</v>
       </c>
       <c r="D359" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E359">
         <v>2.170220714123642</v>
@@ -20525,7 +20525,7 @@
         <v>2.232302849932968</v>
       </c>
       <c r="D363" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E363">
         <v>2.1654958676157</v>
@@ -20561,7 +20561,7 @@
         <v>1</v>
       </c>
       <c r="P363" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="364" spans="1:16">
@@ -20575,7 +20575,7 @@
         <v>2.219194021640597</v>
       </c>
       <c r="D364" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E364">
         <v>1.998688885298432</v>
@@ -20611,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -20675,7 +20675,7 @@
         <v>2.225987165440235</v>
       </c>
       <c r="D366" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E366">
         <v>2.006311022917687</v>
@@ -20725,7 +20725,7 @@
         <v>2.281476452885896</v>
       </c>
       <c r="D367" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E367">
         <v>2.068571884424513</v>
@@ -20761,7 +20761,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -20775,7 +20775,7 @@
         <v>2.305306977623911</v>
       </c>
       <c r="D368" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E368">
         <v>2.095310540994964</v>
@@ -20811,7 +20811,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -20825,7 +20825,7 @@
         <v>2.048088120807684</v>
       </c>
       <c r="D369" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E369">
         <v>2.046977801556806</v>
@@ -20861,7 +20861,7 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -20875,7 +20875,7 @@
         <v>2.328414977841442</v>
       </c>
       <c r="D370" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E370">
         <v>2.121238500561075</v>
@@ -20911,7 +20911,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -20925,7 +20925,7 @@
         <v>2.073859415965541</v>
       </c>
       <c r="D371" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E371">
         <v>2.081238500561075</v>
@@ -20961,7 +20961,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -20975,7 +20975,7 @@
         <v>2.356059187320399</v>
       </c>
       <c r="D372" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E372">
         <v>2.152256240688312</v>
@@ -21011,7 +21011,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -21061,7 +21061,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -21075,7 +21075,7 @@
         <v>2.334523391427035</v>
       </c>
       <c r="D374" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E374">
         <v>2.128092347668977</v>
@@ -21111,7 +21111,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -21161,7 +21161,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -21175,7 +21175,7 @@
         <v>2.315094968121254</v>
       </c>
       <c r="D376" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E376">
         <v>2.106292998129271</v>
@@ -21225,7 +21225,7 @@
         <v>2.059004218684382</v>
       </c>
       <c r="D377" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E377">
         <v>2.020870557019051</v>
@@ -21275,7 +21275,7 @@
         <v>2.280067221579398</v>
       </c>
       <c r="D378" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E378">
         <v>2.06699067912807</v>
@@ -21325,7 +21325,7 @@
         <v>2.007567633923793</v>
       </c>
       <c r="D379" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E379">
         <v>1.97167024031809</v>
@@ -21375,7 +21375,7 @@
         <v>2.194868418967949</v>
       </c>
       <c r="D380" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E380">
         <v>2.022894307397373</v>
@@ -21425,7 +21425,7 @@
         <v>2.191298699241092</v>
       </c>
       <c r="D381" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E381">
         <v>2.022894307397373</v>
@@ -21525,7 +21525,7 @@
         <v>2.188604538463158</v>
       </c>
       <c r="D383" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E383">
         <v>2.019960862602978</v>
@@ -21575,7 +21575,7 @@
         <v>1.92702940308885</v>
       </c>
       <c r="D384" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E384">
         <v>1.916878700406648</v>
@@ -21625,7 +21625,7 @@
         <v>2.203913499222188</v>
       </c>
       <c r="D385" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E385">
         <v>2.036629500797843</v>
@@ -21725,7 +21725,7 @@
         <v>1.922721859171229</v>
       </c>
       <c r="D387" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E387">
         <v>1.978451356222978</v>
@@ -21775,7 +21775,7 @@
         <v>1.938451356222977</v>
       </c>
       <c r="D388" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E388">
         <v>1.978451356222978</v>
@@ -21825,7 +21825,7 @@
         <v>3.154560008918573</v>
       </c>
       <c r="D389" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E389">
         <v>2.976055372714008</v>
@@ -21875,7 +21875,7 @@
         <v>2.870952590991269</v>
       </c>
       <c r="D390" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E390">
         <v>2.926055372714008</v>
@@ -21975,7 +21975,7 @@
         <v>2.620426417411474</v>
       </c>
       <c r="D392" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E392">
         <v>2.674410861704303</v>
@@ -22025,7 +22025,7 @@
         <v>2.650083577812647</v>
       </c>
       <c r="D393" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E393">
         <v>2.674410861704303</v>
@@ -22175,7 +22175,7 @@
         <v>0.6952020895738182</v>
       </c>
       <c r="D396" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E396">
         <v>0.7358355623587536</v>
@@ -22225,7 +22225,7 @@
         <v>0.8454563013037171</v>
       </c>
       <c r="D397" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E397">
         <v>0.7260936745533551</v>
@@ -22275,7 +22275,7 @@
         <v>0.6242877836793808</v>
       </c>
       <c r="D398" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E398">
         <v>0.684022211492032</v>
@@ -22325,7 +22325,7 @@
         <v>0.7253633088836491</v>
       </c>
       <c r="D399" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E399">
         <v>0.6010483937860678</v>
@@ -22375,7 +22375,7 @@
         <v>0.513273986562548</v>
       </c>
       <c r="D400" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E400">
         <v>0.6057910203694705</v>
@@ -22425,7 +22425,7 @@
         <v>0.1649956841661155</v>
       </c>
       <c r="D401" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E401">
         <v>0.2832702408738501</v>
@@ -22475,7 +22475,7 @@
         <v>0.1430414436174043</v>
       </c>
       <c r="D402" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E402">
         <v>0.2832702408738501</v>
@@ -22525,7 +22525,7 @@
         <v>0.4206296085558026</v>
       </c>
       <c r="D403" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E403">
         <v>0.3508584058122479</v>
@@ -22575,7 +22575,7 @@
         <v>-0.01053337928057152</v>
       </c>
       <c r="D404" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E404">
         <v>0.1594666207194284</v>
@@ -22625,7 +22625,7 @@
         <v>-0.03310567991184188</v>
       </c>
       <c r="D405" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E405">
         <v>0.1594666207194284</v>
@@ -22675,7 +22675,7 @@
         <v>0.2500450257695856</v>
       </c>
       <c r="D406" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E406">
         <v>0.2000450257695854</v>
@@ -22725,7 +22725,7 @@
         <v>-0.06737698257170655</v>
       </c>
       <c r="D407" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E407">
         <v>0.1026230174282934</v>
@@ -22775,7 +22775,7 @@
         <v>-0.02905962007975216</v>
       </c>
       <c r="D408" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E408">
         <v>0.1026230174282934</v>
@@ -22825,7 +22825,7 @@
         <v>0.1948026507401726</v>
       </c>
       <c r="D409" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E409">
         <v>0.1120301965761872</v>
@@ -22875,7 +22875,7 @@
         <v>-0.01981894714595223</v>
       </c>
       <c r="D410" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E410">
         <v>0.1119623452332728</v>
@@ -22925,7 +22925,7 @@
         <v>0.2038788988886737</v>
       </c>
       <c r="D411" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E411">
         <v>0.1466184680955984</v>
@@ -22975,7 +22975,7 @@
         <v>0.363099876213433</v>
       </c>
       <c r="D412" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E412">
         <v>0.2587745129975882</v>
@@ -23025,7 +23025,7 @@
         <v>0.3495879210371995</v>
       </c>
       <c r="D413" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E413">
         <v>0.1987745129975882</v>
@@ -23075,7 +23075,7 @@
         <v>0.2423337386586861</v>
       </c>
       <c r="D414" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E414">
         <v>0.08955596830444978</v>
@@ -23111,7 +23111,7 @@
         <v>1</v>
       </c>
       <c r="P414" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -23125,7 +23125,7 @@
         <v>1.299498064828255</v>
       </c>
       <c r="D415" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E415">
         <v>1.307234317045639</v>
@@ -23175,7 +23175,7 @@
         <v>1.297234317045639</v>
       </c>
       <c r="D416" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E416">
         <v>1.307234317045639</v>
@@ -23225,7 +23225,7 @@
         <v>1.280977464251094</v>
       </c>
       <c r="D417" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E417">
         <v>1.393779206261006</v>
@@ -23575,7 +23575,7 @@
         <v>1.079402133405997</v>
       </c>
       <c r="D424" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E424">
         <v>1.187865204858802</v>
@@ -23661,7 +23661,7 @@
         <v>1</v>
       </c>
       <c r="P425" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="426" spans="1:16">
@@ -23675,7 +23675,7 @@
         <v>1.093445487776341</v>
       </c>
       <c r="D426" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E426">
         <v>1.217039544998508</v>
@@ -23711,7 +23711,7 @@
         <v>1</v>
       </c>
       <c r="P426" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -23775,7 +23775,7 @@
         <v>1.055212466079055</v>
       </c>
       <c r="D428" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E428">
         <v>1.177336022466711</v>
@@ -23825,7 +23825,7 @@
         <v>0.9855607966588198</v>
       </c>
       <c r="D429" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E429">
         <v>1.094264486923798</v>
@@ -23875,7 +23875,7 @@
         <v>1.000898231643049</v>
       </c>
       <c r="D430" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E430">
         <v>1.120932779013935</v>
@@ -23925,7 +23925,7 @@
         <v>1.024613660693627</v>
       </c>
       <c r="D431" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E431">
         <v>1.145560339951075</v>
@@ -23975,7 +23975,7 @@
         <v>1.024403695433639</v>
       </c>
       <c r="D432" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E432">
         <v>1.274427692622476</v>
@@ -24025,7 +24025,7 @@
         <v>1.017514960691944</v>
       </c>
       <c r="D433" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E433">
         <v>1.266779430716954</v>
@@ -24075,7 +24075,7 @@
         <v>1.024291149204128</v>
       </c>
       <c r="D434" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E434">
         <v>1.274302737449711</v>
@@ -24125,7 +24125,7 @@
         <v>1.052918707364001</v>
       </c>
       <c r="D435" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E435">
         <v>1.076632630750393</v>
@@ -24175,7 +24175,7 @@
         <v>0.9514015018721831</v>
       </c>
       <c r="D436" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E436">
         <v>1.031401501872183</v>
@@ -24225,7 +24225,7 @@
         <v>0.5031907659935522</v>
       </c>
       <c r="D437" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E437">
         <v>0.8203545252042801</v>
@@ -24275,7 +24275,7 @@
         <v>0.5133350808738859</v>
       </c>
       <c r="D438" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E438">
         <v>0.7900973752513885</v>
@@ -24325,7 +24325,7 @@
         <v>0.4725256544682619</v>
       </c>
       <c r="D439" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E439">
         <v>0.7900973752513885</v>
@@ -24375,7 +24375,7 @@
         <v>0.5200956436386468</v>
       </c>
       <c r="D440" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E440">
         <v>0.8370345042554268</v>
@@ -24475,7 +24475,7 @@
         <v>0.5703220025555789</v>
       </c>
       <c r="D442" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E442">
         <v>0.846077905380203</v>
@@ -24525,7 +24525,7 @@
         <v>0.5292609782617346</v>
       </c>
       <c r="D443" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E443">
         <v>0.846077905380203</v>
@@ -24575,7 +24575,7 @@
         <v>0.9919135389963438</v>
       </c>
       <c r="D444" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E444">
         <v>0.9566084175271259</v>
@@ -24625,7 +24625,7 @@
         <v>0.5811263873470169</v>
       </c>
       <c r="D445" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E445">
         <v>0.8566914842592102</v>
@@ -24675,7 +24675,7 @@
         <v>0.5400176615750656</v>
       </c>
       <c r="D446" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E446">
         <v>0.8566914842592102</v>
@@ -24775,7 +24775,7 @@
         <v>0.5651178136809349</v>
       </c>
       <c r="D448" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E448">
         <v>0.8409656227108515</v>
@@ -24825,7 +24825,7 @@
         <v>0.5240797659384144</v>
       </c>
       <c r="D449" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E449">
         <v>0.8409656227108515</v>
@@ -24975,7 +24975,7 @@
         <v>0.5908759162986525</v>
       </c>
       <c r="D452" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E452">
         <v>0.8662688360991169</v>
@@ -25025,7 +25025,7 @@
         <v>0.5999341008247585</v>
       </c>
       <c r="D453" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E453">
         <v>0.8662688360991169</v>
@@ -25075,7 +25075,7 @@
         <v>1.012603571373478</v>
       </c>
       <c r="D454" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E454">
         <v>1.202813525949467</v>
@@ -25125,7 +25125,7 @@
         <v>1.076478790675107</v>
       </c>
       <c r="D455" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E455">
         <v>1.202813525949467</v>
@@ -25175,7 +25175,7 @@
         <v>1.064541181024293</v>
       </c>
       <c r="D456" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E456">
         <v>1.202813525949467</v>
@@ -25225,7 +25225,7 @@
         <v>0.5928236359217811</v>
       </c>
       <c r="D457" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E457">
         <v>0.8681821589077101</v>
@@ -25275,7 +25275,7 @@
         <v>0.6018001280133625</v>
       </c>
       <c r="D458" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E458">
         <v>0.8681821589077101</v>
@@ -25325,7 +25325,7 @@
         <v>1.078319020252809</v>
       </c>
       <c r="D459" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E459">
         <v>1.19818215890771</v>
@@ -25375,7 +25375,7 @@
         <v>1.066441605027434</v>
       </c>
       <c r="D460" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E460">
         <v>1.19818215890771</v>
@@ -25425,7 +25425,7 @@
         <v>0.6228387117266463</v>
       </c>
       <c r="D461" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E461">
         <v>0.8976671671486915</v>
@@ -25461,7 +25461,7 @@
         <v>1</v>
       </c>
       <c r="P461" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -25475,7 +25475,7 @@
         <v>0.6473638132323565</v>
       </c>
       <c r="D462" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E462">
         <v>0.8976671671486915</v>
@@ -25511,7 +25511,7 @@
         <v>1</v>
       </c>
       <c r="P462" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -25525,7 +25525,7 @@
         <v>1.175384748776052</v>
       </c>
       <c r="D463" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E463">
         <v>1.159606496365424</v>
@@ -25561,7 +25561,7 @@
         <v>1</v>
       </c>
       <c r="P463" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="464" spans="1:16">
@@ -25625,7 +25625,7 @@
         <v>1.15209663909029</v>
       </c>
       <c r="D465" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E465">
         <v>0.9610334758294661</v>
@@ -25675,7 +25675,7 @@
         <v>1.020801820291841</v>
       </c>
       <c r="D466" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E466">
         <v>0.7712063199615509</v>
@@ -25725,7 +25725,7 @@
         <v>0.971206319961551</v>
       </c>
       <c r="D467" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E467">
         <v>0.7712063199615509</v>
@@ -25775,7 +25775,7 @@
         <v>0.6126699391214085</v>
       </c>
       <c r="D468" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E468">
         <v>0.8031749654545823</v>
@@ -25825,7 +25825,7 @@
         <v>0.5739325049543416</v>
       </c>
       <c r="D469" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E469">
         <v>0.8031749654545823</v>
@@ -25875,7 +25875,7 @@
         <v>0.6331749654545824</v>
       </c>
       <c r="D470" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E470">
         <v>0.8031749654545823</v>
@@ -25925,7 +25925,7 @@
         <v>0.8786326737313104</v>
       </c>
       <c r="D471" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E471">
         <v>0.6786326737313102</v>
@@ -25975,7 +25975,7 @@
         <v>0.5037030430378957</v>
       </c>
       <c r="D472" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E472">
         <v>0.6338223458451093</v>
@@ -26025,7 +26025,7 @@
         <v>0.46400130005593</v>
       </c>
       <c r="D473" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E473">
         <v>0.6338223458451093</v>
@@ -26075,7 +26075,7 @@
         <v>0.5238223458451099</v>
       </c>
       <c r="D474" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E474">
         <v>0.6338223458451093</v>
@@ -26125,7 +26125,7 @@
         <v>0.7704637910456675</v>
       </c>
       <c r="D475" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E475">
         <v>0.5704637910456674</v>
@@ -26325,7 +26325,7 @@
         <v>0.7179212562454138</v>
       </c>
       <c r="D479" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E479">
         <v>0.4932434674041044</v>
@@ -26375,7 +26375,7 @@
         <v>0.314532312038871</v>
       </c>
       <c r="D480" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E480">
         <v>0.5039819839398945</v>
@@ -26425,7 +26425,7 @@
         <v>0.2731564917914273</v>
       </c>
       <c r="D481" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E481">
         <v>0.5039819839398945</v>
@@ -26475,7 +26475,7 @@
         <v>0.3339819839398945</v>
       </c>
       <c r="D482" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E482">
         <v>0.5039819839398945</v>
@@ -26525,7 +26525,7 @@
         <v>0.3194183739163394</v>
       </c>
       <c r="D483" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E483">
         <v>0.5088853416116192</v>
@@ -26575,7 +26575,7 @@
         <v>0.2780857931545366</v>
       </c>
       <c r="D484" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E484">
         <v>0.5088853416116192</v>
@@ -26625,7 +26625,7 @@
         <v>0.3388853416116193</v>
       </c>
       <c r="D485" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E485">
         <v>0.5088853416116192</v>
@@ -26675,7 +26675,7 @@
         <v>0.3203457518590529</v>
       </c>
       <c r="D486" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E486">
         <v>0.5098160023081117</v>
@@ -26725,7 +26725,7 @@
         <v>0.2790213779816995</v>
       </c>
       <c r="D487" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E487">
         <v>0.5098160023081117</v>
@@ -26775,7 +26775,7 @@
         <v>0.3398160023081118</v>
       </c>
       <c r="D488" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E488">
         <v>0.5098160023081117</v>
@@ -26825,7 +26825,7 @@
         <v>0.4620102860642721</v>
       </c>
       <c r="D489" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E489">
         <v>0.6519820038910487</v>
@@ -26875,7 +26875,7 @@
         <v>0.4219395806312125</v>
       </c>
       <c r="D490" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E490">
         <v>0.6519820038910487</v>
@@ -26925,7 +26925,7 @@
         <v>0.4819820038910487</v>
       </c>
       <c r="D491" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E491">
         <v>0.6519820038910487</v>
@@ -26975,7 +26975,7 @@
         <v>0.5667229277228225</v>
       </c>
       <c r="D492" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E492">
         <v>0.7570653097678601</v>
@@ -27025,7 +27025,7 @@
         <v>0.5275788828354147</v>
       </c>
       <c r="D493" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E493">
         <v>0.7570653097678601</v>
@@ -27075,7 +27075,7 @@
         <v>0.5870653097678602</v>
       </c>
       <c r="D494" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E494">
         <v>0.7570653097678601</v>
@@ -27125,7 +27125,7 @@
         <v>0.8224431521598659</v>
       </c>
       <c r="D495" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E495">
         <v>0.8488481406869823</v>
@@ -27175,7 +27175,7 @@
         <v>1.010108600575675</v>
       </c>
       <c r="D496" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E496">
         <v>1.202020489427271</v>
@@ -27211,7 +27211,7 @@
         <v>1</v>
       </c>
       <c r="P496" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -27225,7 +27225,7 @@
         <v>0.9748883227046639</v>
       </c>
       <c r="D497" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E497">
         <v>1.202020489427271</v>
@@ -27261,7 +27261,7 @@
         <v>1</v>
       </c>
       <c r="P497" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -27275,7 +27275,7 @@
         <v>1.032020489427271</v>
       </c>
       <c r="D498" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E498">
         <v>1.202020489427271</v>
@@ -27311,7 +27311,7 @@
         <v>1</v>
       </c>
       <c r="P498" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -27325,7 +27325,7 @@
         <v>1.322020489427271</v>
       </c>
       <c r="D499" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E499">
         <v>1.110324657492447</v>
@@ -27361,7 +27361,7 @@
         <v>1</v>
       </c>
       <c r="P499" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -27375,7 +27375,7 @@
         <v>1.246209989930733</v>
       </c>
       <c r="D500" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E500">
         <v>1.110324657492447</v>
@@ -27411,7 +27411,7 @@
         <v>1</v>
       </c>
       <c r="P500" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -27425,7 +27425,7 @@
         <v>1.30578321264003</v>
       </c>
       <c r="D501" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E501">
         <v>1.498741737286544</v>
@@ -27461,7 +27461,7 @@
         <v>1</v>
       </c>
       <c r="P501" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -27475,7 +27475,7 @@
         <v>1.273179524256313</v>
       </c>
       <c r="D502" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E502">
         <v>1.498741737286544</v>
@@ -27511,7 +27511,7 @@
         <v>1</v>
       </c>
       <c r="P502" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -27525,7 +27525,7 @@
         <v>1.618741737286544</v>
       </c>
       <c r="D503" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E503">
         <v>1.367797063042292</v>
@@ -27561,7 +27561,7 @@
         <v>1</v>
       </c>
       <c r="P503" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -27575,7 +27575,7 @@
         <v>1.528801654558612</v>
       </c>
       <c r="D504" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E504">
         <v>1.367797063042292</v>
@@ -27611,7 +27611,7 @@
         <v>1</v>
       </c>
       <c r="P504" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -27625,7 +27625,7 @@
         <v>1.307442226779496</v>
       </c>
       <c r="D505" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E505">
         <v>1.381525177486469</v>
@@ -27661,7 +27661,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -27675,7 +27675,7 @@
         <v>1.39366787296974</v>
       </c>
       <c r="D506" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E506">
         <v>1.586937493759014</v>
@@ -27725,7 +27725,7 @@
         <v>1.361841924942924</v>
       </c>
       <c r="D507" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E507">
         <v>1.586937493759014</v>
@@ -27775,7 +27775,7 @@
         <v>1.706937493759014</v>
       </c>
       <c r="D508" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E508">
         <v>1.44432671416126</v>
@@ -27825,7 +27825,7 @@
         <v>1.612797613103822</v>
       </c>
       <c r="D509" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E509">
         <v>1.44432671416126</v>
@@ -27875,7 +27875,7 @@
         <v>1.382883041398804</v>
       </c>
       <c r="D510" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E510">
         <v>1.45509126468998</v>
@@ -27925,7 +27925,7 @@
         <v>1.405655207022113</v>
       </c>
       <c r="D511" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E511">
         <v>1.630520179616733</v>
@@ -27975,7 +27975,7 @@
         <v>1.750520179616733</v>
       </c>
       <c r="D512" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E512">
         <v>1.482144494482244</v>
@@ -28025,7 +28025,7 @@
         <v>1.654304932968317</v>
       </c>
       <c r="D513" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E513">
         <v>1.482144494482244</v>
@@ -28075,7 +28075,7 @@
         <v>1.420162763869693</v>
       </c>
       <c r="D514" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E514">
         <v>1.586469357455347</v>
@@ -28125,7 +28125,7 @@
         <v>1.568325185475498</v>
       </c>
       <c r="D515" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E515">
         <v>1.792334000288785</v>
@@ -28175,7 +28175,7 @@
         <v>1.912334000288785</v>
       </c>
       <c r="D516" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E516">
         <v>1.622554370620956</v>
@@ -28225,7 +28225,7 @@
         <v>1.808413333608367</v>
       </c>
       <c r="D517" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E517">
         <v>1.622554370620956</v>
@@ -28275,7 +28275,7 @@
         <v>1.558574938518626</v>
       </c>
       <c r="D518" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E518">
         <v>1.722598444687391</v>
@@ -28325,7 +28325,7 @@
         <v>1.931487260940357</v>
       </c>
       <c r="D519" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E519">
         <v>1.639174131186341</v>
@@ -28375,7 +28375,7 @@
         <v>1.82665453422891</v>
       </c>
       <c r="D520" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E520">
         <v>1.639174131186341</v>
@@ -28425,7 +28425,7 @@
         <v>1.574958239075967</v>
       </c>
       <c r="D521" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E521">
         <v>1.738711505235538</v>
@@ -28475,7 +28475,7 @@
         <v>2.063586163850094</v>
       </c>
       <c r="D522" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E522">
         <v>1.753799634240293</v>
@@ -28525,7 +28525,7 @@
         <v>1.952463013190566</v>
       </c>
       <c r="D523" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E523">
         <v>1.753799634240293</v>
@@ -28575,7 +28575,7 @@
         <v>1.687952891476713</v>
       </c>
       <c r="D524" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E524">
         <v>1.849842328318334</v>
@@ -28625,7 +28625,7 @@
         <v>2.048451399974837</v>
       </c>
       <c r="D525" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E525">
         <v>1.740666823258588</v>
@@ -28675,7 +28675,7 @@
         <v>1.938048952356987</v>
       </c>
       <c r="D526" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E526">
         <v>1.740666823258588</v>
@@ -28725,7 +28725,7 @@
         <v>1.675006929431739</v>
       </c>
       <c r="D527" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E527">
         <v>1.837109907915339</v>
@@ -28775,7 +28775,7 @@
         <v>1.678161397157139</v>
       </c>
       <c r="D528" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E528">
         <v>1.701450014088489</v>
@@ -28825,7 +28825,7 @@
         <v>1.994558725582956</v>
       </c>
       <c r="D529" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E529">
         <v>1.693902809500554</v>
@@ -28875,7 +28875,7 @@
         <v>1.886722595793291</v>
       </c>
       <c r="D530" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E530">
         <v>1.693902809500554</v>
@@ -28925,7 +28925,7 @@
         <v>1.628908257332864</v>
       </c>
       <c r="D531" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E531">
         <v>1.791771626284074</v>
@@ -28975,7 +28975,7 @@
         <v>1.633203310759678</v>
       </c>
       <c r="D532" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E532">
         <v>1.631760730619455</v>
@@ -29025,7 +29025,7 @@
         <v>1.200802433454312</v>
       </c>
       <c r="D533" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E533">
         <v>1.47287342815719</v>
@@ -29061,7 +29061,7 @@
         <v>1</v>
       </c>
       <c r="P533" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="534" spans="1:16">
@@ -29175,7 +29175,7 @@
         <v>0.8048050404443741</v>
       </c>
       <c r="D536" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E536">
         <v>0.8068806034924565</v>
@@ -29225,7 +29225,7 @@
         <v>0.7628239312063947</v>
       </c>
       <c r="D537" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E537">
         <v>0.8068806034924565</v>
@@ -29275,7 +29275,7 @@
         <v>0.7193067826218087</v>
       </c>
       <c r="D538" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E538">
         <v>0.8334398210403284</v>
@@ -29325,7 +29325,7 @@
         <v>0.6776365761395473</v>
       </c>
       <c r="D539" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E539">
         <v>0.8334398210403284</v>
@@ -29375,7 +29375,7 @@
         <v>0.724014277089176</v>
       </c>
       <c r="D540" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E540">
         <v>0.8447339915473933</v>
@@ -29625,7 +29625,7 @@
         <v>2.591818842329439</v>
       </c>
       <c r="D545" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E545">
         <v>2.461761543966816</v>
@@ -29661,7 +29661,7 @@
         <v>1</v>
       </c>
       <c r="P545" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="546" spans="1:16">
@@ -29675,7 +29675,7 @@
         <v>2.405815022438598</v>
       </c>
       <c r="D546" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E546">
         <v>2.453788283202706</v>
@@ -29711,7 +29711,7 @@
         <v>1</v>
       </c>
       <c r="P546" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -29725,7 +29725,7 @@
         <v>2.631161521267291</v>
       </c>
       <c r="D547" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E547">
         <v>2.502137743367133</v>
@@ -29775,7 +29775,7 @@
         <v>2.445226602740614</v>
       </c>
       <c r="D548" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E548">
         <v>2.529291684213936</v>
@@ -29825,7 +29825,7 @@
         <v>2.593634710134916</v>
       </c>
       <c r="D549" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E549">
         <v>2.488086852415759</v>
@@ -29875,7 +29875,7 @@
         <v>2.431511398603778</v>
       </c>
       <c r="D550" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E550">
         <v>2.485758021666055</v>
@@ -29925,7 +29925,7 @@
         <v>2.56403843596223</v>
       </c>
       <c r="D551" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E551">
         <v>2.457924388650204</v>
@@ -30025,7 +30025,7 @@
         <v>2.406396832412122</v>
       </c>
       <c r="D553" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E553">
         <v>2.490394029671584</v>
@@ -30075,7 +30075,7 @@
         <v>2.388290328271669</v>
       </c>
       <c r="D554" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E554">
         <v>2.514335172120281</v>
@@ -30125,7 +30125,7 @@
         <v>2.388230977066312</v>
       </c>
       <c r="D555" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E555">
         <v>2.472196415837407</v>
@@ -30175,7 +30175,7 @@
         <v>2.36891765036792</v>
       </c>
       <c r="D556" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E556">
         <v>2.495470630030401</v>
@@ -30225,7 +30225,7 @@
         <v>2.375229925284041</v>
       </c>
       <c r="D557" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E557">
         <v>2.459172634943628</v>
@@ -30275,7 +30275,7 @@
         <v>2.355052892348365</v>
       </c>
       <c r="D558" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E558">
         <v>2.481969537794965</v>
@@ -30325,7 +30325,7 @@
         <v>2.325779453309323</v>
       </c>
       <c r="D559" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E559">
         <v>2.409635711094829</v>
@@ -30375,7 +30375,7 @@
         <v>2.302317249158544</v>
       </c>
       <c r="D560" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E560">
         <v>2.430617124590451</v>
@@ -30425,7 +30425,7 @@
         <v>2.249805501572103</v>
       </c>
       <c r="D561" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E561">
         <v>2.333528937763662</v>
@@ -30461,7 +30461,7 @@
         <v>1</v>
       </c>
       <c r="P561" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -30475,7 +30475,7 @@
         <v>2.221296076851369</v>
       </c>
       <c r="D562" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E562">
         <v>2.351721097786414</v>
@@ -30511,7 +30511,7 @@
         <v>1</v>
       </c>
       <c r="P562" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -30525,7 +30525,7 @@
         <v>2.280732380582608</v>
       </c>
       <c r="D563" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E563">
         <v>2.364509884744465</v>
@@ -30575,7 +30575,7 @@
         <v>2.254277538733201</v>
       </c>
       <c r="D564" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E564">
         <v>2.383837472143477</v>
@@ -30625,7 +30625,7 @@
         <v>2.339376602772076</v>
       </c>
       <c r="D565" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E565">
         <v>2.423256631797901</v>
@@ -30675,7 +30675,7 @@
         <v>2.316817705753438</v>
       </c>
       <c r="D566" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E566">
         <v>2.444737241340233</v>
@@ -30725,7 +30725,7 @@
         <v>2.565496573746251</v>
       </c>
       <c r="D567" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E567">
         <v>2.409816980107805</v>
@@ -30775,7 +30775,7 @@
         <v>2.37864032222948</v>
       </c>
       <c r="D568" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E568">
         <v>2.462588994121488</v>
@@ -30825,7 +30825,7 @@
         <v>2.358689854125844</v>
       </c>
       <c r="D569" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E569">
         <v>2.48551110385369</v>
@@ -30875,7 +30875,7 @@
         <v>2.60469165033747</v>
       </c>
       <c r="D570" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E570">
         <v>2.449973056825605</v>
@@ -30925,7 +30925,7 @@
         <v>2.397666237563969</v>
       </c>
       <c r="D571" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E571">
         <v>2.505268785162583</v>
@@ -30975,7 +30975,7 @@
         <v>2.378979728870666</v>
       </c>
       <c r="D572" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E572">
         <v>2.505268785162583</v>
@@ -31025,7 +31025,7 @@
         <v>2.623684303582213</v>
       </c>
       <c r="D573" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E573">
         <v>2.469431379326787</v>
@@ -31075,7 +31075,7 @@
         <v>2.500288217263385</v>
       </c>
       <c r="D574" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E574">
         <v>2.611837764081208</v>
@@ -31125,7 +31125,7 @@
         <v>2.488419252675988</v>
       </c>
       <c r="D575" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E575">
         <v>2.611837764081208</v>
@@ -31175,7 +31175,7 @@
         <v>2.726126874226211</v>
       </c>
       <c r="D576" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E576">
         <v>2.574385676746644</v>
@@ -31275,7 +31275,7 @@
         <v>2.986124397131221</v>
       </c>
       <c r="D578" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E578">
         <v>3.2476157633006</v>
@@ -31325,7 +31325,7 @@
         <v>2.895744915254238</v>
       </c>
       <c r="D579" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E579">
         <v>3.159738135593222</v>
@@ -31375,7 +31375,7 @@
         <v>2.93999618644068</v>
       </c>
       <c r="D580" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E580">
         <v>3.084488559322036</v>
@@ -31425,7 +31425,7 @@
         <v>2.741841609050915</v>
       </c>
       <c r="D581" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E581">
         <v>3.010095128523555</v>
@@ -31461,7 +31461,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -31475,7 +31475,7 @@
         <v>2.785294074149796</v>
       </c>
       <c r="D582" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E582">
         <v>2.934579283556515</v>
@@ -31511,7 +31511,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -31525,7 +31525,7 @@
         <v>2.384617418355094</v>
       </c>
       <c r="D583" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E583">
         <v>2.546316018130667</v>
@@ -31575,7 +31575,7 @@
         <v>2.418411940589784</v>
       </c>
       <c r="D584" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E584">
         <v>2.669124296344829</v>
@@ -31625,7 +31625,7 @@
         <v>2.367772628672849</v>
       </c>
       <c r="D585" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E585">
         <v>2.529993098008286</v>
@@ -31661,7 +31661,7 @@
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -31675,7 +31675,7 @@
         <v>2.401538158154214</v>
       </c>
       <c r="D586" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E586">
         <v>2.651786629856047</v>
@@ -31711,7 +31711,7 @@
         <v>1</v>
       </c>
       <c r="P586" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -31761,7 +31761,7 @@
         <v>1</v>
       </c>
       <c r="P587" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -31775,7 +31775,7 @@
         <v>2.582210807344496</v>
       </c>
       <c r="D588" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E588">
         <v>2.737787753072205</v>
@@ -31825,7 +31825,7 @@
         <v>2.616345421470734</v>
       </c>
       <c r="D589" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E589">
         <v>2.872499247490548</v>
@@ -31875,7 +31875,7 @@
         <v>2.548677070038714</v>
       </c>
       <c r="D590" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E590">
         <v>2.705292926732867</v>
@@ -31925,7 +31925,7 @@
         <v>2.582753966889038</v>
       </c>
       <c r="D591" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E591">
         <v>2.837984316494235</v>
@@ -31975,7 +31975,7 @@
         <v>2.87342716942149</v>
       </c>
       <c r="D592" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E592">
         <v>3.019981921487605</v>
@@ -32025,7 +32025,7 @@
         <v>2.908063016528928</v>
       </c>
       <c r="D593" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E593">
         <v>3.172236570247936</v>
@@ -32075,7 +32075,7 @@
         <v>3.32657731201627</v>
       </c>
       <c r="D594" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E594">
         <v>3.638645839218123</v>
@@ -32125,7 +32125,7 @@
         <v>3.361993107734027</v>
       </c>
       <c r="D595" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E595">
         <v>3.638645839218123</v>
@@ -32225,7 +32225,7 @@
         <v>3.871784107946028</v>
       </c>
       <c r="D597" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E597">
         <v>4.134137931034484</v>
@@ -32275,7 +32275,7 @@
         <v>4.161379310344829</v>
       </c>
       <c r="D598" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E598">
         <v>4.278620689655174</v>
@@ -32325,7 +32325,7 @@
         <v>3.876218285367504</v>
       </c>
       <c r="D599" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E599">
         <v>4.138773661975117</v>
@@ -32375,7 +32375,7 @@
         <v>4.232640804798915</v>
       </c>
       <c r="D600" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E600">
         <v>4.268961090493195</v>
@@ -32425,7 +32425,7 @@
         <v>4.220479594754687</v>
       </c>
       <c r="D601" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E601">
         <v>4.107616732709671</v>
@@ -32461,7 +32461,7 @@
         <v>1</v>
       </c>
       <c r="P601" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="602" spans="1:16">
@@ -32475,7 +32475,7 @@
         <v>4.412029475302505</v>
       </c>
       <c r="D602" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E602">
         <v>4.328673743920056</v>
@@ -32575,7 +32575,7 @@
         <v>4.299921445404555</v>
       </c>
       <c r="D604" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E604">
         <v>4.414147682639435</v>
@@ -32675,7 +32675,7 @@
         <v>4.34083505519674</v>
       </c>
       <c r="D606" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E606">
         <v>4.482080399442429</v>
@@ -32711,7 +32711,7 @@
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -32725,7 +32725,7 @@
         <v>4.364822935668792</v>
       </c>
       <c r="D607" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E607">
         <v>4.482080399442429</v>
@@ -32761,7 +32761,7 @@
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -32811,7 +32811,7 @@
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -32825,7 +32825,7 @@
         <v>3.60874217978268</v>
       </c>
       <c r="D609" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E609">
         <v>3.710605861047086</v>
@@ -32875,7 +32875,7 @@
         <v>3.600589397431676</v>
       </c>
       <c r="D610" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E610">
         <v>3.713085281527823</v>
@@ -32925,7 +32925,7 @@
         <v>3.822453078696081</v>
       </c>
       <c r="D611" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E611">
         <v>3.696180441224893</v>
@@ -32975,7 +32975,7 @@
         <v>3.316270060782723</v>
       </c>
       <c r="D612" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E612">
         <v>3.426994484837444</v>
@@ -33025,7 +33025,7 @@
         <v>3.533262226933205</v>
       </c>
       <c r="D613" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E613">
         <v>3.397246559234171</v>
@@ -33075,7 +33075,7 @@
         <v>3.007352043929224</v>
       </c>
       <c r="D614" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E614">
         <v>2.905376754118364</v>
@@ -33125,7 +33125,7 @@
         <v>2.656297549860791</v>
       </c>
       <c r="D615" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E615">
         <v>2.771294089390736</v>
@@ -33175,7 +33175,7 @@
         <v>2.822961909547421</v>
       </c>
       <c r="D616" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E616">
         <v>2.712110697118804</v>
@@ -33275,7 +33275,7 @@
         <v>2.659605506413721</v>
       </c>
       <c r="D618" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E618">
         <v>2.727944607197146</v>
@@ -33325,7 +33325,7 @@
         <v>2.512391892982672</v>
       </c>
       <c r="D619" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E619">
         <v>2.626039316979385</v>
@@ -33361,7 +33361,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -33375,7 +33375,7 @@
         <v>2.678156842313814</v>
       </c>
       <c r="D620" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E620">
         <v>2.560335199630162</v>
@@ -33411,7 +33411,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -33461,7 +33461,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -33475,7 +33475,7 @@
         <v>2.505806335625231</v>
       </c>
       <c r="D622" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E622">
         <v>2.556160980943223</v>
@@ -33511,7 +33511,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -33525,7 +33525,7 @@
         <v>2.363100927662591</v>
       </c>
       <c r="D623" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E623">
         <v>2.23011354995691</v>
@@ -33675,7 +33675,7 @@
         <v>2.311973203410473</v>
       </c>
       <c r="D626" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E626">
         <v>2.176524708543585</v>
@@ -33825,7 +33825,7 @@
         <v>2.392665654617812</v>
       </c>
       <c r="D629" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E629">
         <v>2.261101423706559</v>
@@ -33975,7 +33975,7 @@
         <v>2.460962360708034</v>
       </c>
       <c r="D632" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E632">
         <v>2.332685704158266</v>
@@ -34125,7 +34125,7 @@
         <v>2.472553095345684</v>
       </c>
       <c r="D635" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E635">
         <v>2.344834377885617</v>
@@ -34161,7 +34161,7 @@
         <v>1</v>
       </c>
       <c r="P635" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="636" spans="1:16">
@@ -34175,7 +34175,7 @@
         <v>2.249322285310123</v>
       </c>
       <c r="D636" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E636">
         <v>2.361212401029489</v>
@@ -34211,7 +34211,7 @@
         <v>1</v>
       </c>
       <c r="P636" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -34225,7 +34225,7 @@
         <v>2.026069301115866</v>
       </c>
       <c r="D637" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E637">
         <v>2.105936739659368</v>
@@ -34275,7 +34275,7 @@
         <v>1.954987212825516</v>
       </c>
       <c r="D638" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E638">
         <v>1.993714676176241</v>
@@ -34325,7 +34325,7 @@
         <v>2.171438029538405</v>
       </c>
       <c r="D639" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E639">
         <v>2.007770302756182</v>
@@ -34361,7 +34361,7 @@
         <v>1</v>
       </c>
       <c r="P639" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="640" spans="1:16">
@@ -34375,7 +34375,7 @@
         <v>1.838135633059935</v>
       </c>
       <c r="D640" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E640">
         <v>1.924723046294879</v>
@@ -34411,7 +34411,7 @@
         <v>1</v>
       </c>
       <c r="P640" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -34461,7 +34461,7 @@
         <v>1</v>
       </c>
       <c r="P641" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -34475,7 +34475,7 @@
         <v>2.037929906406372</v>
       </c>
       <c r="D642" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E642">
         <v>1.920068138483725</v>
@@ -34511,7 +34511,7 @@
         <v>1</v>
       </c>
       <c r="P642" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -34525,7 +34525,7 @@
         <v>2.079724252073675</v>
       </c>
       <c r="D643" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E643">
         <v>1.920068138483725</v>
@@ -34561,7 +34561,7 @@
         <v>1</v>
       </c>
       <c r="P643" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="644" spans="1:16">
@@ -34575,7 +34575,7 @@
         <v>1.759840010065912</v>
       </c>
       <c r="D644" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E644">
         <v>2.012778385388941</v>
@@ -34611,7 +34611,7 @@
         <v>1</v>
       </c>
       <c r="P644" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -34661,7 +34661,7 @@
         <v>1</v>
       </c>
       <c r="P645" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="646" spans="1:16">
@@ -34675,7 +34675,7 @@
         <v>2.075493179307625</v>
       </c>
       <c r="D646" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E646">
         <v>1.954187214442742</v>
@@ -34711,7 +34711,7 @@
         <v>1</v>
       </c>
       <c r="P646" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="647" spans="1:16">
@@ -34725,7 +34725,7 @@
         <v>2.115403979772142</v>
       </c>
       <c r="D647" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E647">
         <v>1.954187214442742</v>
@@ -34761,7 +34761,7 @@
         <v>1</v>
       </c>
       <c r="P647" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="648" spans="1:16">
@@ -34775,7 +34775,7 @@
         <v>1.790299626773804</v>
       </c>
       <c r="D648" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E648">
         <v>2.045552071917397</v>
@@ -34811,7 +34811,7 @@
         <v>1</v>
       </c>
       <c r="P648" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="649" spans="1:16">
@@ -34875,7 +34875,7 @@
         <v>2.129009128756772</v>
       </c>
       <c r="D650" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E650">
         <v>2.002796257352141</v>
@@ -34925,7 +34925,7 @@
         <v>2.166236464707365</v>
       </c>
       <c r="D651" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E651">
         <v>2.002796257352141</v>
@@ -34975,7 +34975,7 @@
         <v>1.833695081484718</v>
       </c>
       <c r="D652" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E652">
         <v>2.092244354459705</v>
@@ -35075,7 +35075,7 @@
         <v>2.239939040829444</v>
       </c>
       <c r="D654" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E654">
         <v>2.103554945395226</v>
@@ -35125,7 +35125,7 @@
         <v>2.271603988638856</v>
       </c>
       <c r="D655" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E655">
         <v>2.103554945395226</v>
@@ -35175,7 +35175,7 @@
         <v>1.923646843996369</v>
       </c>
       <c r="D656" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E656">
         <v>2.189029908116234</v>
@@ -35225,7 +35225,7 @@
         <v>2.307766756004791</v>
       </c>
       <c r="D657" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E657">
         <v>2.165163500439881</v>
@@ -35275,7 +35275,7 @@
         <v>2.336030600617732</v>
       </c>
       <c r="D658" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E658">
         <v>2.165163500439881</v>
@@ -35325,7 +35325,7 @@
         <v>1.978647541402165</v>
       </c>
       <c r="D659" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E659">
         <v>2.248209103734839</v>
@@ -35375,7 +35375,7 @@
         <v>2.34994173114933</v>
       </c>
       <c r="D660" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E660">
         <v>2.20347142915283</v>
@@ -35425,7 +35425,7 @@
         <v>2.376090784744994</v>
       </c>
       <c r="D661" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E661">
         <v>2.20347142915283</v>
@@ -35475,7 +35475,7 @@
         <v>2.012846733281549</v>
       </c>
       <c r="D662" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E662">
         <v>2.285006467435447</v>
@@ -35525,7 +35525,7 @@
         <v>2.424356429970697</v>
       </c>
       <c r="D663" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E663">
         <v>2.271063003726965</v>
@@ -35575,7 +35575,7 @@
         <v>2.446774087493656</v>
       </c>
       <c r="D664" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E664">
         <v>2.271063003726965</v>
@@ -35625,7 +35625,7 @@
         <v>2.073188738343</v>
       </c>
       <c r="D665" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E665">
         <v>2.349932759100507</v>
@@ -35675,7 +35675,7 @@
         <v>2.476793940920776</v>
       </c>
       <c r="D666" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E666">
         <v>2.318692490750389</v>
@@ -35725,7 +35725,7 @@
         <v>2.496582210358846</v>
       </c>
       <c r="D667" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E667">
         <v>2.318692490750389</v>
@@ -35775,7 +35775,7 @@
         <v>2.115709699944353</v>
       </c>
       <c r="D668" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E668">
         <v>2.395684111777582</v>
@@ -35825,7 +35825,7 @@
         <v>2.584469146504871</v>
       </c>
       <c r="D669" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E669">
         <v>2.416494898114739</v>
@@ -35861,7 +35861,7 @@
         <v>1</v>
       </c>
       <c r="P669" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -35875,7 +35875,7 @@
         <v>2.598858229416518</v>
       </c>
       <c r="D670" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E670">
         <v>2.416494898114739</v>
@@ -35911,7 +35911,7 @@
         <v>1</v>
       </c>
       <c r="P670" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -35925,7 +35925,7 @@
         <v>2.203022259200224</v>
       </c>
       <c r="D671" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E671">
         <v>2.489629957337344</v>
@@ -35961,7 +35961,7 @@
         <v>1</v>
       </c>
       <c r="P671" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -35975,7 +35975,7 @@
         <v>2.595657747580263</v>
       </c>
       <c r="D672" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E672">
         <v>2.426657610266313</v>
@@ -36011,7 +36011,7 @@
         <v>1</v>
       </c>
       <c r="P672" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -36025,7 +36025,7 @@
         <v>2.609485797486697</v>
       </c>
       <c r="D673" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E673">
         <v>2.426657610266313</v>
@@ -36061,7 +36061,7 @@
         <v>1</v>
       </c>
       <c r="P673" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -36075,7 +36075,7 @@
         <v>2.212094964370241</v>
       </c>
       <c r="D674" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E674">
         <v>2.499391931628051</v>
@@ -36111,7 +36111,7 @@
         <v>1</v>
       </c>
       <c r="P674" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -36125,7 +36125,7 @@
         <v>2.636274940545768</v>
       </c>
       <c r="D675" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E675">
         <v>2.45227498085372</v>
@@ -36175,7 +36175,7 @@
         <v>2.234964730541333</v>
       </c>
       <c r="D676" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E676">
         <v>2.52399915353299</v>
@@ -36225,7 +36225,7 @@
         <v>2.579447377967671</v>
       </c>
       <c r="D677" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E677">
         <v>2.592619815389574</v>
@@ -36275,7 +36275,7 @@
         <v>2.631243254577488</v>
       </c>
       <c r="D678" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E678">
         <v>2.447463383713615</v>
@@ -36325,7 +36325,7 @@
         <v>2.23066920375695</v>
       </c>
       <c r="D679" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E679">
         <v>2.519377288141312</v>
@@ -36375,7 +36375,7 @@
         <v>2.574544709588321</v>
       </c>
       <c r="D680" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E680">
         <v>2.45999927695337</v>
@@ -36425,7 +36425,7 @@
         <v>1.048613894568265</v>
       </c>
       <c r="D681" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E681">
         <v>1.233990386669996</v>
@@ -36475,7 +36475,7 @@
         <v>1.432253666853354</v>
       </c>
       <c r="D682" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E682">
         <v>1.131246696401861</v>
@@ -36525,7 +36525,7 @@
         <v>1.049051239803361</v>
       </c>
       <c r="D683" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E683">
         <v>1.234377532278106</v>
@@ -36575,7 +36575,7 @@
         <v>1.018513887329972</v>
       </c>
       <c r="D684" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E684">
         <v>1.207345336784271</v>
@@ -36625,7 +36625,7 @@
         <v>1.001192628190998</v>
       </c>
       <c r="D685" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E685">
         <v>1.192012256955163</v>
@@ -36675,7 +36675,7 @@
         <v>0.9747731854838682</v>
       </c>
       <c r="D686" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E686">
         <v>1.168625306802242</v>
@@ -36725,7 +36725,7 @@
         <v>0.9717868354707706</v>
       </c>
       <c r="D687" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E687">
         <v>1.165981737834127</v>
@@ -36775,7 +36775,7 @@
         <v>1.007754046611591</v>
       </c>
       <c r="D688" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E688">
         <v>1.197820538652697</v>
@@ -36825,7 +36825,7 @@
         <v>1.089161671778701</v>
       </c>
       <c r="D689" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E689">
         <v>1.269883984235407</v>
@@ -36875,7 +36875,7 @@
         <v>1.116656748513967</v>
       </c>
       <c r="D690" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E690">
         <v>1.294223104336712</v>
@@ -36925,7 +36925,7 @@
         <v>1.119719286241605</v>
       </c>
       <c r="D691" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E691">
         <v>1.296934115994744</v>
@@ -36975,7 +36975,7 @@
         <v>1.479129019826146</v>
       </c>
       <c r="D692" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E692">
         <v>1.18338168543656</v>
@@ -37025,7 +37025,7 @@
         <v>1.44025373758431</v>
       </c>
       <c r="D693" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E693">
         <v>1.170867265003362</v>
@@ -37075,7 +37075,7 @@
         <v>1.03839194487707</v>
       </c>
       <c r="D694" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E694">
         <v>1.222827777205431</v>
@@ -37125,7 +37125,7 @@
         <v>0.9787286855021877</v>
       </c>
       <c r="D695" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E695">
         <v>1.165914951773363</v>
@@ -37175,7 +37175,7 @@
         <v>1.237649517092823</v>
       </c>
       <c r="D696" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E696">
         <v>1.149176291558275</v>
@@ -37225,7 +37225,7 @@
         <v>1.000202386634846</v>
       </c>
       <c r="D697" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E697">
         <v>1.121953884369979</v>
@@ -37275,7 +37275,7 @@
         <v>0.9326431055477098</v>
       </c>
       <c r="D698" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E698">
         <v>1.121953884369979</v>
@@ -37325,7 +37325,7 @@
         <v>1.187151487993767</v>
       </c>
       <c r="D699" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E699">
         <v>1.090626038673227</v>
@@ -37375,7 +37375,7 @@
         <v>0.9570959009415585</v>
       </c>
       <c r="D700" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E700">
         <v>1.082512916167617</v>
@@ -37411,7 +37411,7 @@
         <v>1</v>
       </c>
       <c r="P700" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="701" spans="1:16">
@@ -37425,7 +37425,7 @@
         <v>0.8912960682500666</v>
       </c>
       <c r="D701" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E701">
         <v>1.082512916167617</v>
@@ -37461,7 +37461,7 @@
         <v>1</v>
       </c>
       <c r="P701" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="702" spans="1:16">
@@ -37475,7 +37475,7 @@
         <v>1.141845691805925</v>
       </c>
       <c r="D702" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E702">
         <v>1.044220587238106</v>
@@ -37511,7 +37511,7 @@
         <v>1</v>
       </c>
       <c r="P702" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="703" spans="1:16">
@@ -37525,7 +37525,7 @@
         <v>1.034306791748018</v>
       </c>
       <c r="D703" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E703">
         <v>1.153158255034751</v>
@@ -37575,7 +37575,7 @@
         <v>0.9653554941256504</v>
       </c>
       <c r="D704" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E704">
         <v>1.153158255034751</v>
@@ -37625,7 +37625,7 @@
         <v>1.222995913775978</v>
       </c>
       <c r="D705" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E705">
         <v>1.0959796796501</v>
@@ -37675,7 +37675,7 @@
         <v>1.069894727041009</v>
       </c>
       <c r="D706" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E706">
         <v>1.185720005353849</v>
@@ -37725,7 +37725,7 @@
         <v>0.9994908606311732</v>
       </c>
       <c r="D707" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E707">
         <v>1.185720005353849</v>
@@ -37775,7 +37775,7 @@
         <v>1.260399560053306</v>
       </c>
       <c r="D708" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E708">
         <v>1.133867515523252</v>
@@ -37825,7 +37825,7 @@
         <v>1.275834275196178</v>
       </c>
       <c r="D709" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E709">
         <v>1.374147687169293</v>
@@ -37861,7 +37861,7 @@
         <v>1</v>
       </c>
       <c r="P709" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="710" spans="1:16">
@@ -37875,7 +37875,7 @@
         <v>1.197024712943274</v>
       </c>
       <c r="D710" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E710">
         <v>1.374147687169293</v>
@@ -37911,7 +37911,7 @@
         <v>1</v>
       </c>
       <c r="P710" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="711" spans="1:16">
@@ -37925,7 +37925,7 @@
         <v>1.274907009552614</v>
       </c>
       <c r="D711" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E711">
         <v>1.373299270645078</v>
@@ -37961,7 +37961,7 @@
         <v>1</v>
       </c>
       <c r="P711" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="712" spans="1:16">
@@ -37975,7 +37975,7 @@
         <v>1.196135294876997</v>
       </c>
       <c r="D712" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E712">
         <v>1.373299270645078</v>
@@ -38011,7 +38011,7 @@
         <v>1</v>
       </c>
       <c r="P712" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="713" spans="1:16">
@@ -38025,7 +38025,7 @@
         <v>1.223983312561158</v>
       </c>
       <c r="D713" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E713">
         <v>1.399863514464367</v>
@@ -38075,7 +38075,7 @@
         <v>1.210876810015815</v>
       </c>
       <c r="D714" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E714">
         <v>1.387361212390972</v>
@@ -38125,7 +38125,7 @@
         <v>1.520609671796993</v>
       </c>
       <c r="D715" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E715">
         <v>1.397446042952939</v>
@@ -38175,7 +38175,7 @@
         <v>1.320086939824524</v>
       </c>
       <c r="D716" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E716">
         <v>1.587968774925407</v>
@@ -38225,7 +38225,7 @@
         <v>1.293236950163952</v>
       </c>
       <c r="D717" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E717">
         <v>1.587968774925407</v>
@@ -38275,7 +38275,7 @@
         <v>1.300393635833263</v>
       </c>
       <c r="D718" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E718">
         <v>1.49607869775581</v>
@@ -38311,7 +38311,7 @@
         <v>1</v>
       </c>
       <c r="P718" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="719" spans="1:16">
@@ -38325,7 +38325,7 @@
         <v>1.328869127694237</v>
       </c>
       <c r="D719" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E719">
         <v>1.59700884106862</v>
@@ -38361,7 +38361,7 @@
         <v>1</v>
       </c>
       <c r="P719" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="720" spans="1:16">
@@ -38375,7 +38375,7 @@
         <v>1.302176730311914</v>
       </c>
       <c r="D720" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E720">
         <v>1.59700884106862</v>
@@ -38411,7 +38411,7 @@
         <v>1</v>
       </c>
       <c r="P720" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="721" spans="1:16">
@@ -38425,7 +38425,7 @@
         <v>1.32594915476176</v>
       </c>
       <c r="D721" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E721">
         <v>1.52293507232763</v>
@@ -38475,7 +38475,7 @@
         <v>1.354592498963809</v>
       </c>
       <c r="D722" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E722">
         <v>1.623487547873024</v>
@@ -38525,7 +38525,7 @@
         <v>1.32836169551944</v>
       </c>
       <c r="D723" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E723">
         <v>1.623487547873024</v>
@@ -38575,7 +38575,7 @@
         <v>1.719970056024559</v>
       </c>
       <c r="D724" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E724">
         <v>1.862382596782238</v>
@@ -38625,7 +38625,7 @@
         <v>1.335054684122451</v>
       </c>
       <c r="D725" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E725">
         <v>1.532504101540835</v>
@@ -38675,7 +38675,7 @@
         <v>1.363757834757081</v>
       </c>
       <c r="D726" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E726">
         <v>1.632922012612918</v>
@@ -38725,7 +38725,7 @@
         <v>1.337691499002314</v>
       </c>
       <c r="D727" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E727">
         <v>1.632922012612918</v>
@@ -38775,7 +38775,7 @@
         <v>1.72944937558889</v>
       </c>
       <c r="D728" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E728">
         <v>1.892086190468752</v>
@@ -38875,7 +38875,7 @@
         <v>1.369435403547676</v>
       </c>
       <c r="D730" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E730">
         <v>1.638766296310903</v>
@@ -38925,7 +38925,7 @@
         <v>1.343470949125203</v>
       </c>
       <c r="D731" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E731">
         <v>1.638766296310903</v>
@@ -38975,7 +38975,7 @@
         <v>1.735321445104775</v>
       </c>
       <c r="D732" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E732">
         <v>1.758353329827142</v>
@@ -39025,7 +39025,7 @@
         <v>1.372482075130423</v>
       </c>
       <c r="D733" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E733">
         <v>1.641902429701953</v>
@@ -39075,7 +39075,7 @@
         <v>1.346572291813024</v>
       </c>
       <c r="D734" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E734">
         <v>1.641902429701953</v>
@@ -39125,7 +39125,7 @@
         <v>1.738472488797208</v>
       </c>
       <c r="D735" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E735">
         <v>1.551403414622868</v>
@@ -39175,7 +39175,7 @@
         <v>1.381049600075371</v>
       </c>
       <c r="D736" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E736">
         <v>1.63013425391119</v>
@@ -39211,7 +39211,7 @@
         <v>1</v>
       </c>
       <c r="P736" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="737" spans="1:16">
@@ -39225,7 +39225,7 @@
         <v>1.361049600075371</v>
       </c>
       <c r="D737" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E737">
         <v>1.63013425391119</v>
@@ -39261,7 +39261,7 @@
         <v>1</v>
       </c>
       <c r="P737" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="738" spans="1:16">
@@ -39275,7 +39275,7 @@
         <v>1.334934666308371</v>
       </c>
       <c r="D738" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E738">
         <v>1.63013425391119</v>
@@ -39311,7 +39311,7 @@
         <v>1</v>
       </c>
       <c r="P738" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="739" spans="1:16">
@@ -39325,7 +39325,7 @@
         <v>1.726648362883826</v>
       </c>
       <c r="D739" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E739">
         <v>1.538702736788463</v>
@@ -39361,7 +39361,7 @@
         <v>1</v>
       </c>
       <c r="P739" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="740" spans="1:16">
@@ -39375,7 +39375,7 @@
         <v>1.335104546864444</v>
       </c>
       <c r="D740" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E740">
         <v>1.582840080051328</v>
@@ -39425,7 +39425,7 @@
         <v>1.315104546864444</v>
       </c>
       <c r="D741" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E741">
         <v>1.582840080051328</v>
@@ -39475,7 +39475,7 @@
         <v>1.28816515047865</v>
       </c>
       <c r="D742" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E742">
         <v>1.582840080051328</v>
@@ -39525,7 +39525,7 @@
         <v>1.679129335582475</v>
       </c>
       <c r="D743" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E743">
         <v>1.487661005570451</v>
@@ -39575,7 +39575,7 @@
         <v>1.279317014732507</v>
       </c>
       <c r="D744" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E744">
         <v>1.525414414838846</v>
@@ -39611,7 +39611,7 @@
         <v>1</v>
       </c>
       <c r="P744" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="745" spans="1:16">
@@ -39625,7 +39625,7 @@
         <v>1.259317014732507</v>
       </c>
       <c r="D745" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E745">
         <v>1.525414414838846</v>
@@ -39661,7 +39661,7 @@
         <v>1</v>
       </c>
       <c r="P745" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="746" spans="1:16">
@@ -39675,7 +39675,7 @@
         <v>1.231376537019713</v>
       </c>
       <c r="D746" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E746">
         <v>1.525414414838846</v>
@@ -39711,7 +39711,7 @@
         <v>1</v>
       </c>
       <c r="P746" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="747" spans="1:16">
@@ -39725,7 +39725,7 @@
         <v>1.621430648189902</v>
       </c>
       <c r="D747" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E747">
         <v>1.425684970689784</v>
@@ -39761,7 +39761,7 @@
         <v>1</v>
       </c>
       <c r="P747" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="748" spans="1:16">
@@ -39775,7 +39775,7 @@
         <v>1.243099801584474</v>
       </c>
       <c r="D748" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E748">
         <v>1.488133727242747</v>
@@ -39811,7 +39811,7 @@
         <v>1</v>
       </c>
       <c r="P748" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="749" spans="1:16">
@@ -39825,7 +39825,7 @@
         <v>1.223099801584475</v>
       </c>
       <c r="D749" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E749">
         <v>1.488133727242747</v>
@@ -39861,7 +39861,7 @@
         <v>1</v>
       </c>
       <c r="P749" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="750" spans="1:16">
@@ -39875,7 +39875,7 @@
         <v>1.194509422820085</v>
       </c>
       <c r="D750" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E750">
         <v>1.488133727242747</v>
@@ -39911,7 +39911,7 @@
         <v>1</v>
       </c>
       <c r="P750" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="751" spans="1:16">
@@ -39925,7 +39925,7 @@
         <v>1.583972714852459</v>
       </c>
       <c r="D751" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E751">
         <v>1.385450187404612</v>
@@ -39961,7 +39961,7 @@
         <v>1</v>
       </c>
       <c r="P751" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="752" spans="1:16">
@@ -39975,7 +39975,7 @@
         <v>1.228734046504393</v>
       </c>
       <c r="D752" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E752">
         <v>1.473346139223935</v>
@@ -40025,7 +40025,7 @@
         <v>1.208734046504393</v>
       </c>
       <c r="D753" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E753">
         <v>1.473346139223935</v>
@@ -40075,7 +40075,7 @@
         <v>1.179885880944113</v>
       </c>
       <c r="D754" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E754">
         <v>1.473346139223935</v>
@@ -40125,7 +40125,7 @@
         <v>1.569114821343859</v>
       </c>
       <c r="D755" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E755">
         <v>1.369490841222662</v>
@@ -40175,7 +40175,7 @@
         <v>1.214848283326875</v>
       </c>
       <c r="D756" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E756">
         <v>1.459052637486556</v>
@@ -40211,7 +40211,7 @@
         <v>1</v>
       </c>
       <c r="P756" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="757" spans="1:16">
@@ -40225,7 +40225,7 @@
         <v>1.194848283326875</v>
       </c>
       <c r="D757" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E757">
         <v>1.459052637486556</v>
@@ -40261,7 +40261,7 @@
         <v>1</v>
       </c>
       <c r="P757" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="758" spans="1:16">
@@ -40275,7 +40275,7 @@
         <v>1.165750944202235</v>
       </c>
       <c r="D758" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E758">
         <v>1.459052637486556</v>
@@ -40311,7 +40311,7 @@
         <v>1</v>
       </c>
       <c r="P758" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="759" spans="1:16">
@@ -40325,7 +40325,7 @@
         <v>1.635157233543995</v>
       </c>
       <c r="D759" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E759">
         <v>1.354064732374555</v>
@@ -40361,7 +40361,7 @@
         <v>1</v>
       </c>
       <c r="P759" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="760" spans="1:16">
@@ -40375,7 +40375,7 @@
         <v>1.204487576632728</v>
       </c>
       <c r="D760" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E760">
         <v>1.448387701232059</v>
@@ -40425,7 +40425,7 @@
         <v>1.184487576632728</v>
       </c>
       <c r="D761" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E761">
         <v>1.448387701232059</v>
@@ -40475,7 +40475,7 @@
         <v>1.155204319443429</v>
       </c>
       <c r="D762" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E762">
         <v>1.448387701232059</v>
@@ -40525,7 +40525,7 @@
         <v>1.624171166086906</v>
       </c>
       <c r="D763" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E763">
         <v>1.342554714007974</v>
@@ -40575,7 +40575,7 @@
         <v>1.178909586838812</v>
       </c>
       <c r="D764" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E764">
         <v>1.442645920546966</v>
@@ -40625,7 +40625,7 @@
         <v>1.149526235216016</v>
       </c>
       <c r="D765" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E765">
         <v>1.442645920546966</v>
@@ -40675,7 +40675,7 @@
         <v>1.618256495016685</v>
       </c>
       <c r="D766" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E766">
         <v>1.336357958625173</v>
@@ -40725,7 +40725,7 @@
         <v>1.197243284500239</v>
       </c>
       <c r="D767" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E767">
         <v>1.461517964958648</v>
@@ -40775,7 +40775,7 @@
         <v>1.168188922558154</v>
       </c>
       <c r="D768" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E768">
         <v>1.461517964958648</v>
@@ -40825,7 +40825,7 @@
         <v>1.637696794331411</v>
       </c>
       <c r="D769" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E769">
         <v>1.356725410676448</v>
@@ -40875,7 +40875,7 @@
         <v>1.620131768920341</v>
       </c>
       <c r="D770" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E770">
         <v>1.338322668668851</v>
@@ -40925,7 +40925,7 @@
         <v>1.626701499044546</v>
       </c>
       <c r="D771" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E771">
         <v>1.345205724383594</v>
@@ -40975,7 +40975,7 @@
         <v>1.588450604285985</v>
       </c>
       <c r="D772" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E772">
         <v>1.305130556182701</v>
@@ -41025,7 +41025,7 @@
         <v>1.519767166709982</v>
       </c>
       <c r="D773" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E773">
         <v>1.233171446968457</v>
@@ -41061,7 +41061,7 @@
         <v>1</v>
       </c>
       <c r="P773" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="774" spans="1:16">
@@ -41111,7 +41111,7 @@
         <v>1</v>
       </c>
       <c r="P774" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="775" spans="1:16">
@@ -41125,7 +41125,7 @@
         <v>1.459764882116069</v>
       </c>
       <c r="D775" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E775">
         <v>1.170307514955451</v>
@@ -41211,7 +41211,7 @@
         <v>1</v>
       </c>
       <c r="P776" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="777" spans="1:16">
@@ -41261,7 +41261,7 @@
         <v>1</v>
       </c>
       <c r="P777" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="778" spans="1:16">
@@ -41375,7 +41375,7 @@
         <v>0.5261471424176589</v>
       </c>
       <c r="D780" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E780">
         <v>0.4529295327128526</v>
@@ -41475,7 +41475,7 @@
         <v>0.5696651621169257</v>
       </c>
       <c r="D782" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E782">
         <v>0.5764125076409874</v>
@@ -41525,7 +41525,7 @@
         <v>0.6229876769730494</v>
       </c>
       <c r="D783" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E783">
         <v>0.5485041779276498</v>
@@ -41575,7 +41575,7 @@
         <v>0.6943532144705493</v>
       </c>
       <c r="D784" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E784">
         <v>0.6189368325820457</v>
@@ -41625,7 +41625,7 @@
         <v>0.5459303920860705</v>
       </c>
       <c r="D785" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E785">
         <v>0.6568485089176113</v>
@@ -41675,7 +41675,7 @@
         <v>0.5409639358514591</v>
       </c>
       <c r="D786" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E786">
         <v>0.6519855205212206</v>
@@ -41775,7 +41775,7 @@
         <v>0.2337286883090668</v>
       </c>
       <c r="D788" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E788">
         <v>0.3511510073026285</v>
@@ -41875,7 +41875,7 @@
         <v>0.1248193267549702</v>
       </c>
       <c r="D790" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E790">
         <v>0.2445105907809086</v>
@@ -42275,7 +42275,7 @@
         <v>0.1728922878763504</v>
       </c>
       <c r="D798" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E798">
         <v>0.3588607309612</v>
@@ -42325,7 +42325,7 @@
         <v>0.5201709869586244</v>
       </c>
       <c r="D799" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E799">
         <v>0.6271254226372589</v>
@@ -42375,7 +42375,7 @@
         <v>0.1860586912284461</v>
       </c>
       <c r="D800" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E800">
         <v>0.371183134098418</v>
@@ -42475,7 +42475,7 @@
         <v>0.5327676901656773</v>
       </c>
       <c r="D802" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E802">
         <v>0.2873943615557639</v>
@@ -42575,7 +42575,7 @@
         <v>0.6443465398743404</v>
       </c>
       <c r="D804" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E804">
         <v>0.4214011207536048</v>
@@ -42661,7 +42661,7 @@
         <v>1</v>
       </c>
       <c r="P805" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="806" spans="1:16">
@@ -42675,7 +42675,7 @@
         <v>0.6440109624004045</v>
       </c>
       <c r="D806" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E806">
         <v>0.4209980905210893</v>
@@ -42711,7 +42711,7 @@
         <v>1</v>
       </c>
       <c r="P806" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="807" spans="1:16">
@@ -42775,7 +42775,7 @@
         <v>0.5150392959986707</v>
       </c>
       <c r="D808" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E808">
         <v>0.26610247107378</v>
@@ -42875,7 +42875,7 @@
         <v>0.4200792035295731</v>
       </c>
       <c r="D810" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E810">
         <v>0.1520549228319998</v>
@@ -42925,7 +42925,7 @@
         <v>0.08944703160528888</v>
       </c>
       <c r="D811" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E811">
         <v>0.2705169356982973</v>
@@ -43025,7 +43025,7 @@
         <v>0.4608540772532166</v>
       </c>
       <c r="D813" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E813">
         <v>0.2010257510729589</v>
@@ -43075,7 +43075,7 @@
         <v>0.1410815450643756</v>
       </c>
       <c r="D814" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E814">
         <v>0.3210586552217425</v>
@@ -43161,7 +43161,7 @@
         <v>1</v>
       </c>
       <c r="P815" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="816" spans="1:16">
@@ -43175,7 +43175,7 @@
         <v>0.5222127281947291</v>
       </c>
       <c r="D816" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E816">
         <v>0.2747177991886449</v>
@@ -43211,7 +43211,7 @@
         <v>1</v>
       </c>
       <c r="P816" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="817" spans="1:16">
@@ -43225,7 +43225,7 @@
         <v>0.2187819472616672</v>
       </c>
       <c r="D817" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E817">
         <v>0.3971146044624776</v>
@@ -43261,7 +43261,7 @@
         <v>1</v>
       </c>
       <c r="P817" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="818" spans="1:16">
@@ -43311,7 +43311,7 @@
         <v>1</v>
       </c>
       <c r="P818" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="819" spans="1:16">
@@ -43325,7 +43325,7 @@
         <v>0.6720103179814281</v>
       </c>
       <c r="D819" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E819">
         <v>0.4546254572741777</v>
@@ -43361,7 +43361,7 @@
         <v>1</v>
       </c>
       <c r="P819" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="820" spans="1:16">
@@ -43425,7 +43425,7 @@
         <v>0.9954766033138363</v>
       </c>
       <c r="D821" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E821">
         <v>0.6006830651009487</v>
@@ -43475,7 +43475,7 @@
         <v>1.036270478123291</v>
       </c>
       <c r="D822" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E822">
         <v>0.6454066250984711</v>
@@ -43525,7 +43525,7 @@
         <v>1.041873911083155</v>
       </c>
       <c r="D823" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E823">
         <v>0.6515498382975879</v>
@@ -43625,7 +43625,7 @@
         <v>1.043253289895938</v>
       </c>
       <c r="D825" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E825">
         <v>0.6530620930510525</v>
@@ -43675,7 +43675,7 @@
         <v>0.6149868979590059</v>
       </c>
       <c r="D826" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E826">
         <v>0.8446855288842503</v>
@@ -43775,7 +43775,7 @@
         <v>1.050214176440594</v>
       </c>
       <c r="D828" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E828">
         <v>0.6606935237123945</v>
@@ -43825,7 +43825,7 @@
         <v>0.6257521672616049</v>
       </c>
       <c r="D829" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E829">
         <v>0.7954716981132099</v>
@@ -43875,7 +43875,7 @@
         <v>0.6236613972463054</v>
       </c>
       <c r="D830" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E830">
         <v>0.8538602753697138</v>
@@ -43925,7 +43925,7 @@
         <v>1.133952619512609</v>
       </c>
       <c r="D831" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E831">
         <v>0.7524985140528146</v>
@@ -43975,7 +43975,7 @@
         <v>0.722550734482466</v>
       </c>
       <c r="D832" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E832">
         <v>0.8902216184087619</v>
@@ -44025,7 +44025,7 @@
         <v>0.7280143500042451</v>
       </c>
       <c r="D833" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E833">
         <v>0.9642311284707485</v>
@@ -44075,7 +44075,7 @@
         <v>1.018049163624012</v>
       </c>
       <c r="D834" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E834">
         <v>0.9372785938694053</v>
@@ -44125,7 +44125,7 @@
         <v>1.184786594926472</v>
       </c>
       <c r="D835" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E835">
         <v>0.8082293403092971</v>
@@ -44175,7 +44175,7 @@
         <v>0.7813129445939042</v>
       </c>
       <c r="D836" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E836">
         <v>0.9477401838617565</v>
@@ -44225,7 +44225,7 @@
         <v>0.7913624997936921</v>
       </c>
       <c r="D837" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E837">
         <v>1.031232484444372</v>
@@ -44275,7 +44275,7 @@
         <v>1.083418235983428</v>
       </c>
       <c r="D838" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E838">
         <v>0.9460931439700282</v>
@@ -44325,7 +44325,7 @@
         <v>0.9959625812148376</v>
       </c>
       <c r="D839" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E839">
         <v>1.275978498686759</v>
@@ -44375,7 +44375,7 @@
         <v>1.045020386307058</v>
       </c>
       <c r="D840" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E840">
         <v>1.275978498686759</v>
@@ -44425,7 +44425,7 @@
         <v>0.5700497471675483</v>
       </c>
       <c r="D841" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E841">
         <v>0.7400823063591968</v>
@@ -44475,7 +44475,7 @@
         <v>0.7993610436752716</v>
       </c>
       <c r="D842" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E842">
         <v>0.5820028088536793</v>
@@ -44525,7 +44525,7 @@
         <v>0.8656656466686519</v>
       </c>
       <c r="D843" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E843">
         <v>0.5820028088536793</v>
@@ -44575,7 +44575,7 @@
         <v>0.7799606635805523</v>
       </c>
       <c r="D844" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E844">
         <v>0.5820028088536793</v>
@@ -44625,7 +44625,7 @@
         <v>0.6527153807916708</v>
       </c>
       <c r="D845" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E845">
         <v>0.8333516469141635</v>
@@ -44661,7 +44661,7 @@
         <v>1</v>
       </c>
       <c r="P845" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="846" spans="1:16">
@@ -44675,7 +44675,7 @@
         <v>0.8903581613164846</v>
       </c>
       <c r="D846" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E846">
         <v>0.669321089396437</v>
@@ -44711,7 +44711,7 @@
         <v>1</v>
       </c>
       <c r="P846" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="847" spans="1:16">
@@ -44725,7 +44725,7 @@
         <v>0.949521492295216</v>
       </c>
       <c r="D847" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E847">
         <v>0.669321089396437</v>
@@ -44761,7 +44761,7 @@
         <v>1</v>
       </c>
       <c r="P847" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="848" spans="1:16">
@@ -44775,7 +44775,7 @@
         <v>0.8668461397587857</v>
       </c>
       <c r="D848" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E848">
         <v>0.669321089396437</v>
@@ -44811,7 +44811,7 @@
         <v>1</v>
       </c>
       <c r="P848" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="849" spans="1:16">
@@ -44825,7 +44825,7 @@
         <v>0.5362313038223281</v>
       </c>
       <c r="D849" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E849">
         <v>0.7019258951503229</v>
@@ -44875,7 +44875,7 @@
         <v>0.7621341970086082</v>
       </c>
       <c r="D850" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E850">
         <v>0.5462809714458361</v>
@@ -44925,7 +44925,7 @@
         <v>0.8313602885632259</v>
       </c>
       <c r="D851" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E851">
         <v>0.5462809714458361</v>
@@ -44975,7 +44975,7 @@
         <v>0.7444158860855108</v>
       </c>
       <c r="D852" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E852">
         <v>0.5462809714458361</v>
@@ -45025,7 +45025,7 @@
         <v>0.7200944227714334</v>
       </c>
       <c r="D853" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E853">
         <v>0.6017779488095529</v>
@@ -45075,7 +45075,7 @@
         <v>0.513443082806087</v>
       </c>
       <c r="D854" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E854">
         <v>0.7680313973173494</v>
@@ -45125,7 +45125,7 @@
         <v>0.5055337955483079</v>
       </c>
       <c r="D855" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E855">
         <v>0.6404001505858758</v>
@@ -45175,7 +45175,7 @@
         <v>0.7021073394927146</v>
       </c>
       <c r="D856" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E856">
         <v>0.584731925773716</v>
@@ -45225,7 +45225,7 @@
         <v>0.4963115088390788</v>
       </c>
       <c r="D857" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E857">
         <v>0.7511778638766478</v>
@@ -45275,7 +45275,7 @@
         <v>0.6702836519976234</v>
       </c>
       <c r="D858" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E858">
         <v>0.5545732112272379</v>
@@ -45325,7 +45325,7 @@
         <v>0.4660014331154549</v>
       </c>
       <c r="D859" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E859">
         <v>0.7213597119787503</v>
@@ -45375,7 +45375,7 @@
         <v>0.39314498933902</v>
       </c>
       <c r="D860" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E860">
         <v>0.5781462127302612</v>
@@ -45425,7 +45425,7 @@
         <v>0.6698856375388864</v>
       </c>
       <c r="D861" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E861">
         <v>0.5541960203549277</v>
@@ -45461,7 +45461,7 @@
         <v>1</v>
       </c>
       <c r="P861" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="862" spans="1:16">
@@ -45475,7 +45475,7 @@
         <v>0.4656223491898324</v>
       </c>
       <c r="D862" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E862">
         <v>0.7209867804763901</v>
@@ -45511,7 +45511,7 @@
         <v>1</v>
       </c>
       <c r="P862" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="863" spans="1:16">
@@ -45525,7 +45525,7 @@
         <v>0.3927696915200212</v>
       </c>
       <c r="D863" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E863">
         <v>0.577777540597852</v>
@@ -45561,7 +45561,7 @@
         <v>1</v>
       </c>
       <c r="P863" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="864" spans="1:16">
@@ -45575,7 +45575,7 @@
         <v>0.3954878947880989</v>
       </c>
       <c r="D864" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E864">
         <v>0.6519905881311141</v>
@@ -45625,7 +45625,7 @@
         <v>0.323335706076108</v>
       </c>
       <c r="D865" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E865">
         <v>0.5095693758301243</v>
@@ -45675,7 +45675,7 @@
         <v>0.3171981212746857</v>
       </c>
       <c r="D866" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E866">
         <v>0.5749714351616149</v>
@@ -45711,7 +45711,7 @@
         <v>1</v>
       </c>
       <c r="P866" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="867" spans="1:16">
@@ -45725,7 +45725,7 @@
         <v>0.2458278528974107</v>
       </c>
       <c r="D867" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E867">
         <v>0.4334298832371788</v>
@@ -45761,7 +45761,7 @@
         <v>1</v>
       </c>
       <c r="P867" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="868" spans="1:16">
@@ -45775,7 +45775,7 @@
         <v>0.2915743926955265</v>
       </c>
       <c r="D868" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E868">
         <v>0.5497635723396703</v>
@@ -45811,7 +45811,7 @@
         <v>1</v>
       </c>
       <c r="P868" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="869" spans="1:16">
@@ -45825,7 +45825,7 @@
         <v>0.2204600417073062</v>
       </c>
       <c r="D869" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E869">
         <v>0.4085099274779216</v>
@@ -45861,7 +45861,7 @@
         <v>1</v>
       </c>
       <c r="P869" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="870" spans="1:16">
@@ -45875,7 +45875,7 @@
         <v>0.2914363891999283</v>
       </c>
       <c r="D870" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E870">
         <v>0.549627808601179</v>
@@ -45925,7 +45925,7 @@
         <v>0.2203234165237742</v>
       </c>
       <c r="D871" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E871">
         <v>0.4083757143405045</v>
@@ -45975,7 +45975,7 @@
         <v>0.440452112284536</v>
       </c>
       <c r="D872" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E872">
         <v>0.2408030568040092</v>
@@ -46025,7 +46025,7 @@
         <v>0.2502766400247971</v>
       </c>
       <c r="D873" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E873">
         <v>0.5091360703365053</v>
@@ -46075,7 +46075,7 @@
         <v>0.1795747509858474</v>
       </c>
       <c r="D874" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E874">
         <v>0.3683464451676866</v>
@@ -46125,7 +46125,7 @@
         <v>0.2350979914460511</v>
       </c>
       <c r="D875" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E875">
         <v>0.4942037668657795</v>
@@ -46175,7 +46175,7 @@
         <v>0.1645476993966524</v>
       </c>
       <c r="D876" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E876">
         <v>0.353584688310205</v>
@@ -46225,7 +46225,7 @@
         <v>0.2406666795503796</v>
       </c>
       <c r="D877" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E877">
         <v>0.4996820767611734</v>
@@ -46261,7 +46261,7 @@
         <v>1</v>
       </c>
       <c r="P877" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="878" spans="1:16">
@@ -46275,7 +46275,7 @@
         <v>0.170060770141637</v>
       </c>
       <c r="D878" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E878">
         <v>0.3590004286763371</v>
@@ -46311,7 +46311,7 @@
         <v>1</v>
       </c>
       <c r="P878" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="879" spans="1:16">
@@ -46325,7 +46325,7 @@
         <v>0.2742039557921805</v>
       </c>
       <c r="D879" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E879">
         <v>0.5326750526394992</v>
@@ -46375,7 +46375,7 @@
         <v>0.2032630923136063</v>
       </c>
       <c r="D880" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E880">
         <v>0.3916165812261028</v>
@@ -46425,7 +46425,7 @@
         <v>0.20602047828244</v>
       </c>
       <c r="D881" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E881">
         <v>0.4094108608699649</v>
@@ -46475,7 +46475,7 @@
         <v>0.1902584565168475</v>
       </c>
       <c r="D882" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E882">
         <v>0.4094108608699649</v>
@@ -46575,7 +46575,7 @@
         <v>0.2149006804504703</v>
       </c>
       <c r="D884" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E884">
         <v>0.4378109137038262</v>
@@ -46625,7 +46625,7 @@
         <v>0.1995305969898986</v>
       </c>
       <c r="D885" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E885">
         <v>0.4378109137038262</v>
@@ -46725,7 +46725,7 @@
         <v>0.220681641616733</v>
       </c>
       <c r="D887" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E887">
         <v>0.4543105478992491</v>
@@ -46775,7 +46775,7 @@
         <v>0.2055667077662751</v>
       </c>
       <c r="D888" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E888">
         <v>0.4543105478992491</v>
@@ -46825,7 +46825,7 @@
         <v>0.781658654846642</v>
       </c>
       <c r="D889" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E889">
         <v>0.7512399348909664</v>
@@ -46975,7 +46975,7 @@
         <v>0.8282846905272105</v>
       </c>
       <c r="D892" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E892">
         <v>0.7959104201693021</v>
@@ -47125,7 +47125,7 @@
         <v>0.8617859564717074</v>
       </c>
       <c r="D895" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E895">
         <v>0.8113064915805275</v>
@@ -47211,7 +47211,7 @@
         <v>1</v>
       </c>
       <c r="P896" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="897" spans="1:16">
@@ -47261,7 +47261,7 @@
         <v>1</v>
       </c>
       <c r="P897" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="898" spans="1:16">
@@ -47275,7 +47275,7 @@
         <v>0.8932933858146832</v>
       </c>
       <c r="D898" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E898">
         <v>0.8005022184919994</v>
@@ -47311,7 +47311,7 @@
         <v>1</v>
       </c>
       <c r="P898" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="899" spans="1:16">
@@ -47425,7 +47425,7 @@
         <v>0.8962828597968739</v>
       </c>
       <c r="D901" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E901">
         <v>0.6692115204282212</v>
@@ -47575,7 +47575,7 @@
         <v>0.8981411674430042</v>
       </c>
       <c r="D904" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E904">
         <v>0.8198710501231963</v>
@@ -47675,7 +47675,7 @@
         <v>0.9413670597381616</v>
       </c>
       <c r="D906" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E906">
         <v>0.7547458273291996</v>
@@ -47761,7 +47761,7 @@
         <v>1</v>
       </c>
       <c r="P907" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="908" spans="1:16">
@@ -47811,7 +47811,7 @@
         <v>1</v>
       </c>
       <c r="P908" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="909" spans="1:16">
@@ -47861,7 +47861,7 @@
         <v>1</v>
       </c>
       <c r="P909" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="910" spans="1:16">
@@ -47911,7 +47911,7 @@
         <v>1</v>
       </c>
       <c r="P910" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="911" spans="1:16">
@@ -48111,7 +48111,7 @@
         <v>1</v>
       </c>
       <c r="P914" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="915" spans="1:16">
@@ -48125,7 +48125,7 @@
         <v>1.107102545011632</v>
       </c>
       <c r="D915" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E915">
         <v>0.8734430904800172</v>
@@ -48161,7 +48161,7 @@
         <v>1</v>
       </c>
       <c r="P915" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="916" spans="1:16">
@@ -48175,7 +48175,7 @@
         <v>0.720711199573695</v>
       </c>
       <c r="D916" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E916">
         <v>0.7812575777549604</v>
@@ -48211,7 +48211,7 @@
         <v>1</v>
       </c>
       <c r="P916" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="917" spans="1:16">
@@ -48261,7 +48261,7 @@
         <v>1</v>
       </c>
       <c r="P917" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="918" spans="1:16">
@@ -48275,7 +48275,7 @@
         <v>1.158678139422666</v>
       </c>
       <c r="D918" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E918">
         <v>0.9234069475657076</v>
@@ -48311,7 +48311,7 @@
         <v>1</v>
       </c>
       <c r="P918" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="919" spans="1:16">
@@ -48325,7 +48325,7 @@
         <v>0.7703527091943165</v>
       </c>
       <c r="D919" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E919">
         <v>0.9670720336113794</v>
@@ -48361,7 +48361,7 @@
         <v>1</v>
       </c>
       <c r="P919" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="920" spans="1:16">
@@ -48375,7 +48375,7 @@
         <v>1.205098348075446</v>
       </c>
       <c r="D920" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E920">
         <v>0.9683765246980878</v>
@@ -48425,7 +48425,7 @@
         <v>0.8150321600226169</v>
       </c>
       <c r="D921" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E921">
         <v>1.012389762308656</v>
@@ -48475,7 +48475,7 @@
         <v>1.265548211097165</v>
       </c>
       <c r="D922" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E922">
         <v>1.026937329500378</v>
@@ -48525,7 +48525,7 @@
         <v>0.8732151531810217</v>
       </c>
       <c r="D923" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E923">
         <v>1.179592728986194</v>
@@ -48575,7 +48575,7 @@
         <v>1.050983836179513</v>
       </c>
       <c r="D924" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E924">
         <v>1.288316949085643</v>
@@ -48625,7 +48625,7 @@
         <v>1.538931769261536</v>
       </c>
       <c r="D925" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E925">
         <v>1.227927991208364</v>
@@ -48675,7 +48675,7 @@
         <v>1.143875098463955</v>
       </c>
       <c r="D926" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E926">
         <v>1.38499221811229</v>
@@ -48725,7 +48725,7 @@
         <v>1.652909100942503</v>
       </c>
       <c r="D927" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E927">
         <v>1.742871320410783</v>
@@ -48775,7 +48775,7 @@
         <v>1.20852843839123</v>
       </c>
       <c r="D928" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E928">
         <v>1.452279268338836</v>
@@ -48811,7 +48811,7 @@
         <v>1</v>
       </c>
       <c r="P928" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="929" spans="1:16">
@@ -48825,7 +48825,7 @@
         <v>1.718327066440535</v>
       </c>
       <c r="D929" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E929">
         <v>1.669818546791849</v>
@@ -48861,7 +48861,7 @@
         <v>1</v>
       </c>
       <c r="P929" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="930" spans="1:16">
@@ -49025,7 +49025,7 @@
         <v>-0.6426033445997472</v>
       </c>
       <c r="D933" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E933">
         <v>-0.2500317921627495</v>
@@ -49075,7 +49075,7 @@
         <v>-0.07261057009128002</v>
       </c>
       <c r="D934" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E934">
         <v>0.3971032201607283</v>
@@ -49125,7 +49125,7 @@
         <v>-1.878055653011497</v>
       </c>
       <c r="D935" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E935">
         <v>-1.110931447959295</v>
@@ -49175,7 +49175,7 @@
         <v>-1.806521642344054</v>
       </c>
       <c r="D936" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E936">
         <v>-1.110931447959295</v>
@@ -49225,7 +49225,7 @@
         <v>-1.057629327802248</v>
       </c>
       <c r="D937" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E937">
         <v>-1.684327207645206</v>
@@ -49275,7 +49275,7 @@
         <v>-1.237894167267878</v>
       </c>
       <c r="D938" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E938">
         <v>-1.868045396525886</v>
@@ -49325,7 +49325,7 @@
         <v>-2.388287363338694</v>
       </c>
       <c r="D939" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E939">
         <v>-2.093332732116094</v>
@@ -49461,7 +49461,7 @@
         <v>1</v>
       </c>
       <c r="P941" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="942" spans="1:16">
@@ -49575,7 +49575,7 @@
         <v>-1.425604304635755</v>
       </c>
       <c r="D944" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E944">
         <v>-0.5363947570877485</v>
@@ -49625,7 +49625,7 @@
         <v>-1.405338494066783</v>
       </c>
       <c r="D945" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E945">
         <v>-0.5167334212453234</v>
@@ -49675,7 +49675,7 @@
         <v>0.1149685243430643</v>
       </c>
       <c r="D946" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E946">
         <v>0.3729357241249502</v>
@@ -49725,7 +49725,7 @@
         <v>-1.072693158733248</v>
       </c>
       <c r="D947" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E947">
         <v>-0.4674872802772256</v>
@@ -49775,7 +49775,7 @@
         <v>-1.354578313166009</v>
       </c>
       <c r="D948" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E948">
         <v>-0.4674872802772256</v>
@@ -49825,7 +49825,7 @@
         <v>0.1620631348805173</v>
       </c>
       <c r="D949" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E949">
         <v>0.6046849880736325</v>
@@ -50325,7 +50325,7 @@
         <v>-3.138391034641701</v>
       </c>
       <c r="D959" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E959">
         <v>-2.872578938688298</v>
@@ -50375,7 +50375,7 @@
         <v>-2.992309947312686</v>
       </c>
       <c r="D960" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E960">
         <v>-2.411584851935402</v>
@@ -50425,7 +50425,7 @@
         <v>-2.846851772941491</v>
       </c>
       <c r="D961" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E961">
         <v>-2.411584851935402</v>
@@ -50511,7 +50511,7 @@
         <v>1</v>
       </c>
       <c r="P962" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="963" spans="1:16">
@@ -50525,7 +50525,7 @@
         <v>-2.994162180198932</v>
       </c>
       <c r="D963" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E963">
         <v>-2.540787137784747</v>
@@ -50575,7 +50575,7 @@
         <v>-4.0633745679387</v>
       </c>
       <c r="D964" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E964">
         <v>-3.611328022174025</v>
@@ -50625,7 +50625,7 @@
         <v>-4.311328022174026</v>
       </c>
       <c r="D965" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E965">
         <v>-3.388229112424099</v>
@@ -50675,7 +50675,7 @@
         <v>-3.611284825643983</v>
       </c>
       <c r="D966" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E966">
         <v>-2.708991395511205</v>
@@ -50725,7 +50725,7 @@
         <v>-2.395532401159251</v>
       </c>
       <c r="D967" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E967">
         <v>-2.950081563119214</v>
@@ -50775,7 +50775,7 @@
         <v>-2.773524785828151</v>
       </c>
       <c r="D968" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E968">
         <v>-3.079491758996795</v>
@@ -50825,7 +50825,7 @@
         <v>-3.592212860519359</v>
       </c>
       <c r="D969" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E969">
         <v>-2.690486254524902</v>
@@ -50875,7 +50875,7 @@
         <v>-2.378027538064098</v>
       </c>
       <c r="D970" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E970">
         <v>-3.135983502288957</v>
@@ -50925,7 +50925,7 @@
         <v>-3.368141169467101</v>
       </c>
       <c r="D971" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E971">
         <v>-2.473074036808113</v>
@@ -50975,7 +50975,7 @@
         <v>-2.172367332115783</v>
       </c>
       <c r="D972" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E972">
         <v>-2.917787817120937</v>
@@ -51025,7 +51025,7 @@
         <v>-2.653854045231991</v>
       </c>
       <c r="D973" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E973">
         <v>-2.946319386551849</v>
@@ -51061,7 +51061,7 @@
         <v>1</v>
       </c>
       <c r="P973" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="974" spans="1:16">
@@ -51075,7 +51075,7 @@
         <v>-3.453964953008454</v>
       </c>
       <c r="D974" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E974">
         <v>-2.556347113495963</v>
@@ -51111,7 +51111,7 @@
         <v>1</v>
       </c>
       <c r="P974" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="975" spans="1:16">
@@ -51125,7 +51125,7 @@
         <v>-2.251139161415102</v>
       </c>
       <c r="D975" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E975">
         <v>-3.001360976968023</v>
@@ -51161,7 +51161,7 @@
         <v>1</v>
       </c>
       <c r="P975" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="976" spans="1:16">
@@ -51175,7 +51175,7 @@
         <v>-2.229923395837275</v>
       </c>
       <c r="D976" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E976">
         <v>-2.978852059964501</v>
@@ -51225,7 +51225,7 @@
         <v>-1.97712127608305</v>
       </c>
       <c r="D977" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E977">
         <v>-2.710641049101445</v>
@@ -51275,7 +51275,7 @@
         <v>-1.674354704142281</v>
       </c>
       <c r="D978" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E978">
         <v>-2.417869901775436</v>
@@ -51311,7 +51311,7 @@
         <v>1</v>
       </c>
       <c r="P978" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="979" spans="1:16">
@@ -51325,7 +51325,7 @@
         <v>-2.868361143195562</v>
       </c>
       <c r="D979" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E979">
         <v>-2.571745481657086</v>
@@ -51361,7 +51361,7 @@
         <v>1</v>
       </c>
       <c r="P979" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="980" spans="1:16">
@@ -51375,7 +51375,7 @@
         <v>-1.554260584894401</v>
       </c>
       <c r="D980" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E980">
         <v>-2.289083255801042</v>
@@ -51411,7 +51411,7 @@
         <v>1</v>
       </c>
       <c r="P980" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="981" spans="1:16">
@@ -51425,7 +51425,7 @@
         <v>-2.737058239484545</v>
       </c>
       <c r="D981" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E981">
         <v>-2.149876480635447</v>
@@ -51461,7 +51461,7 @@
         <v>1</v>
       </c>
       <c r="P981" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="982" spans="1:16">
@@ -51475,7 +51475,7 @@
         <v>-3.279632962436352</v>
       </c>
       <c r="D982" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E982">
         <v>-2.02552610937566</v>
@@ -51525,7 +51525,7 @@
         <v>-1.694404575644969</v>
       </c>
       <c r="D983" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E983">
         <v>-1.986719012677817</v>
@@ -51575,7 +51575,7 @@
         <v>-2.055164356946799</v>
       </c>
       <c r="D984" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E984">
         <v>-2.177069801948008</v>
@@ -51625,7 +51625,7 @@
         <v>-4.129383895568031</v>
       </c>
       <c r="D985" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E985">
         <v>-3.23914719210129</v>
@@ -51675,7 +51675,7 @@
         <v>-2.754774625142764</v>
       </c>
       <c r="D986" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E986">
         <v>-2.869215286561634</v>
@@ -51725,7 +51725,7 @@
         <v>-4.285130263211196</v>
       </c>
       <c r="D987" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E987">
         <v>-3.433614429791151</v>
@@ -51775,7 +51775,7 @@
         <v>-4.345102192221939</v>
       </c>
       <c r="D988" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E988">
         <v>-3.433614429791151</v>
@@ -51825,7 +51825,7 @@
         <v>-2.64781440659724</v>
       </c>
       <c r="D989" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E989">
         <v>-3.458600394296521</v>
@@ -51911,7 +51911,7 @@
         <v>1</v>
       </c>
       <c r="P990" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="991" spans="1:16">
@@ -51961,7 +51961,7 @@
         <v>1</v>
       </c>
       <c r="P991" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="992" spans="1:16">
@@ -51975,7 +51975,7 @@
         <v>-5.586260494704211</v>
       </c>
       <c r="D992" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E992">
         <v>-4.939853558512011</v>
@@ -52025,7 +52025,7 @@
         <v>-4.065542576207699</v>
       </c>
       <c r="D993" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E993">
         <v>-4.963286699173338</v>
@@ -52075,7 +52075,7 @@
         <v>-3.720545582896333</v>
       </c>
       <c r="D994" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E994">
         <v>-4.59712888261396</v>
@@ -52125,7 +52125,7 @@
         <v>-2.602638326676717</v>
       </c>
       <c r="D995" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E995">
         <v>-3.272496544975409</v>
@@ -52175,7 +52175,7 @@
         <v>-3.794696356374601</v>
       </c>
       <c r="D996" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E996">
         <v>-3.256823081894201</v>
@@ -52225,7 +52225,7 @@
         <v>-2.667815553803349</v>
       </c>
       <c r="D997" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E997">
         <v>-2.887886444654004</v>
@@ -52275,7 +52275,7 @@
         <v>-1.0615988972548</v>
       </c>
       <c r="D998" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E998">
         <v>-1.724705573694033</v>
@@ -52375,7 +52375,7 @@
         <v>1.667385247989756</v>
       </c>
       <c r="D1000" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E1000">
         <v>1.01623469047821</v>
@@ -52475,7 +52475,7 @@
         <v>2.473695893750117</v>
       </c>
       <c r="D1002" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E1002">
         <v>1.826077912999843</v>
@@ -52575,7 +52575,7 @@
         <v>2.324260320387948</v>
       </c>
       <c r="D1004" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E1004">
         <v>1.675987638330502</v>
@@ -52611,7 +52611,7 @@
         <v>1</v>
       </c>
       <c r="P1004" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1005" spans="1:16">
@@ -52661,7 +52661,7 @@
         <v>1</v>
       </c>
       <c r="P1005" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1006" spans="1:16">
@@ -52675,7 +52675,7 @@
         <v>2.359346111981594</v>
       </c>
       <c r="D1006" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E1006">
         <v>1.7112271464262</v>
@@ -52775,7 +52775,7 @@
         <v>2.612168565872217</v>
       </c>
       <c r="D1008" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E1008">
         <v>1.965157256193672</v>
@@ -52975,7 +52975,7 @@
         <v>2.670003768525686</v>
       </c>
       <c r="D1012" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E1012">
         <v>2.583538441910299</v>
@@ -53025,7 +53025,7 @@
         <v>3.758701543642353</v>
       </c>
       <c r="D1013" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E1013">
         <v>3.257153973350029</v>
@@ -53075,7 +53075,7 @@
         <v>2.991915098027219</v>
       </c>
       <c r="D1014" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E1014">
         <v>2.930902437558249</v>
@@ -53125,7 +53125,7 @@
         <v>3.710399964967485</v>
       </c>
       <c r="D1015" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E1015">
         <v>3.208639612390249</v>
@@ -53161,7 +53161,7 @@
         <v>1</v>
       </c>
       <c r="P1015" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1016" spans="1:16">
@@ -53211,7 +53211,7 @@
         <v>1</v>
       </c>
       <c r="P1016" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1017" spans="1:16">
@@ -53261,7 +53261,7 @@
         <v>1</v>
       </c>
       <c r="P1017" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1018" spans="1:16">
@@ -53311,7 +53311,7 @@
         <v>1</v>
       </c>
       <c r="P1018" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1019" spans="1:16">
@@ -53361,7 +53361,7 @@
         <v>1</v>
       </c>
       <c r="P1019" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1020" spans="1:16">
@@ -53411,7 +53411,7 @@
         <v>1</v>
       </c>
       <c r="P1020" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1021" spans="1:16">
@@ -53425,7 +53425,7 @@
         <v>2.727566851628665</v>
       </c>
       <c r="D1021" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E1021">
         <v>2.664231139428988</v>
@@ -53461,7 +53461,7 @@
         <v>1</v>
       </c>
       <c r="P1021" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1022" spans="1:16">
@@ -53511,7 +53511,7 @@
         <v>1</v>
       </c>
       <c r="P1022" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1023" spans="1:16">
@@ -53561,7 +53561,7 @@
         <v>1</v>
       </c>
       <c r="P1023" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1024" spans="1:16">
@@ -53775,7 +53775,7 @@
         <v>2.609928198170193</v>
       </c>
       <c r="D1028" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E1028">
         <v>2.725965239194989</v>
@@ -53825,7 +53825,7 @@
         <v>2.643524059557652</v>
       </c>
       <c r="D1029" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E1029">
         <v>2.725965239194989</v>
@@ -53911,7 +53911,7 @@
         <v>1</v>
       </c>
       <c r="P1030" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1031" spans="1:16">
@@ -53961,7 +53961,7 @@
         <v>1</v>
       </c>
       <c r="P1031" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1032" spans="1:16">
@@ -54011,7 +54011,7 @@
         <v>1</v>
       </c>
       <c r="P1032" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1033" spans="1:16">
@@ -54125,7 +54125,7 @@
         <v>2.532644095276093</v>
       </c>
       <c r="D1035" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E1035">
         <v>2.550325375262486</v>
@@ -54175,7 +54175,7 @@
         <v>2.503716607270652</v>
       </c>
       <c r="D1036" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E1036">
         <v>2.550325375262486</v>
@@ -54225,7 +54225,7 @@
         <v>2.520325375262487</v>
       </c>
       <c r="D1037" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E1037">
         <v>2.550325375262486</v>
@@ -54311,7 +54311,7 @@
         <v>1</v>
       </c>
       <c r="P1038" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1039" spans="1:16">
@@ -54361,7 +54361,7 @@
         <v>1</v>
       </c>
       <c r="P1039" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1040" spans="1:16">
@@ -54375,7 +54375,7 @@
         <v>2.618623293428294</v>
       </c>
       <c r="D1040" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E1040">
         <v>2.697920723755893</v>
@@ -54411,7 +54411,7 @@
         <v>1</v>
       </c>
       <c r="P1040" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1041" spans="1:16">
@@ -54425,7 +54425,7 @@
         <v>2.590342265559335</v>
       </c>
       <c r="D1041" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E1041">
         <v>2.697920723755893</v>
@@ -54461,7 +54461,7 @@
         <v>1</v>
       </c>
       <c r="P1041" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1042" spans="1:16">
@@ -54475,7 +54475,7 @@
         <v>2.607920723755893</v>
       </c>
       <c r="D1042" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E1042">
         <v>2.697920723755893</v>
@@ -54511,7 +54511,7 @@
         <v>1</v>
       </c>
       <c r="P1042" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1043" spans="1:16">
@@ -54525,7 +54525,7 @@
         <v>2.558955950720363</v>
       </c>
       <c r="D1043" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E1043">
         <v>2.543266523322259</v>
@@ -54561,7 +54561,7 @@
         <v>1</v>
       </c>
       <c r="P1043" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1044" spans="1:16">
@@ -54575,7 +54575,7 @@
         <v>2.530226296214503</v>
       </c>
       <c r="D1044" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E1044">
         <v>2.543266523322259</v>
@@ -54611,7 +54611,7 @@
         <v>1</v>
       </c>
       <c r="P1044" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1045" spans="1:16">
@@ -54625,7 +54625,7 @@
         <v>2.547131814455709</v>
       </c>
       <c r="D1045" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E1045">
         <v>2.543266523322259</v>
@@ -54661,7 +54661,7 @@
         <v>1</v>
       </c>
       <c r="P1045" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1046" spans="1:16">
@@ -54725,7 +54725,7 @@
         <v>2.451815866315989</v>
       </c>
       <c r="D1047" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E1047">
         <v>2.47805935023451</v>
@@ -54775,7 +54775,7 @@
         <v>2.331390177963218</v>
       </c>
       <c r="D1048" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E1048">
         <v>2.286661509124484</v>
@@ -54825,7 +54825,7 @@
         <v>2.40117481667639</v>
       </c>
       <c r="D1049" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E1049">
         <v>2.48838014543113</v>
@@ -54925,7 +54925,7 @@
         <v>2.385066165658595</v>
       </c>
       <c r="D1051" t="s">
-        <v>488</v>
+        <v>255</v>
       </c>
       <c r="E1051">
         <v>2.397054367222326</v>
@@ -55011,7 +55011,57 @@
         <v>1</v>
       </c>
       <c r="P1052" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:16">
+      <c r="A1053" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1053">
+        <v>-1.362811352981845</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1053">
+        <v>-1.158864262001844</v>
+      </c>
+      <c r="F1053">
+        <v>1</v>
+      </c>
+      <c r="G1053">
+        <v>0.01816281135298185</v>
+      </c>
+      <c r="H1053">
+        <v>0.01805886426200184</v>
+      </c>
+      <c r="I1053">
+        <v>0.2039470909800016</v>
+      </c>
+      <c r="J1053">
+        <v>1.282892424833357</v>
+      </c>
+      <c r="K1053">
+        <v>7.61</v>
+      </c>
+      <c r="L1053">
+        <v>8.4</v>
+      </c>
+      <c r="M1053">
+        <v>7.49</v>
+      </c>
+      <c r="N1053">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="O1053">
+        <v>1</v>
+      </c>
+      <c r="P1053" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-01157-000157.xlsx
+++ b/s60_signal/position-01157-000157.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3171" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="682">
   <si>
     <t>trade_time</t>
   </si>
@@ -781,6 +781,9 @@
     <t>2021-06-18</t>
   </si>
   <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
     <t>2021-07-14</t>
   </si>
   <si>
@@ -1481,9 +1484,6 @@
   </si>
   <si>
     <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>2021-07-12</t>
   </si>
   <si>
     <t>2021-07-13</t>
@@ -2417,7 +2417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1053"/>
+  <dimension ref="A1:P1054"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2481,7 +2481,7 @@
         <v>3.884543405261527</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2">
         <v>3.78675384935409</v>
@@ -2531,7 +2531,7 @@
         <v>3.770269359268803</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E3">
         <v>3.818058915176241</v>
@@ -2581,7 +2581,7 @@
         <v>3.726283698323597</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E4">
         <v>3.640587862046794</v>
@@ -2631,7 +2631,7 @@
         <v>3.720717008109171</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E5">
         <v>3.640587862046794</v>
@@ -2681,7 +2681,7 @@
         <v>3.717044107631589</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E6">
         <v>3.640587862046794</v>
@@ -2731,7 +2731,7 @@
         <v>3.596154552261219</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E7">
         <v>3.664762879707613</v>
@@ -2781,7 +2781,7 @@
         <v>3.616153124804634</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E8">
         <v>3.5297140892325</v>
@@ -2831,7 +2831,7 @@
         <v>3.607522453997958</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E9">
         <v>3.5297140892325</v>
@@ -2881,7 +2881,7 @@
         <v>3.478069477150061</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E10">
         <v>3.548480630170671</v>
@@ -2931,7 +2931,7 @@
         <v>3.6211534433677</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E11">
         <v>3.535016151157131</v>
@@ -2981,7 +2981,7 @@
         <v>3.63792232694662</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E12">
         <v>3.535016151157131</v>
@@ -3031,7 +3031,7 @@
         <v>3.483716388630765</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E13">
         <v>3.640485272209684</v>
@@ -3081,7 +3081,7 @@
         <v>3.724444444444444</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E14">
         <v>3.623333333333333</v>
@@ -3131,7 +3131,7 @@
         <v>3.577777777777778</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E15">
         <v>3.737777777777777</v>
@@ -3181,7 +3181,7 @@
         <v>3.725076246034183</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E16">
         <v>3.890136117081158</v>
@@ -3231,7 +3231,7 @@
         <v>3.801006899525658</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E17">
         <v>3.968675075463562</v>
@@ -3281,7 +3281,7 @@
         <v>3.913131402331332</v>
       </c>
       <c r="D18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E18">
         <v>4.084651183327447</v>
@@ -3331,7 +3331,7 @@
         <v>4.104651183327447</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E19">
         <v>4.236900388555282</v>
@@ -3381,7 +3381,7 @@
         <v>3.999289428173886</v>
       </c>
       <c r="D20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E20">
         <v>4.17376883601192</v>
@@ -3431,7 +3431,7 @@
         <v>4.248676029044779</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E21">
         <v>4.311129625561207</v>
@@ -3481,7 +3481,7 @@
         <v>4.051994680851064</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E22">
         <v>4.228284574468085</v>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3531,7 +3531,7 @@
         <v>4.301582446808511</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E23">
         <v>4.306529255319149</v>
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3581,7 +3581,7 @@
         <v>4.074350620567376</v>
       </c>
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E24">
         <v>4.251408466312056</v>
@@ -3631,7 +3631,7 @@
         <v>4.324023714539007</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E25">
         <v>4.316965868794326</v>
@@ -3681,7 +3681,7 @@
         <v>4.364946030833204</v>
       </c>
       <c r="D26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E26">
         <v>4.216145185906084</v>
@@ -3731,7 +3731,7 @@
         <v>4.356374026472485</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E27">
         <v>4.207801333752685</v>
@@ -3781,7 +3781,7 @@
         <v>4.370893981759741</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E28">
         <v>4.221934826351687</v>
@@ -3831,7 +3831,7 @@
         <v>4.168236676602161</v>
       </c>
       <c r="D29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E29">
         <v>4.307881117011886</v>
@@ -3881,7 +3881,7 @@
         <v>4.378829275919285</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E30">
         <v>4.229658914963259</v>
@@ -3931,7 +3931,7 @@
         <v>4.145711993582029</v>
       </c>
       <c r="D31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E31">
         <v>4.285104292017649</v>
@@ -3981,7 +3981,7 @@
         <v>4.356724829522663</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E32">
         <v>4.20814279983955</v>
@@ -4031,7 +4031,7 @@
         <v>4.122379129462614</v>
       </c>
       <c r="D33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E33">
         <v>4.261510239120778</v>
@@ -4081,7 +4081,7 @@
         <v>4.333827280032342</v>
       </c>
       <c r="D34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E34">
         <v>4.185854690829959</v>
@@ -4131,7 +4131,7 @@
         <v>4.116144320943905</v>
       </c>
       <c r="D35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E35">
         <v>4.115565060716015</v>
@@ -4181,7 +4181,7 @@
         <v>4.050892067199531</v>
       </c>
       <c r="D36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E36">
         <v>4.189222948548778</v>
@@ -4231,7 +4231,7 @@
         <v>4.26367393161745</v>
       </c>
       <c r="D37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E37">
         <v>4.117568541802536</v>
@@ -4281,7 +4281,7 @@
         <v>4.04812491468612</v>
       </c>
       <c r="D38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E38">
         <v>4.103117558733866</v>
@@ -4331,7 +4331,7 @@
         <v>3.978921561402215</v>
       </c>
       <c r="D39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E39">
         <v>4.116446802761195</v>
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -4381,7 +4381,7 @@
         <v>4.193046159137248</v>
       </c>
       <c r="D40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E40">
         <v>4.048820595966294</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -4431,7 +4431,7 @@
         <v>3.979645515513302</v>
       </c>
       <c r="D41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E41">
         <v>4.151598250915074</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -4531,7 +4531,7 @@
         <v>4.207807428966269</v>
       </c>
       <c r="D43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E43">
         <v>4.249228522372746</v>
@@ -4581,7 +4581,7 @@
         <v>4.250223789364667</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E44">
         <v>4.23959011098714</v>
@@ -4631,7 +4631,7 @@
         <v>4.358523641488584</v>
       </c>
       <c r="D45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E45">
         <v>4.23959011098714</v>
@@ -4731,7 +4731,7 @@
         <v>3.360089577732704</v>
       </c>
       <c r="D47" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E47">
         <v>3.139912266229293</v>
@@ -4781,7 +4781,7 @@
         <v>3.06079882374635</v>
       </c>
       <c r="D48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E48">
         <v>3.141153446753172</v>
@@ -4831,7 +4831,7 @@
         <v>3.334468923585049</v>
       </c>
       <c r="D49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E49">
         <v>3.11447267677526</v>
@@ -4881,7 +4881,7 @@
         <v>3.034453910824202</v>
       </c>
       <c r="D50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E50">
         <v>3.034423885302509</v>
@@ -4931,7 +4931,7 @@
         <v>2.968635897856295</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E51">
         <v>2.807652170348814</v>
@@ -4981,7 +4981,7 @@
         <v>2.948893716440547</v>
       </c>
       <c r="D52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E52">
         <v>2.807652170348814</v>
@@ -5031,7 +5031,7 @@
         <v>2.669829897118499</v>
       </c>
       <c r="D53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E53">
         <v>2.657652170348815</v>
@@ -5081,7 +5081,7 @@
         <v>3.11290583468651</v>
       </c>
       <c r="D54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E54">
         <v>2.954936702873989</v>
@@ -5131,7 +5131,7 @@
         <v>3.087995774936545</v>
       </c>
       <c r="D55" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E55">
         <v>2.954936702873989</v>
@@ -5181,7 +5181,7 @@
         <v>3.189318004623606</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E56">
         <v>2.869925402935528</v>
@@ -5231,7 +5231,7 @@
         <v>2.662759928391166</v>
       </c>
       <c r="D57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E57">
         <v>2.565391987742828</v>
@@ -5281,7 +5281,7 @@
         <v>4.932437513584003</v>
       </c>
       <c r="D58" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E58">
         <v>5.110138013475331</v>
@@ -5381,7 +5381,7 @@
         <v>5.159737688076782</v>
       </c>
       <c r="D60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E60">
         <v>5.359455868688208</v>
@@ -5431,7 +5431,7 @@
         <v>5.513022445128038</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E61">
         <v>5.711729931262155</v>
@@ -5481,7 +5481,7 @@
         <v>2.881029964976003</v>
       </c>
       <c r="D62" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E62">
         <v>3.029527824620574</v>
@@ -5531,7 +5531,7 @@
         <v>2.809093267609288</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E63">
         <v>3.029527824620574</v>
@@ -5581,7 +5581,7 @@
         <v>3.278480347645609</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E64">
         <v>3.046978207290181</v>
@@ -5631,7 +5631,7 @@
         <v>2.839558394704231</v>
       </c>
       <c r="D65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E65">
         <v>3.057078896080348</v>
@@ -5681,7 +5681,7 @@
         <v>3.305435362270917</v>
       </c>
       <c r="D66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E66">
         <v>2.930671953805517</v>
@@ -5731,7 +5731,7 @@
         <v>2.88317873369117</v>
       </c>
       <c r="D67" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E67">
         <v>3.096526854816362</v>
@@ -5781,7 +5781,7 @@
         <v>3.34402987959197</v>
       </c>
       <c r="D68" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E68">
         <v>2.967369934648875</v>
@@ -5831,7 +5831,7 @@
         <v>3.390547506768122</v>
       </c>
       <c r="D69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E69">
         <v>3.011601683339713</v>
@@ -5881,7 +5881,7 @@
         <v>3.007548974511134</v>
       </c>
       <c r="D70" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E70">
         <v>3.009707100996873</v>
@@ -5931,7 +5931,7 @@
         <v>2.169622958782912</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E71">
         <v>2.09903813171421</v>
@@ -5981,7 +5981,7 @@
         <v>2.081155097127951</v>
       </c>
       <c r="D72" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E72">
         <v>2.155389027955432</v>
@@ -6031,7 +6031,7 @@
         <v>1.912370798132592</v>
       </c>
       <c r="D73" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E73">
         <v>1.822925841983955</v>
@@ -6081,7 +6081,7 @@
         <v>1.808814833213683</v>
       </c>
       <c r="D74" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E74">
         <v>1.890592815673137</v>
@@ -6267,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -6317,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -6431,7 +6431,7 @@
         <v>1.500907943631776</v>
       </c>
       <c r="D81" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E81">
         <v>1.526734286937149</v>
@@ -6581,7 +6581,7 @@
         <v>1.413520482809071</v>
       </c>
       <c r="D84" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E84">
         <v>1.42980797366496</v>
@@ -6781,7 +6781,7 @@
         <v>1.439743103271459</v>
       </c>
       <c r="D88" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E88">
         <v>1.538563224284689</v>
@@ -6981,7 +6981,7 @@
         <v>2.785288432798644</v>
       </c>
       <c r="D92" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E92">
         <v>2.826745043339642</v>
@@ -7181,7 +7181,7 @@
         <v>2.893486390532543</v>
       </c>
       <c r="D96" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E96">
         <v>2.93881785906401</v>
@@ -7331,7 +7331,7 @@
         <v>3.148387843312465</v>
       </c>
       <c r="D99" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E99">
         <v>3.073002424710967</v>
@@ -7381,7 +7381,7 @@
         <v>3.167609174744852</v>
       </c>
       <c r="D100" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E100">
         <v>3.162994593346351</v>
@@ -7481,7 +7481,7 @@
         <v>3.066916881646007</v>
       </c>
       <c r="D102" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E102">
         <v>3.118033096331717</v>
@@ -7567,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -7617,7 +7617,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -7667,7 +7667,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -7681,7 +7681,7 @@
         <v>3.045908890706599</v>
       </c>
       <c r="D106" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E106">
         <v>3.042930954927745</v>
@@ -7717,7 +7717,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7881,7 +7881,7 @@
         <v>3.052131147540983</v>
       </c>
       <c r="D110" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E110">
         <v>3.050282867245258</v>
@@ -8031,7 +8031,7 @@
         <v>3.004346995870153</v>
       </c>
       <c r="D113" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E113">
         <v>3.021879005876517</v>
@@ -8117,7 +8117,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -8131,7 +8131,7 @@
         <v>3.011297257899711</v>
       </c>
       <c r="D115" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E115">
         <v>2.901391067511534</v>
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -8181,7 +8181,7 @@
         <v>2.999450568611793</v>
       </c>
       <c r="D116" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E116">
         <v>2.901391067511534</v>
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -8231,7 +8231,7 @@
         <v>2.602221307961445</v>
       </c>
       <c r="D117" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E117">
         <v>2.781759967363196</v>
@@ -8381,7 +8381,7 @@
         <v>2.837775285050675</v>
       </c>
       <c r="D120" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E120">
         <v>2.731024598817567</v>
@@ -8431,7 +8431,7 @@
         <v>2.820246516047297</v>
       </c>
       <c r="D121" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E121">
         <v>2.731024598817567</v>
@@ -8481,7 +8481,7 @@
         <v>2.87140299962853</v>
       </c>
       <c r="D122" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E122">
         <v>2.702940425334325</v>
@@ -8531,7 +8531,7 @@
         <v>2.854975390044578</v>
       </c>
       <c r="D123" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E123">
         <v>2.702940425334325</v>
@@ -8581,7 +8581,7 @@
         <v>3.064599665445997</v>
       </c>
       <c r="D124" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E124">
         <v>2.889324110493241</v>
@@ -8631,7 +8631,7 @@
         <v>3.054498395044984</v>
       </c>
       <c r="D125" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E125">
         <v>2.889324110493241</v>
@@ -8681,7 +8681,7 @@
         <v>3.006759347167593</v>
       </c>
       <c r="D126" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E126">
         <v>2.889324110493241</v>
@@ -8731,7 +8731,7 @@
         <v>2.81570901756664</v>
       </c>
       <c r="D127" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E127">
         <v>2.872718834603418</v>
@@ -8767,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8781,7 +8781,7 @@
         <v>2.987536123963711</v>
       </c>
       <c r="D128" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E128">
         <v>2.814978175007812</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8831,7 +8831,7 @@
         <v>2.974911362279903</v>
       </c>
       <c r="D129" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E129">
         <v>2.814978175007812</v>
@@ -8867,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8881,7 +8881,7 @@
         <v>2.926007626118145</v>
       </c>
       <c r="D130" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E130">
         <v>2.814978175007812</v>
@@ -8917,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8931,7 +8931,7 @@
         <v>2.824290814229628</v>
       </c>
       <c r="D131" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E131">
         <v>2.886339672478456</v>
@@ -8981,7 +8981,7 @@
         <v>2.996339672478456</v>
       </c>
       <c r="D132" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E132">
         <v>2.823471270930097</v>
@@ -9031,7 +9031,7 @@
         <v>2.984003188201932</v>
       </c>
       <c r="D133" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E133">
         <v>2.823471270930097</v>
@@ -9081,7 +9081,7 @@
         <v>2.935232503151227</v>
       </c>
       <c r="D134" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E134">
         <v>2.823471270930097</v>
@@ -9131,7 +9131,7 @@
         <v>2.735724901017758</v>
       </c>
       <c r="D135" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E135">
         <v>2.79548523437739</v>
@@ -9167,7 +9167,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -9181,7 +9181,7 @@
         <v>2.90548523437739</v>
       </c>
       <c r="D136" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E136">
         <v>2.789981934432617</v>
@@ -9217,7 +9217,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -9231,7 +9231,7 @@
         <v>2.890173667744912</v>
       </c>
       <c r="D137" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E137">
         <v>2.789981934432617</v>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -9331,7 +9331,7 @@
         <v>2.755443385061204</v>
       </c>
       <c r="D139" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E139">
         <v>2.652622768184349</v>
@@ -9367,7 +9367,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -9381,7 +9381,7 @@
         <v>1.676414379078604</v>
       </c>
       <c r="D140" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E140">
         <v>1.856149698529876</v>
@@ -9417,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -9431,7 +9431,7 @@
         <v>1.848491854548167</v>
       </c>
       <c r="D141" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E141">
         <v>1.792544790657912</v>
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -9481,7 +9481,7 @@
         <v>1.557098210760008</v>
       </c>
       <c r="D142" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E142">
         <v>1.746082845584814</v>
@@ -9531,7 +9531,7 @@
         <v>1.749981309067294</v>
       </c>
       <c r="D143" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E143">
         <v>1.680319764125692</v>
@@ -9581,7 +9581,7 @@
         <v>1.756082845584813</v>
       </c>
       <c r="D144" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E144">
         <v>1.714218227608173</v>
@@ -9631,7 +9631,7 @@
         <v>3.056114387498504</v>
       </c>
       <c r="D145" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E145">
         <v>2.961333822296731</v>
@@ -9781,7 +9781,7 @@
         <v>3.027597144054604</v>
       </c>
       <c r="D148" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E148">
         <v>2.970426296251946</v>
@@ -9831,7 +9831,7 @@
         <v>2.985335724177111</v>
       </c>
       <c r="D149" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E149">
         <v>2.888515428043887</v>
@@ -9867,7 +9867,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9917,7 +9917,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9931,7 +9931,7 @@
         <v>2.952331072684017</v>
       </c>
       <c r="D151" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E151">
         <v>2.892100628484181</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9981,7 +9981,7 @@
         <v>2.849326421190923</v>
       </c>
       <c r="D152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E152">
         <v>2.868054539644213</v>
@@ -10017,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -10031,7 +10031,7 @@
         <v>2.853696304047078</v>
       </c>
       <c r="D153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E153">
         <v>2.789456316406717</v>
@@ -10131,7 +10131,7 @@
         <v>2.797710331115444</v>
       </c>
       <c r="D155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E155">
         <v>2.699981818758038</v>
@@ -10181,7 +10181,7 @@
         <v>2.777103995036021</v>
       </c>
       <c r="D156" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E156">
         <v>2.699981818758038</v>
@@ -10231,7 +10231,7 @@
         <v>2.67139660294336</v>
       </c>
       <c r="D157" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E157">
         <v>2.73750821908897</v>
@@ -10281,7 +10281,7 @@
         <v>2.788331146152862</v>
       </c>
       <c r="D158" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E158">
         <v>2.721715052289565</v>
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -10331,7 +10331,7 @@
         <v>2.797684708607543</v>
       </c>
       <c r="D159" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E159">
         <v>2.721715052289565</v>
@@ -10367,7 +10367,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -10381,7 +10381,7 @@
         <v>2.692361489834884</v>
       </c>
       <c r="D160" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E160">
         <v>2.757869405049062</v>
@@ -10417,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -10431,7 +10431,7 @@
         <v>2.756127820449931</v>
       </c>
       <c r="D161" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E161">
         <v>2.686389520493553</v>
@@ -10481,7 +10481,7 @@
         <v>2.76423250046738</v>
       </c>
       <c r="D162" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E162">
         <v>2.686389520493553</v>
@@ -10531,7 +10531,7 @@
         <v>2.658284840476104</v>
       </c>
       <c r="D163" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E163">
         <v>2.724774020462394</v>
@@ -10581,7 +10581,7 @@
         <v>2.723982406381016</v>
       </c>
       <c r="D164" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E164">
         <v>2.651127515032915</v>
@@ -10631,7 +10631,7 @@
         <v>2.730840449841776</v>
       </c>
       <c r="D165" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E165">
         <v>2.651127515032915</v>
@@ -10681,7 +10681,7 @@
         <v>2.624269471572156</v>
       </c>
       <c r="D166" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E166">
         <v>2.69173815171013</v>
@@ -10731,7 +10731,7 @@
         <v>2.720274615489797</v>
       </c>
       <c r="D167" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E167">
         <v>2.616880075159782</v>
@@ -10781,7 +10781,7 @@
         <v>2.698409162083127</v>
       </c>
       <c r="D168" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E168">
         <v>2.616880075159782</v>
@@ -10831,7 +10831,7 @@
         <v>2.591232799775345</v>
       </c>
       <c r="D169" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E169">
         <v>2.659652797687573</v>
@@ -10881,7 +10881,7 @@
         <v>2.702476435379792</v>
       </c>
       <c r="D170" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E170">
         <v>2.663098253182016</v>
@@ -10931,7 +10931,7 @@
         <v>2.688105605696522</v>
       </c>
       <c r="D171" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E171">
         <v>2.607334789987493</v>
@@ -10981,7 +10981,7 @@
         <v>2.684060250468397</v>
       </c>
       <c r="D172" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E172">
         <v>2.607334789987493</v>
@@ -11031,7 +11031,7 @@
         <v>2.689370066276036</v>
       </c>
       <c r="D173" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E173">
         <v>2.607334789987493</v>
@@ -11081,7 +11081,7 @@
         <v>2.582024974179855</v>
       </c>
       <c r="D174" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E174">
         <v>2.650710118902424</v>
@@ -11131,7 +11131,7 @@
         <v>2.693365026806243</v>
       </c>
       <c r="D175" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E175">
         <v>2.615375105745827</v>
@@ -11181,7 +11181,7 @@
         <v>2.654111708020125</v>
       </c>
       <c r="D176" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E176">
         <v>2.567030647832243</v>
@@ -11231,7 +11231,7 @@
         <v>2.647318343099596</v>
       </c>
       <c r="D177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E177">
         <v>2.567030647832243</v>
@@ -11281,7 +11281,7 @@
         <v>2.651203264992655</v>
       </c>
       <c r="D178" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E178">
         <v>2.567030647832243</v>
@@ -11331,7 +11331,7 @@
         <v>2.543145725939185</v>
       </c>
       <c r="D179" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E179">
         <v>2.612950430166066</v>
@@ -11381,7 +11381,7 @@
         <v>2.654892891112596</v>
       </c>
       <c r="D180" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E180">
         <v>2.577513638872713</v>
@@ -11431,7 +11431,7 @@
         <v>2.613215980031323</v>
       </c>
       <c r="D181" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E181">
         <v>2.529621961474803</v>
@@ -11481,7 +11481,7 @@
         <v>2.615778372608715</v>
       </c>
       <c r="D182" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E182">
         <v>2.529621961474803</v>
@@ -11531,7 +11531,7 @@
         <v>2.507059568897411</v>
       </c>
       <c r="D183" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E183">
         <v>2.577903403300888</v>
@@ -11581,7 +11581,7 @@
         <v>2.619184599589585</v>
       </c>
       <c r="D184" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E184">
         <v>2.542372145627845</v>
@@ -11631,7 +11631,7 @@
         <v>2.623320491563446</v>
       </c>
       <c r="D185" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E185">
         <v>2.540706134789818</v>
@@ -11681,7 +11681,7 @@
         <v>2.626274748853995</v>
       </c>
       <c r="D186" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E186">
         <v>2.540706134789818</v>
@@ -11731,7 +11731,7 @@
         <v>2.493791085535941</v>
       </c>
       <c r="D187" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E187">
         <v>2.588287818199552</v>
@@ -11781,7 +11781,7 @@
         <v>2.629764946844826</v>
       </c>
       <c r="D188" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E188">
         <v>2.552784550863162</v>
@@ -11831,7 +11831,7 @@
         <v>2.663805817656947</v>
       </c>
       <c r="D189" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E189">
         <v>2.580338943445735</v>
@@ -11881,7 +11881,7 @@
         <v>2.517596264198201</v>
       </c>
       <c r="D190" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E190">
         <v>2.625418555601938</v>
@@ -11931,7 +11931,7 @@
         <v>2.667596264198202</v>
       </c>
       <c r="D191" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E191">
         <v>2.551386710739457</v>
@@ -11981,7 +11981,7 @@
         <v>2.473805817656946</v>
       </c>
       <c r="D192" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E192">
         <v>2.411386710739457</v>
@@ -12081,7 +12081,7 @@
         <v>2.671028205213792</v>
       </c>
       <c r="D194" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E194">
         <v>2.554845889382155</v>
@@ -12131,7 +12131,7 @@
         <v>2.477210521045428</v>
       </c>
       <c r="D195" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E195">
         <v>2.464057678827731</v>
@@ -12217,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -12231,7 +12231,7 @@
         <v>2.752469410456063</v>
       </c>
       <c r="D197" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E197">
         <v>2.636933453396191</v>
@@ -12267,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -12281,7 +12281,7 @@
         <v>2.558005367515936</v>
       </c>
       <c r="D198" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E198">
         <v>2.608005367515935</v>
@@ -12317,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -12331,7 +12331,7 @@
         <v>2.760118302964375</v>
       </c>
       <c r="D199" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E199">
         <v>2.6446430514006</v>
@@ -12381,7 +12381,7 @@
         <v>2.565593554528149</v>
       </c>
       <c r="D200" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E200">
         <v>2.635910388903999</v>
@@ -12431,7 +12431,7 @@
         <v>2.829270661186353</v>
       </c>
       <c r="D201" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E201">
         <v>2.714344237862436</v>
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -12481,7 +12481,7 @@
         <v>2.634197084510271</v>
       </c>
       <c r="D202" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E202">
         <v>2.724049931158106</v>
@@ -12517,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -12531,7 +12531,7 @@
         <v>2.904384470979854</v>
       </c>
       <c r="D203" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E203">
         <v>2.790054189003504</v>
@@ -12631,7 +12631,7 @@
         <v>2.929433294817497</v>
       </c>
       <c r="D205" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E205">
         <v>2.815301813030334</v>
@@ -12667,7 +12667,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -12717,7 +12717,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -12731,7 +12731,7 @@
         <v>2.964160465630297</v>
       </c>
       <c r="D207" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E207">
         <v>2.850304596309902</v>
@@ -12831,7 +12831,7 @@
         <v>2.945007420193452</v>
       </c>
       <c r="D209" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E209">
         <v>2.875007420193452</v>
@@ -12881,7 +12881,7 @@
         <v>3.004080065248422</v>
       </c>
       <c r="D210" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E210">
         <v>2.890541018147219</v>
@@ -12981,7 +12981,7 @@
         <v>2.982392442058046</v>
       </c>
       <c r="D212" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E212">
         <v>2.919470536260452</v>
@@ -13031,7 +13031,7 @@
         <v>3.029043042833921</v>
       </c>
       <c r="D213" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E213">
         <v>2.915702114602444</v>
@@ -13131,7 +13131,7 @@
         <v>3.005770468685736</v>
       </c>
       <c r="D215" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E215">
         <v>2.951346277303007</v>
@@ -13181,7 +13181,7 @@
         <v>3.115406554762734</v>
       </c>
       <c r="D216" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E216">
         <v>3.002751051229105</v>
@@ -13281,7 +13281,7 @@
         <v>3.086650583031767</v>
       </c>
       <c r="D218" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E218">
         <v>3.016650583031767</v>
@@ -13331,7 +13331,7 @@
         <v>3.171907995720733</v>
       </c>
       <c r="D219" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E219">
         <v>3.059700916321691</v>
@@ -13431,7 +13431,7 @@
         <v>3.139564630913067</v>
       </c>
       <c r="D221" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E221">
         <v>3.069564630913067</v>
@@ -13531,7 +13531,7 @@
         <v>3.192857523606458</v>
       </c>
       <c r="D223" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E223">
         <v>3.122857523606458</v>
@@ -13581,7 +13581,7 @@
         <v>3.220411970758454</v>
       </c>
       <c r="D224" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E224">
         <v>3.129879302467256</v>
@@ -13667,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -13681,7 +13681,7 @@
         <v>3.22201015370712</v>
       </c>
       <c r="D226" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E226">
         <v>3.109552096346648</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -13731,7 +13731,7 @@
         <v>3.247094038986177</v>
       </c>
       <c r="D227" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E227">
         <v>3.109552096346648</v>
@@ -13767,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13781,7 +13781,7 @@
         <v>3.179698840379459</v>
       </c>
       <c r="D228" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E228">
         <v>3.087246996946805</v>
@@ -13817,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -13831,7 +13831,7 @@
         <v>3.225775890887212</v>
       </c>
       <c r="D229" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E229">
         <v>3.087246996946805</v>
@@ -13867,7 +13867,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13881,7 +13881,7 @@
         <v>3.194058355437667</v>
       </c>
       <c r="D230" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E230">
         <v>3.100620281575191</v>
@@ -13931,7 +13931,7 @@
         <v>3.238557437257704</v>
       </c>
       <c r="D231" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E231">
         <v>3.100620281575191</v>
@@ -13981,7 +13981,7 @@
         <v>3.206607745922255</v>
       </c>
       <c r="D232" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E232">
         <v>3.112307763372649</v>
@@ -14017,7 +14017,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -14031,7 +14031,7 @@
         <v>3.249727773842886</v>
       </c>
       <c r="D233" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E233">
         <v>3.112307763372649</v>
@@ -14067,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -14081,7 +14081,7 @@
         <v>2.81509812627653</v>
       </c>
       <c r="D234" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E234">
         <v>2.765377852766185</v>
@@ -14131,7 +14131,7 @@
         <v>2.665155707957519</v>
       </c>
       <c r="D235" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E235">
         <v>2.587022735763465</v>
@@ -14181,7 +14181,7 @@
         <v>2.679333004216259</v>
       </c>
       <c r="D236" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E236">
         <v>2.625851924000642</v>
@@ -14231,7 +14231,7 @@
         <v>2.488635552660644</v>
       </c>
       <c r="D237" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E237">
         <v>2.566921922347144</v>
@@ -14281,7 +14281,7 @@
         <v>2.591330038798109</v>
       </c>
       <c r="D238" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E238">
         <v>2.521859902013537</v>
@@ -14331,7 +14331,7 @@
         <v>2.577575826229787</v>
       </c>
       <c r="D239" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E239">
         <v>2.487902778171108</v>
@@ -14381,7 +14381,7 @@
         <v>2.382189969131431</v>
       </c>
       <c r="D240" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E240">
         <v>2.42734940953244</v>
@@ -14417,7 +14417,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -14431,7 +14431,7 @@
         <v>2.488584435445045</v>
       </c>
       <c r="D241" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E241">
         <v>2.414560476905213</v>
@@ -14467,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -14481,7 +14481,7 @@
         <v>2.468066466540171</v>
       </c>
       <c r="D242" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E242">
         <v>2.414560476905213</v>
@@ -14517,7 +14517,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -14531,7 +14531,7 @@
         <v>2.480237886211095</v>
       </c>
       <c r="D243" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E243">
         <v>2.39312636288975</v>
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -14581,7 +14581,7 @@
         <v>2.336731896576137</v>
       </c>
       <c r="D244" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E244">
         <v>2.388484891393616</v>
@@ -14617,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -14631,7 +14631,7 @@
         <v>2.395396863176382</v>
       </c>
       <c r="D245" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E245">
         <v>2.451547975673612</v>
@@ -14681,7 +14681,7 @@
         <v>2.513472419424997</v>
       </c>
       <c r="D246" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E246">
         <v>2.440551529427213</v>
@@ -14731,7 +14731,7 @@
         <v>2.493781751926659</v>
       </c>
       <c r="D247" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E247">
         <v>2.440551529427213</v>
@@ -14781,7 +14781,7 @@
         <v>2.503815976297366</v>
       </c>
       <c r="D248" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E248">
         <v>2.416083976921119</v>
@@ -14881,7 +14881,7 @@
         <v>2.459500183194918</v>
       </c>
       <c r="D250" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E250">
         <v>2.551482657547629</v>
@@ -14931,7 +14931,7 @@
         <v>2.575847887151929</v>
       </c>
       <c r="D251" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E251">
         <v>2.505691560820712</v>
@@ -14981,7 +14981,7 @@
         <v>2.558230642403516</v>
       </c>
       <c r="D252" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E252">
         <v>2.505691560820712</v>
@@ -15031,7 +15031,7 @@
         <v>2.562908524670248</v>
       </c>
       <c r="D253" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E253">
         <v>2.473621458231557</v>
@@ -15081,7 +15081,7 @@
         <v>2.420369443087444</v>
       </c>
       <c r="D254" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E254">
         <v>2.48123870297997</v>
@@ -15131,7 +15131,7 @@
         <v>2.444334391792866</v>
       </c>
       <c r="D255" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E255">
         <v>2.48123870297997</v>
@@ -15181,7 +15181,7 @@
         <v>2.644473444785625</v>
       </c>
       <c r="D256" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E256">
         <v>2.577358694416013</v>
@@ -15231,7 +15231,7 @@
         <v>2.629137382008416</v>
       </c>
       <c r="D257" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E257">
         <v>2.577358694416013</v>
@@ -15281,7 +15281,7 @@
         <v>2.627922210849539</v>
       </c>
       <c r="D258" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E258">
         <v>2.536924257932446</v>
@@ -15331,7 +15331,7 @@
         <v>2.683590673274826</v>
       </c>
       <c r="D259" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E259">
         <v>2.618209650483682</v>
@@ -15367,7 +15367,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -15381,7 +15381,7 @@
         <v>2.669554906181468</v>
       </c>
       <c r="D260" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E260">
         <v>2.618209650483682</v>
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -15431,7 +15431,7 @@
         <v>2.523635382141522</v>
       </c>
       <c r="D261" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E261">
         <v>2.533096880892721</v>
@@ -15467,7 +15467,7 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -15481,7 +15481,7 @@
         <v>2.541034288479344</v>
       </c>
       <c r="D262" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E262">
         <v>2.533096880892721</v>
@@ -15517,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -15531,7 +15531,7 @@
         <v>2.688107897843115</v>
       </c>
       <c r="D263" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E263">
         <v>2.577174321279105</v>
@@ -15567,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -15581,7 +15581,7 @@
         <v>2.674222287799119</v>
       </c>
       <c r="D264" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E264">
         <v>2.577174321279105</v>
@@ -15617,7 +15617,7 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -15631,7 +15631,7 @@
         <v>2.689546088636118</v>
       </c>
       <c r="D265" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E265">
         <v>2.577174321279105</v>
@@ -15667,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -15717,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -15767,7 +15767,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15781,7 +15781,7 @@
         <v>2.6750945898669</v>
       </c>
       <c r="D268" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E268">
         <v>2.565170355749799</v>
@@ -15831,7 +15831,7 @@
         <v>2.660776404488514</v>
       </c>
       <c r="D269" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E269">
         <v>2.565170355749799</v>
@@ -15881,7 +15881,7 @@
         <v>2.676136253270046</v>
       </c>
       <c r="D270" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E270">
         <v>2.565170355749799</v>
@@ -15931,7 +15931,7 @@
         <v>2.65693171671601</v>
       </c>
       <c r="D271" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E271">
         <v>2.565170355749799</v>
@@ -16081,7 +16081,7 @@
         <v>2.651758894307871</v>
       </c>
       <c r="D274" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E274">
         <v>2.5571198707896</v>
@@ -16131,7 +16131,7 @@
         <v>2.667142918719914</v>
       </c>
       <c r="D275" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E275">
         <v>2.5571198707896</v>
@@ -16181,7 +16181,7 @@
         <v>2.648663651081211</v>
       </c>
       <c r="D276" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E276">
         <v>2.5571198707896</v>
@@ -16331,7 +16331,7 @@
         <v>2.61748405412426</v>
       </c>
       <c r="D279" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E279">
         <v>2.52652061668466</v>
@@ -16367,7 +16367,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -16381,7 +16381,7 @@
         <v>2.63295996818827</v>
       </c>
       <c r="D280" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E280">
         <v>2.52652061668466</v>
@@ -16417,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -16431,7 +16431,7 @@
         <v>2.617237390108571</v>
       </c>
       <c r="D281" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E281">
         <v>2.52652061668466</v>
@@ -16467,7 +16467,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -16517,7 +16517,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -16567,7 +16567,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -16581,7 +16581,7 @@
         <v>2.482231585452781</v>
       </c>
       <c r="D284" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E284">
         <v>2.511279757324761</v>
@@ -16617,7 +16617,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -16631,7 +16631,7 @@
         <v>2.598511796392573</v>
       </c>
       <c r="D285" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E285">
         <v>2.495683946770771</v>
@@ -16681,7 +16681,7 @@
         <v>2.585567296683496</v>
       </c>
       <c r="D286" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E286">
         <v>2.495683946770771</v>
@@ -16831,7 +16831,7 @@
         <v>2.575914921046296</v>
       </c>
       <c r="D289" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E289">
         <v>2.475456098678539</v>
@@ -16881,7 +16881,7 @@
         <v>2.53538792323967</v>
       </c>
       <c r="D290" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E290">
         <v>2.475456098678539</v>
@@ -16981,7 +16981,7 @@
         <v>2.433007230257691</v>
       </c>
       <c r="D292" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E292">
         <v>2.461085359643469</v>
@@ -17031,7 +17031,7 @@
         <v>2.433602403503186</v>
       </c>
       <c r="D293" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E293">
         <v>2.461085359643469</v>
@@ -17081,7 +17081,7 @@
         <v>2.562903442795941</v>
       </c>
       <c r="D294" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E294">
         <v>2.463808727018947</v>
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -17131,7 +17131,7 @@
         <v>2.523180918106945</v>
       </c>
       <c r="D295" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E295">
         <v>2.463808727018947</v>
@@ -17167,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -17181,7 +17181,7 @@
         <v>2.410173632277946</v>
       </c>
       <c r="D296" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E296">
         <v>2.47177958370295</v>
@@ -17217,7 +17217,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -17267,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -17317,7 +17317,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -17331,7 +17331,7 @@
         <v>2.53110105901022</v>
       </c>
       <c r="D299" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E299">
         <v>2.4713657669066</v>
@@ -17381,7 +17381,7 @@
         <v>2.418025691740792</v>
       </c>
       <c r="D300" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E300">
         <v>2.479064297828884</v>
@@ -17431,7 +17431,7 @@
         <v>2.429064297828885</v>
       </c>
       <c r="D301" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E301">
         <v>2.44649812085479</v>
@@ -17481,7 +17481,7 @@
         <v>2.429573488124219</v>
       </c>
       <c r="D302" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E302">
         <v>2.44649812085479</v>
@@ -17531,7 +17531,7 @@
         <v>2.397220582315203</v>
       </c>
       <c r="D303" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E303">
         <v>2.459762447754856</v>
@@ -17581,7 +17581,7 @@
         <v>2.499762447754856</v>
       </c>
       <c r="D304" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E304">
         <v>2.422392590871406</v>
@@ -17631,7 +17631,7 @@
         <v>2.409762447754856</v>
       </c>
       <c r="D305" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E305">
         <v>2.455464122372442</v>
@@ -17681,7 +17681,7 @@
         <v>2.409850725431753</v>
       </c>
       <c r="D306" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E306">
         <v>2.455464122372442</v>
@@ -17731,7 +17731,7 @@
         <v>2.496955120420453</v>
       </c>
       <c r="D307" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E307">
         <v>2.419742683761362</v>
@@ -17781,7 +17781,7 @@
         <v>2.406955120420453</v>
       </c>
       <c r="D308" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E308">
         <v>2.452665540606059</v>
@@ -17831,7 +17831,7 @@
         <v>2.40698217912121</v>
       </c>
       <c r="D309" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E309">
         <v>2.452665540606059</v>
@@ -17881,7 +17881,7 @@
         <v>2.481899700070572</v>
       </c>
       <c r="D310" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E310">
         <v>2.405531492589979</v>
@@ -17931,7 +17931,7 @@
         <v>2.391899700070572</v>
       </c>
       <c r="D311" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E311">
         <v>2.437657021877206</v>
@@ -17981,7 +17981,7 @@
         <v>2.391598447424136</v>
       </c>
       <c r="D312" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E312">
         <v>2.437657021877206</v>
@@ -18031,7 +18031,7 @@
         <v>2.480338250029471</v>
       </c>
       <c r="D313" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E313">
         <v>2.404057600495108</v>
@@ -18081,7 +18081,7 @@
         <v>2.390338250029471</v>
       </c>
       <c r="D314" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E314">
         <v>2.436100436166451</v>
@@ -18131,7 +18131,7 @@
         <v>2.390002947070612</v>
       </c>
       <c r="D315" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E315">
         <v>2.436100436166451</v>
@@ -18181,7 +18181,7 @@
         <v>2.479157214819855</v>
       </c>
       <c r="D316" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E316">
         <v>2.402942791558929</v>
@@ -18217,7 +18217,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -18231,7 +18231,7 @@
         <v>2.389157214819855</v>
       </c>
       <c r="D317" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E317">
         <v>2.434923080194248</v>
@@ -18267,7 +18267,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -18281,7 +18281,7 @@
         <v>2.388796157199104</v>
       </c>
       <c r="D318" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E318">
         <v>2.434923080194248</v>
@@ -18317,7 +18317,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -18331,7 +18331,7 @@
         <v>2.471028111867845</v>
       </c>
       <c r="D319" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E319">
         <v>2.39526952615563</v>
@@ -18381,7 +18381,7 @@
         <v>2.381028111867845</v>
       </c>
       <c r="D320" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E320">
         <v>2.4268193015505</v>
@@ -18431,7 +18431,7 @@
         <v>2.380489784089263</v>
       </c>
       <c r="D321" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E321">
         <v>2.4268193015505</v>
@@ -18481,7 +18481,7 @@
         <v>2.468401680915809</v>
       </c>
       <c r="D322" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E322">
         <v>2.495775249963773</v>
@@ -18531,7 +18531,7 @@
         <v>2.494647032160011</v>
       </c>
       <c r="D323" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E323">
         <v>2.417564021010852</v>
@@ -18567,7 +18567,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -18581,7 +18581,7 @@
         <v>2.404647032160011</v>
       </c>
       <c r="D324" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E324">
         <v>2.481823137077145</v>
@@ -18617,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -18631,7 +18631,7 @@
         <v>2.404623758718018</v>
       </c>
       <c r="D325" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E325">
         <v>2.481823137077145</v>
@@ -18667,7 +18667,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -18681,7 +18681,7 @@
         <v>2.491799863635151</v>
       </c>
       <c r="D326" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E326">
         <v>2.517517474126865</v>
@@ -18717,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -18731,7 +18731,7 @@
         <v>2.404401920213214</v>
       </c>
       <c r="D327" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E327">
         <v>2.48158566101654</v>
@@ -18781,7 +18781,7 @@
         <v>2.404373301650885</v>
       </c>
       <c r="D328" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E328">
         <v>2.48158566101654</v>
@@ -18831,7 +18831,7 @@
         <v>2.53158566101654</v>
       </c>
       <c r="D329" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E329">
         <v>2.50868354613288</v>
@@ -18881,7 +18881,7 @@
         <v>2.386665433216467</v>
       </c>
       <c r="D330" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E330">
         <v>2.464401712555517</v>
@@ -18917,7 +18917,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18931,7 +18931,7 @@
         <v>2.386250037679131</v>
       </c>
       <c r="D331" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E331">
         <v>2.464401712555517</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18981,7 +18981,7 @@
         <v>2.514401712555517</v>
       </c>
       <c r="D332" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E332">
         <v>2.456665433216466</v>
@@ -19017,7 +19017,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -19031,7 +19031,7 @@
         <v>2.379823773855941</v>
       </c>
       <c r="D333" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E333">
         <v>2.457773189000615</v>
@@ -19081,7 +19081,7 @@
         <v>2.379259183254669</v>
       </c>
       <c r="D334" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E334">
         <v>2.457773189000615</v>
@@ -19131,7 +19131,7 @@
         <v>2.507773189000615</v>
       </c>
       <c r="D335" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E335">
         <v>2.447208598399343</v>
@@ -19181,7 +19181,7 @@
         <v>2.380365422859535</v>
       </c>
       <c r="D336" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E336">
         <v>2.458297964203474</v>
@@ -19217,7 +19217,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -19231,7 +19231,7 @@
         <v>2.379812643918777</v>
       </c>
       <c r="D337" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E337">
         <v>2.458297964203474</v>
@@ -19267,7 +19267,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -19317,7 +19317,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -19331,7 +19331,7 @@
         <v>2.340948298102886</v>
       </c>
       <c r="D339" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E339">
         <v>2.42010878725856</v>
@@ -19381,7 +19381,7 @@
         <v>2.339535955693915</v>
       </c>
       <c r="D340" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E340">
         <v>2.42010878725856</v>
@@ -19481,7 +19481,7 @@
         <v>2.307123929096562</v>
       </c>
       <c r="D342" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E342">
         <v>2.387338136912868</v>
@@ -19531,7 +19531,7 @@
         <v>2.304973983625148</v>
       </c>
       <c r="D343" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E343">
         <v>2.387338136912868</v>
@@ -19581,7 +19581,7 @@
         <v>2.320995404406778</v>
       </c>
       <c r="D344" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E344">
         <v>2.387338136912868</v>
@@ -19681,7 +19681,7 @@
         <v>2.267436823104691</v>
       </c>
       <c r="D346" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E346">
         <v>2.351746499955972</v>
@@ -19731,7 +19731,7 @@
         <v>2.283572686448884</v>
       </c>
       <c r="D347" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E347">
         <v>2.351746499955972</v>
@@ -19831,7 +19831,7 @@
         <v>2.214132181495051</v>
       </c>
       <c r="D349" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E349">
         <v>2.301204598917563</v>
@@ -19867,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19917,7 +19917,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19967,7 +19967,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -20031,7 +20031,7 @@
         <v>2.120111782749789</v>
       </c>
       <c r="D353" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E353">
         <v>2.170425124401212</v>
@@ -20067,7 +20067,7 @@
         <v>1</v>
       </c>
       <c r="P353" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -20081,7 +20081,7 @@
         <v>2.220425124401212</v>
       </c>
       <c r="D354" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E354">
         <v>2.153236221648839</v>
@@ -20117,7 +20117,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -20167,7 +20167,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -20181,7 +20181,7 @@
         <v>2.134388925433161</v>
       </c>
       <c r="D356" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E356">
         <v>2.184432037254615</v>
@@ -20217,7 +20217,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -20231,7 +20231,7 @@
         <v>2.234432037254614</v>
       </c>
       <c r="D357" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E357">
         <v>2.167693517552191</v>
@@ -20267,7 +20267,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -20317,7 +20317,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -20331,7 +20331,7 @@
         <v>2.236880504960912</v>
       </c>
       <c r="D359" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E359">
         <v>2.170220714123642</v>
@@ -20531,7 +20531,7 @@
         <v>2.232302849932968</v>
       </c>
       <c r="D363" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E363">
         <v>2.1654958676157</v>
@@ -20567,7 +20567,7 @@
         <v>1</v>
       </c>
       <c r="P363" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="364" spans="1:16">
@@ -20581,7 +20581,7 @@
         <v>2.219194021640597</v>
       </c>
       <c r="D364" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E364">
         <v>1.998688885298432</v>
@@ -20617,7 +20617,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -20681,7 +20681,7 @@
         <v>2.225987165440235</v>
       </c>
       <c r="D366" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E366">
         <v>2.006311022917687</v>
@@ -20731,7 +20731,7 @@
         <v>2.281476452885896</v>
       </c>
       <c r="D367" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E367">
         <v>2.068571884424513</v>
@@ -20767,7 +20767,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -20781,7 +20781,7 @@
         <v>2.305306977623911</v>
       </c>
       <c r="D368" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E368">
         <v>2.095310540994964</v>
@@ -20817,7 +20817,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -20831,7 +20831,7 @@
         <v>2.048088120807684</v>
       </c>
       <c r="D369" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E369">
         <v>2.046977801556806</v>
@@ -20867,7 +20867,7 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -20881,7 +20881,7 @@
         <v>2.328414977841442</v>
       </c>
       <c r="D370" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E370">
         <v>2.121238500561075</v>
@@ -20917,7 +20917,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -20931,7 +20931,7 @@
         <v>2.073859415965541</v>
       </c>
       <c r="D371" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E371">
         <v>2.081238500561075</v>
@@ -20967,7 +20967,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -20981,7 +20981,7 @@
         <v>2.356059187320399</v>
       </c>
       <c r="D372" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E372">
         <v>2.152256240688312</v>
@@ -21017,7 +21017,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -21067,7 +21067,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -21081,7 +21081,7 @@
         <v>2.334523391427035</v>
       </c>
       <c r="D374" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E374">
         <v>2.128092347668977</v>
@@ -21117,7 +21117,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -21167,7 +21167,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -21181,7 +21181,7 @@
         <v>2.315094968121254</v>
       </c>
       <c r="D376" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E376">
         <v>2.106292998129271</v>
@@ -21231,7 +21231,7 @@
         <v>2.059004218684382</v>
       </c>
       <c r="D377" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E377">
         <v>2.020870557019051</v>
@@ -21281,7 +21281,7 @@
         <v>2.280067221579398</v>
       </c>
       <c r="D378" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E378">
         <v>2.06699067912807</v>
@@ -21331,7 +21331,7 @@
         <v>2.007567633923793</v>
       </c>
       <c r="D379" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E379">
         <v>1.97167024031809</v>
@@ -21381,7 +21381,7 @@
         <v>2.194868418967949</v>
       </c>
       <c r="D380" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E380">
         <v>2.022894307397373</v>
@@ -21431,7 +21431,7 @@
         <v>2.191298699241092</v>
       </c>
       <c r="D381" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E381">
         <v>2.022894307397373</v>
@@ -21531,7 +21531,7 @@
         <v>2.188604538463158</v>
       </c>
       <c r="D383" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E383">
         <v>2.019960862602978</v>
@@ -21581,7 +21581,7 @@
         <v>1.92702940308885</v>
       </c>
       <c r="D384" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E384">
         <v>1.916878700406648</v>
@@ -21631,7 +21631,7 @@
         <v>2.203913499222188</v>
       </c>
       <c r="D385" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E385">
         <v>2.036629500797843</v>
@@ -21731,7 +21731,7 @@
         <v>1.922721859171229</v>
       </c>
       <c r="D387" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E387">
         <v>1.978451356222978</v>
@@ -21781,7 +21781,7 @@
         <v>1.938451356222977</v>
       </c>
       <c r="D388" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E388">
         <v>1.978451356222978</v>
@@ -21831,7 +21831,7 @@
         <v>3.154560008918573</v>
       </c>
       <c r="D389" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E389">
         <v>2.976055372714008</v>
@@ -21881,7 +21881,7 @@
         <v>2.870952590991269</v>
       </c>
       <c r="D390" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E390">
         <v>2.926055372714008</v>
@@ -21981,7 +21981,7 @@
         <v>2.620426417411474</v>
       </c>
       <c r="D392" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E392">
         <v>2.674410861704303</v>
@@ -22031,7 +22031,7 @@
         <v>2.650083577812647</v>
       </c>
       <c r="D393" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E393">
         <v>2.674410861704303</v>
@@ -22181,7 +22181,7 @@
         <v>0.6952020895738182</v>
       </c>
       <c r="D396" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E396">
         <v>0.7358355623587536</v>
@@ -22231,7 +22231,7 @@
         <v>0.8454563013037171</v>
       </c>
       <c r="D397" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E397">
         <v>0.7260936745533551</v>
@@ -22281,7 +22281,7 @@
         <v>0.6242877836793808</v>
       </c>
       <c r="D398" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E398">
         <v>0.684022211492032</v>
@@ -22331,7 +22331,7 @@
         <v>0.7253633088836491</v>
       </c>
       <c r="D399" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E399">
         <v>0.6010483937860678</v>
@@ -22381,7 +22381,7 @@
         <v>0.513273986562548</v>
       </c>
       <c r="D400" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E400">
         <v>0.6057910203694705</v>
@@ -22431,7 +22431,7 @@
         <v>0.1649956841661155</v>
       </c>
       <c r="D401" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E401">
         <v>0.2832702408738501</v>
@@ -22481,7 +22481,7 @@
         <v>0.1430414436174043</v>
       </c>
       <c r="D402" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E402">
         <v>0.2832702408738501</v>
@@ -22531,7 +22531,7 @@
         <v>0.4206296085558026</v>
       </c>
       <c r="D403" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E403">
         <v>0.3508584058122479</v>
@@ -22581,7 +22581,7 @@
         <v>-0.01053337928057152</v>
       </c>
       <c r="D404" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E404">
         <v>0.1594666207194284</v>
@@ -22631,7 +22631,7 @@
         <v>-0.03310567991184188</v>
       </c>
       <c r="D405" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E405">
         <v>0.1594666207194284</v>
@@ -22681,7 +22681,7 @@
         <v>0.2500450257695856</v>
       </c>
       <c r="D406" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E406">
         <v>0.2000450257695854</v>
@@ -22731,7 +22731,7 @@
         <v>-0.06737698257170655</v>
       </c>
       <c r="D407" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E407">
         <v>0.1026230174282934</v>
@@ -22781,7 +22781,7 @@
         <v>-0.02905962007975216</v>
       </c>
       <c r="D408" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E408">
         <v>0.1026230174282934</v>
@@ -22831,7 +22831,7 @@
         <v>0.1948026507401726</v>
       </c>
       <c r="D409" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E409">
         <v>0.1120301965761872</v>
@@ -22881,7 +22881,7 @@
         <v>-0.01981894714595223</v>
       </c>
       <c r="D410" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E410">
         <v>0.1119623452332728</v>
@@ -22931,7 +22931,7 @@
         <v>0.2038788988886737</v>
       </c>
       <c r="D411" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E411">
         <v>0.1466184680955984</v>
@@ -22981,7 +22981,7 @@
         <v>0.363099876213433</v>
       </c>
       <c r="D412" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E412">
         <v>0.2587745129975882</v>
@@ -23031,7 +23031,7 @@
         <v>0.3495879210371995</v>
       </c>
       <c r="D413" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E413">
         <v>0.1987745129975882</v>
@@ -23081,7 +23081,7 @@
         <v>0.2423337386586861</v>
       </c>
       <c r="D414" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E414">
         <v>0.08955596830444978</v>
@@ -23117,7 +23117,7 @@
         <v>1</v>
       </c>
       <c r="P414" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -23131,7 +23131,7 @@
         <v>1.299498064828255</v>
       </c>
       <c r="D415" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E415">
         <v>1.307234317045639</v>
@@ -23181,7 +23181,7 @@
         <v>1.297234317045639</v>
       </c>
       <c r="D416" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E416">
         <v>1.307234317045639</v>
@@ -23231,7 +23231,7 @@
         <v>1.280977464251094</v>
       </c>
       <c r="D417" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E417">
         <v>1.393779206261006</v>
@@ -23581,7 +23581,7 @@
         <v>1.079402133405997</v>
       </c>
       <c r="D424" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E424">
         <v>1.187865204858802</v>
@@ -23667,7 +23667,7 @@
         <v>1</v>
       </c>
       <c r="P425" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="426" spans="1:16">
@@ -23681,7 +23681,7 @@
         <v>1.093445487776341</v>
       </c>
       <c r="D426" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E426">
         <v>1.217039544998508</v>
@@ -23717,7 +23717,7 @@
         <v>1</v>
       </c>
       <c r="P426" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -23781,7 +23781,7 @@
         <v>1.055212466079055</v>
       </c>
       <c r="D428" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E428">
         <v>1.177336022466711</v>
@@ -23831,7 +23831,7 @@
         <v>0.9855607966588198</v>
       </c>
       <c r="D429" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E429">
         <v>1.094264486923798</v>
@@ -23881,7 +23881,7 @@
         <v>1.000898231643049</v>
       </c>
       <c r="D430" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E430">
         <v>1.120932779013935</v>
@@ -23931,7 +23931,7 @@
         <v>1.024613660693627</v>
       </c>
       <c r="D431" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E431">
         <v>1.145560339951075</v>
@@ -23981,7 +23981,7 @@
         <v>1.024403695433639</v>
       </c>
       <c r="D432" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E432">
         <v>1.274427692622476</v>
@@ -24031,7 +24031,7 @@
         <v>1.017514960691944</v>
       </c>
       <c r="D433" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E433">
         <v>1.266779430716954</v>
@@ -24081,7 +24081,7 @@
         <v>1.024291149204128</v>
       </c>
       <c r="D434" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E434">
         <v>1.274302737449711</v>
@@ -24131,7 +24131,7 @@
         <v>1.052918707364001</v>
       </c>
       <c r="D435" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E435">
         <v>1.076632630750393</v>
@@ -24181,7 +24181,7 @@
         <v>0.9514015018721831</v>
       </c>
       <c r="D436" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E436">
         <v>1.031401501872183</v>
@@ -24231,7 +24231,7 @@
         <v>0.5031907659935522</v>
       </c>
       <c r="D437" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E437">
         <v>0.8203545252042801</v>
@@ -24281,7 +24281,7 @@
         <v>0.5133350808738859</v>
       </c>
       <c r="D438" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E438">
         <v>0.7900973752513885</v>
@@ -24331,7 +24331,7 @@
         <v>0.4725256544682619</v>
       </c>
       <c r="D439" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E439">
         <v>0.7900973752513885</v>
@@ -24381,7 +24381,7 @@
         <v>0.5200956436386468</v>
       </c>
       <c r="D440" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E440">
         <v>0.8370345042554268</v>
@@ -24481,7 +24481,7 @@
         <v>0.5703220025555789</v>
       </c>
       <c r="D442" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E442">
         <v>0.846077905380203</v>
@@ -24531,7 +24531,7 @@
         <v>0.5292609782617346</v>
       </c>
       <c r="D443" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E443">
         <v>0.846077905380203</v>
@@ -24581,7 +24581,7 @@
         <v>0.9919135389963438</v>
       </c>
       <c r="D444" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E444">
         <v>0.9566084175271259</v>
@@ -24631,7 +24631,7 @@
         <v>0.5811263873470169</v>
       </c>
       <c r="D445" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E445">
         <v>0.8566914842592102</v>
@@ -24681,7 +24681,7 @@
         <v>0.5400176615750656</v>
       </c>
       <c r="D446" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E446">
         <v>0.8566914842592102</v>
@@ -24781,7 +24781,7 @@
         <v>0.5651178136809349</v>
       </c>
       <c r="D448" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E448">
         <v>0.8409656227108515</v>
@@ -24831,7 +24831,7 @@
         <v>0.5240797659384144</v>
       </c>
       <c r="D449" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E449">
         <v>0.8409656227108515</v>
@@ -24981,7 +24981,7 @@
         <v>0.5908759162986525</v>
       </c>
       <c r="D452" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E452">
         <v>0.8662688360991169</v>
@@ -25031,7 +25031,7 @@
         <v>0.5999341008247585</v>
       </c>
       <c r="D453" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E453">
         <v>0.8662688360991169</v>
@@ -25081,7 +25081,7 @@
         <v>1.012603571373478</v>
       </c>
       <c r="D454" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E454">
         <v>1.202813525949467</v>
@@ -25131,7 +25131,7 @@
         <v>1.076478790675107</v>
       </c>
       <c r="D455" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E455">
         <v>1.202813525949467</v>
@@ -25181,7 +25181,7 @@
         <v>1.064541181024293</v>
       </c>
       <c r="D456" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E456">
         <v>1.202813525949467</v>
@@ -25231,7 +25231,7 @@
         <v>0.5928236359217811</v>
       </c>
       <c r="D457" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E457">
         <v>0.8681821589077101</v>
@@ -25281,7 +25281,7 @@
         <v>0.6018001280133625</v>
       </c>
       <c r="D458" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E458">
         <v>0.8681821589077101</v>
@@ -25331,7 +25331,7 @@
         <v>1.078319020252809</v>
       </c>
       <c r="D459" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E459">
         <v>1.19818215890771</v>
@@ -25381,7 +25381,7 @@
         <v>1.066441605027434</v>
       </c>
       <c r="D460" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E460">
         <v>1.19818215890771</v>
@@ -25431,7 +25431,7 @@
         <v>0.6228387117266463</v>
       </c>
       <c r="D461" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E461">
         <v>0.8976671671486915</v>
@@ -25467,7 +25467,7 @@
         <v>1</v>
       </c>
       <c r="P461" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -25481,7 +25481,7 @@
         <v>0.6473638132323565</v>
       </c>
       <c r="D462" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E462">
         <v>0.8976671671486915</v>
@@ -25517,7 +25517,7 @@
         <v>1</v>
       </c>
       <c r="P462" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -25531,7 +25531,7 @@
         <v>1.175384748776052</v>
       </c>
       <c r="D463" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E463">
         <v>1.159606496365424</v>
@@ -25567,7 +25567,7 @@
         <v>1</v>
       </c>
       <c r="P463" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="464" spans="1:16">
@@ -25631,7 +25631,7 @@
         <v>1.15209663909029</v>
       </c>
       <c r="D465" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E465">
         <v>0.9610334758294661</v>
@@ -25681,7 +25681,7 @@
         <v>1.020801820291841</v>
       </c>
       <c r="D466" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E466">
         <v>0.7712063199615509</v>
@@ -25731,7 +25731,7 @@
         <v>0.971206319961551</v>
       </c>
       <c r="D467" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E467">
         <v>0.7712063199615509</v>
@@ -25781,7 +25781,7 @@
         <v>0.6126699391214085</v>
       </c>
       <c r="D468" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E468">
         <v>0.8031749654545823</v>
@@ -25831,7 +25831,7 @@
         <v>0.5739325049543416</v>
       </c>
       <c r="D469" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E469">
         <v>0.8031749654545823</v>
@@ -25881,7 +25881,7 @@
         <v>0.6331749654545824</v>
       </c>
       <c r="D470" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E470">
         <v>0.8031749654545823</v>
@@ -25931,7 +25931,7 @@
         <v>0.8786326737313104</v>
       </c>
       <c r="D471" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E471">
         <v>0.6786326737313102</v>
@@ -25981,7 +25981,7 @@
         <v>0.5037030430378957</v>
       </c>
       <c r="D472" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E472">
         <v>0.6338223458451093</v>
@@ -26031,7 +26031,7 @@
         <v>0.46400130005593</v>
       </c>
       <c r="D473" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E473">
         <v>0.6338223458451093</v>
@@ -26081,7 +26081,7 @@
         <v>0.5238223458451099</v>
       </c>
       <c r="D474" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E474">
         <v>0.6338223458451093</v>
@@ -26131,7 +26131,7 @@
         <v>0.7704637910456675</v>
       </c>
       <c r="D475" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E475">
         <v>0.5704637910456674</v>
@@ -26331,7 +26331,7 @@
         <v>0.7179212562454138</v>
       </c>
       <c r="D479" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E479">
         <v>0.4932434674041044</v>
@@ -26381,7 +26381,7 @@
         <v>0.314532312038871</v>
       </c>
       <c r="D480" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E480">
         <v>0.5039819839398945</v>
@@ -26431,7 +26431,7 @@
         <v>0.2731564917914273</v>
       </c>
       <c r="D481" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E481">
         <v>0.5039819839398945</v>
@@ -26481,7 +26481,7 @@
         <v>0.3339819839398945</v>
       </c>
       <c r="D482" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E482">
         <v>0.5039819839398945</v>
@@ -26531,7 +26531,7 @@
         <v>0.3194183739163394</v>
       </c>
       <c r="D483" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E483">
         <v>0.5088853416116192</v>
@@ -26581,7 +26581,7 @@
         <v>0.2780857931545366</v>
       </c>
       <c r="D484" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E484">
         <v>0.5088853416116192</v>
@@ -26631,7 +26631,7 @@
         <v>0.3388853416116193</v>
       </c>
       <c r="D485" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E485">
         <v>0.5088853416116192</v>
@@ -26681,7 +26681,7 @@
         <v>0.3203457518590529</v>
       </c>
       <c r="D486" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E486">
         <v>0.5098160023081117</v>
@@ -26731,7 +26731,7 @@
         <v>0.2790213779816995</v>
       </c>
       <c r="D487" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E487">
         <v>0.5098160023081117</v>
@@ -26781,7 +26781,7 @@
         <v>0.3398160023081118</v>
       </c>
       <c r="D488" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E488">
         <v>0.5098160023081117</v>
@@ -26831,7 +26831,7 @@
         <v>0.4620102860642721</v>
       </c>
       <c r="D489" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E489">
         <v>0.6519820038910487</v>
@@ -26881,7 +26881,7 @@
         <v>0.4219395806312125</v>
       </c>
       <c r="D490" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E490">
         <v>0.6519820038910487</v>
@@ -26931,7 +26931,7 @@
         <v>0.4819820038910487</v>
       </c>
       <c r="D491" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E491">
         <v>0.6519820038910487</v>
@@ -26981,7 +26981,7 @@
         <v>0.5667229277228225</v>
       </c>
       <c r="D492" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E492">
         <v>0.7570653097678601</v>
@@ -27031,7 +27031,7 @@
         <v>0.5275788828354147</v>
       </c>
       <c r="D493" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E493">
         <v>0.7570653097678601</v>
@@ -27081,7 +27081,7 @@
         <v>0.5870653097678602</v>
       </c>
       <c r="D494" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E494">
         <v>0.7570653097678601</v>
@@ -27131,7 +27131,7 @@
         <v>0.8224431521598659</v>
       </c>
       <c r="D495" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E495">
         <v>0.8488481406869823</v>
@@ -27181,7 +27181,7 @@
         <v>1.010108600575675</v>
       </c>
       <c r="D496" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E496">
         <v>1.202020489427271</v>
@@ -27217,7 +27217,7 @@
         <v>1</v>
       </c>
       <c r="P496" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -27231,7 +27231,7 @@
         <v>0.9748883227046639</v>
       </c>
       <c r="D497" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E497">
         <v>1.202020489427271</v>
@@ -27267,7 +27267,7 @@
         <v>1</v>
       </c>
       <c r="P497" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -27281,7 +27281,7 @@
         <v>1.032020489427271</v>
       </c>
       <c r="D498" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E498">
         <v>1.202020489427271</v>
@@ -27317,7 +27317,7 @@
         <v>1</v>
       </c>
       <c r="P498" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -27331,7 +27331,7 @@
         <v>1.322020489427271</v>
       </c>
       <c r="D499" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E499">
         <v>1.110324657492447</v>
@@ -27367,7 +27367,7 @@
         <v>1</v>
       </c>
       <c r="P499" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -27381,7 +27381,7 @@
         <v>1.246209989930733</v>
       </c>
       <c r="D500" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E500">
         <v>1.110324657492447</v>
@@ -27417,7 +27417,7 @@
         <v>1</v>
       </c>
       <c r="P500" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -27431,7 +27431,7 @@
         <v>1.30578321264003</v>
       </c>
       <c r="D501" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E501">
         <v>1.498741737286544</v>
@@ -27467,7 +27467,7 @@
         <v>1</v>
       </c>
       <c r="P501" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -27481,7 +27481,7 @@
         <v>1.273179524256313</v>
       </c>
       <c r="D502" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E502">
         <v>1.498741737286544</v>
@@ -27517,7 +27517,7 @@
         <v>1</v>
       </c>
       <c r="P502" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -27531,7 +27531,7 @@
         <v>1.618741737286544</v>
       </c>
       <c r="D503" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E503">
         <v>1.367797063042292</v>
@@ -27567,7 +27567,7 @@
         <v>1</v>
       </c>
       <c r="P503" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -27581,7 +27581,7 @@
         <v>1.528801654558612</v>
       </c>
       <c r="D504" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E504">
         <v>1.367797063042292</v>
@@ -27617,7 +27617,7 @@
         <v>1</v>
       </c>
       <c r="P504" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -27631,7 +27631,7 @@
         <v>1.307442226779496</v>
       </c>
       <c r="D505" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E505">
         <v>1.381525177486469</v>
@@ -27667,7 +27667,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -27681,7 +27681,7 @@
         <v>1.39366787296974</v>
       </c>
       <c r="D506" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E506">
         <v>1.586937493759014</v>
@@ -27731,7 +27731,7 @@
         <v>1.361841924942924</v>
       </c>
       <c r="D507" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E507">
         <v>1.586937493759014</v>
@@ -27781,7 +27781,7 @@
         <v>1.706937493759014</v>
       </c>
       <c r="D508" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E508">
         <v>1.44432671416126</v>
@@ -27831,7 +27831,7 @@
         <v>1.612797613103822</v>
       </c>
       <c r="D509" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E509">
         <v>1.44432671416126</v>
@@ -27881,7 +27881,7 @@
         <v>1.382883041398804</v>
       </c>
       <c r="D510" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E510">
         <v>1.45509126468998</v>
@@ -27931,7 +27931,7 @@
         <v>1.405655207022113</v>
       </c>
       <c r="D511" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E511">
         <v>1.630520179616733</v>
@@ -27981,7 +27981,7 @@
         <v>1.750520179616733</v>
       </c>
       <c r="D512" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E512">
         <v>1.482144494482244</v>
@@ -28031,7 +28031,7 @@
         <v>1.654304932968317</v>
       </c>
       <c r="D513" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E513">
         <v>1.482144494482244</v>
@@ -28081,7 +28081,7 @@
         <v>1.420162763869693</v>
       </c>
       <c r="D514" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E514">
         <v>1.586469357455347</v>
@@ -28131,7 +28131,7 @@
         <v>1.568325185475498</v>
       </c>
       <c r="D515" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E515">
         <v>1.792334000288785</v>
@@ -28181,7 +28181,7 @@
         <v>1.912334000288785</v>
       </c>
       <c r="D516" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E516">
         <v>1.622554370620956</v>
@@ -28231,7 +28231,7 @@
         <v>1.808413333608367</v>
       </c>
       <c r="D517" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E517">
         <v>1.622554370620956</v>
@@ -28281,7 +28281,7 @@
         <v>1.558574938518626</v>
       </c>
       <c r="D518" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E518">
         <v>1.722598444687391</v>
@@ -28331,7 +28331,7 @@
         <v>1.931487260940357</v>
       </c>
       <c r="D519" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E519">
         <v>1.639174131186341</v>
@@ -28381,7 +28381,7 @@
         <v>1.82665453422891</v>
       </c>
       <c r="D520" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E520">
         <v>1.639174131186341</v>
@@ -28431,7 +28431,7 @@
         <v>1.574958239075967</v>
       </c>
       <c r="D521" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E521">
         <v>1.738711505235538</v>
@@ -28481,7 +28481,7 @@
         <v>2.063586163850094</v>
       </c>
       <c r="D522" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E522">
         <v>1.753799634240293</v>
@@ -28531,7 +28531,7 @@
         <v>1.952463013190566</v>
       </c>
       <c r="D523" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E523">
         <v>1.753799634240293</v>
@@ -28581,7 +28581,7 @@
         <v>1.687952891476713</v>
       </c>
       <c r="D524" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E524">
         <v>1.849842328318334</v>
@@ -28631,7 +28631,7 @@
         <v>2.048451399974837</v>
       </c>
       <c r="D525" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E525">
         <v>1.740666823258588</v>
@@ -28681,7 +28681,7 @@
         <v>1.938048952356987</v>
       </c>
       <c r="D526" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E526">
         <v>1.740666823258588</v>
@@ -28731,7 +28731,7 @@
         <v>1.675006929431739</v>
       </c>
       <c r="D527" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E527">
         <v>1.837109907915339</v>
@@ -28781,7 +28781,7 @@
         <v>1.678161397157139</v>
       </c>
       <c r="D528" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E528">
         <v>1.701450014088489</v>
@@ -28831,7 +28831,7 @@
         <v>1.994558725582956</v>
       </c>
       <c r="D529" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E529">
         <v>1.693902809500554</v>
@@ -28881,7 +28881,7 @@
         <v>1.886722595793291</v>
       </c>
       <c r="D530" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E530">
         <v>1.693902809500554</v>
@@ -28931,7 +28931,7 @@
         <v>1.628908257332864</v>
       </c>
       <c r="D531" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E531">
         <v>1.791771626284074</v>
@@ -28981,7 +28981,7 @@
         <v>1.633203310759678</v>
       </c>
       <c r="D532" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E532">
         <v>1.631760730619455</v>
@@ -29031,7 +29031,7 @@
         <v>1.200802433454312</v>
       </c>
       <c r="D533" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E533">
         <v>1.47287342815719</v>
@@ -29067,7 +29067,7 @@
         <v>1</v>
       </c>
       <c r="P533" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="534" spans="1:16">
@@ -29181,7 +29181,7 @@
         <v>0.8048050404443741</v>
       </c>
       <c r="D536" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E536">
         <v>0.8068806034924565</v>
@@ -29231,7 +29231,7 @@
         <v>0.7628239312063947</v>
       </c>
       <c r="D537" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E537">
         <v>0.8068806034924565</v>
@@ -29281,7 +29281,7 @@
         <v>0.7193067826218087</v>
       </c>
       <c r="D538" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E538">
         <v>0.8334398210403284</v>
@@ -29331,7 +29331,7 @@
         <v>0.6776365761395473</v>
       </c>
       <c r="D539" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E539">
         <v>0.8334398210403284</v>
@@ -29381,7 +29381,7 @@
         <v>0.724014277089176</v>
       </c>
       <c r="D540" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E540">
         <v>0.8447339915473933</v>
@@ -29631,7 +29631,7 @@
         <v>2.591818842329439</v>
       </c>
       <c r="D545" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E545">
         <v>2.461761543966816</v>
@@ -29667,7 +29667,7 @@
         <v>1</v>
       </c>
       <c r="P545" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="546" spans="1:16">
@@ -29681,7 +29681,7 @@
         <v>2.405815022438598</v>
       </c>
       <c r="D546" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E546">
         <v>2.453788283202706</v>
@@ -29717,7 +29717,7 @@
         <v>1</v>
       </c>
       <c r="P546" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -29731,7 +29731,7 @@
         <v>2.631161521267291</v>
       </c>
       <c r="D547" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E547">
         <v>2.502137743367133</v>
@@ -29781,7 +29781,7 @@
         <v>2.445226602740614</v>
       </c>
       <c r="D548" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E548">
         <v>2.529291684213936</v>
@@ -29831,7 +29831,7 @@
         <v>2.593634710134916</v>
       </c>
       <c r="D549" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E549">
         <v>2.488086852415759</v>
@@ -29881,7 +29881,7 @@
         <v>2.431511398603778</v>
       </c>
       <c r="D550" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E550">
         <v>2.485758021666055</v>
@@ -29931,7 +29931,7 @@
         <v>2.56403843596223</v>
       </c>
       <c r="D551" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E551">
         <v>2.457924388650204</v>
@@ -30031,7 +30031,7 @@
         <v>2.406396832412122</v>
       </c>
       <c r="D553" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E553">
         <v>2.490394029671584</v>
@@ -30081,7 +30081,7 @@
         <v>2.388290328271669</v>
       </c>
       <c r="D554" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E554">
         <v>2.514335172120281</v>
@@ -30131,7 +30131,7 @@
         <v>2.388230977066312</v>
       </c>
       <c r="D555" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E555">
         <v>2.472196415837407</v>
@@ -30181,7 +30181,7 @@
         <v>2.36891765036792</v>
       </c>
       <c r="D556" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E556">
         <v>2.495470630030401</v>
@@ -30231,7 +30231,7 @@
         <v>2.375229925284041</v>
       </c>
       <c r="D557" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E557">
         <v>2.459172634943628</v>
@@ -30281,7 +30281,7 @@
         <v>2.355052892348365</v>
       </c>
       <c r="D558" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E558">
         <v>2.481969537794965</v>
@@ -30331,7 +30331,7 @@
         <v>2.325779453309323</v>
       </c>
       <c r="D559" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E559">
         <v>2.409635711094829</v>
@@ -30381,7 +30381,7 @@
         <v>2.302317249158544</v>
       </c>
       <c r="D560" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E560">
         <v>2.430617124590451</v>
@@ -30431,7 +30431,7 @@
         <v>2.249805501572103</v>
       </c>
       <c r="D561" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E561">
         <v>2.333528937763662</v>
@@ -30467,7 +30467,7 @@
         <v>1</v>
       </c>
       <c r="P561" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -30481,7 +30481,7 @@
         <v>2.221296076851369</v>
       </c>
       <c r="D562" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E562">
         <v>2.351721097786414</v>
@@ -30517,7 +30517,7 @@
         <v>1</v>
       </c>
       <c r="P562" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -30531,7 +30531,7 @@
         <v>2.280732380582608</v>
       </c>
       <c r="D563" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E563">
         <v>2.364509884744465</v>
@@ -30581,7 +30581,7 @@
         <v>2.254277538733201</v>
       </c>
       <c r="D564" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E564">
         <v>2.383837472143477</v>
@@ -30631,7 +30631,7 @@
         <v>2.339376602772076</v>
       </c>
       <c r="D565" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E565">
         <v>2.423256631797901</v>
@@ -30681,7 +30681,7 @@
         <v>2.316817705753438</v>
       </c>
       <c r="D566" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E566">
         <v>2.444737241340233</v>
@@ -30731,7 +30731,7 @@
         <v>2.565496573746251</v>
       </c>
       <c r="D567" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E567">
         <v>2.409816980107805</v>
@@ -30781,7 +30781,7 @@
         <v>2.37864032222948</v>
       </c>
       <c r="D568" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E568">
         <v>2.462588994121488</v>
@@ -30831,7 +30831,7 @@
         <v>2.358689854125844</v>
       </c>
       <c r="D569" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E569">
         <v>2.48551110385369</v>
@@ -30881,7 +30881,7 @@
         <v>2.60469165033747</v>
       </c>
       <c r="D570" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E570">
         <v>2.449973056825605</v>
@@ -30931,7 +30931,7 @@
         <v>2.397666237563969</v>
       </c>
       <c r="D571" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E571">
         <v>2.505268785162583</v>
@@ -30981,7 +30981,7 @@
         <v>2.378979728870666</v>
       </c>
       <c r="D572" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E572">
         <v>2.505268785162583</v>
@@ -31031,7 +31031,7 @@
         <v>2.623684303582213</v>
       </c>
       <c r="D573" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E573">
         <v>2.469431379326787</v>
@@ -31081,7 +31081,7 @@
         <v>2.500288217263385</v>
       </c>
       <c r="D574" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E574">
         <v>2.611837764081208</v>
@@ -31131,7 +31131,7 @@
         <v>2.488419252675988</v>
       </c>
       <c r="D575" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E575">
         <v>2.611837764081208</v>
@@ -31181,7 +31181,7 @@
         <v>2.726126874226211</v>
       </c>
       <c r="D576" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E576">
         <v>2.574385676746644</v>
@@ -31281,7 +31281,7 @@
         <v>2.986124397131221</v>
       </c>
       <c r="D578" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E578">
         <v>3.2476157633006</v>
@@ -31331,7 +31331,7 @@
         <v>2.895744915254238</v>
       </c>
       <c r="D579" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E579">
         <v>3.159738135593222</v>
@@ -31381,7 +31381,7 @@
         <v>2.93999618644068</v>
       </c>
       <c r="D580" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E580">
         <v>3.084488559322036</v>
@@ -31431,7 +31431,7 @@
         <v>2.741841609050915</v>
       </c>
       <c r="D581" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E581">
         <v>3.010095128523555</v>
@@ -31467,7 +31467,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -31481,7 +31481,7 @@
         <v>2.785294074149796</v>
       </c>
       <c r="D582" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E582">
         <v>2.934579283556515</v>
@@ -31517,7 +31517,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -31531,7 +31531,7 @@
         <v>2.384617418355094</v>
       </c>
       <c r="D583" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E583">
         <v>2.546316018130667</v>
@@ -31581,7 +31581,7 @@
         <v>2.418411940589784</v>
       </c>
       <c r="D584" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E584">
         <v>2.669124296344829</v>
@@ -31631,7 +31631,7 @@
         <v>2.367772628672849</v>
       </c>
       <c r="D585" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E585">
         <v>2.529993098008286</v>
@@ -31667,7 +31667,7 @@
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -31681,7 +31681,7 @@
         <v>2.401538158154214</v>
       </c>
       <c r="D586" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E586">
         <v>2.651786629856047</v>
@@ -31717,7 +31717,7 @@
         <v>1</v>
       </c>
       <c r="P586" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -31767,7 +31767,7 @@
         <v>1</v>
       </c>
       <c r="P587" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -31781,7 +31781,7 @@
         <v>2.582210807344496</v>
       </c>
       <c r="D588" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E588">
         <v>2.737787753072205</v>
@@ -31831,7 +31831,7 @@
         <v>2.616345421470734</v>
       </c>
       <c r="D589" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E589">
         <v>2.872499247490548</v>
@@ -31881,7 +31881,7 @@
         <v>2.548677070038714</v>
       </c>
       <c r="D590" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E590">
         <v>2.705292926732867</v>
@@ -31931,7 +31931,7 @@
         <v>2.582753966889038</v>
       </c>
       <c r="D591" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E591">
         <v>2.837984316494235</v>
@@ -31981,7 +31981,7 @@
         <v>2.87342716942149</v>
       </c>
       <c r="D592" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E592">
         <v>3.019981921487605</v>
@@ -32031,7 +32031,7 @@
         <v>2.908063016528928</v>
       </c>
       <c r="D593" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E593">
         <v>3.172236570247936</v>
@@ -32081,7 +32081,7 @@
         <v>3.32657731201627</v>
       </c>
       <c r="D594" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E594">
         <v>3.638645839218123</v>
@@ -32131,7 +32131,7 @@
         <v>3.361993107734027</v>
       </c>
       <c r="D595" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E595">
         <v>3.638645839218123</v>
@@ -32231,7 +32231,7 @@
         <v>3.871784107946028</v>
       </c>
       <c r="D597" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E597">
         <v>4.134137931034484</v>
@@ -32281,7 +32281,7 @@
         <v>4.161379310344829</v>
       </c>
       <c r="D598" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E598">
         <v>4.278620689655174</v>
@@ -32331,7 +32331,7 @@
         <v>3.876218285367504</v>
       </c>
       <c r="D599" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E599">
         <v>4.138773661975117</v>
@@ -32381,7 +32381,7 @@
         <v>4.232640804798915</v>
       </c>
       <c r="D600" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E600">
         <v>4.268961090493195</v>
@@ -32431,7 +32431,7 @@
         <v>4.220479594754687</v>
       </c>
       <c r="D601" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E601">
         <v>4.107616732709671</v>
@@ -32467,7 +32467,7 @@
         <v>1</v>
       </c>
       <c r="P601" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="602" spans="1:16">
@@ -32481,7 +32481,7 @@
         <v>4.412029475302505</v>
       </c>
       <c r="D602" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E602">
         <v>4.328673743920056</v>
@@ -32581,7 +32581,7 @@
         <v>4.299921445404555</v>
       </c>
       <c r="D604" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E604">
         <v>4.414147682639435</v>
@@ -32681,7 +32681,7 @@
         <v>4.34083505519674</v>
       </c>
       <c r="D606" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E606">
         <v>4.482080399442429</v>
@@ -32717,7 +32717,7 @@
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -32731,7 +32731,7 @@
         <v>4.364822935668792</v>
       </c>
       <c r="D607" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E607">
         <v>4.482080399442429</v>
@@ -32767,7 +32767,7 @@
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -32817,7 +32817,7 @@
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -32831,7 +32831,7 @@
         <v>3.60874217978268</v>
       </c>
       <c r="D609" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E609">
         <v>3.710605861047086</v>
@@ -32881,7 +32881,7 @@
         <v>3.600589397431676</v>
       </c>
       <c r="D610" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E610">
         <v>3.713085281527823</v>
@@ -32931,7 +32931,7 @@
         <v>3.822453078696081</v>
       </c>
       <c r="D611" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E611">
         <v>3.696180441224893</v>
@@ -32981,7 +32981,7 @@
         <v>3.316270060782723</v>
       </c>
       <c r="D612" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E612">
         <v>3.426994484837444</v>
@@ -33031,7 +33031,7 @@
         <v>3.533262226933205</v>
       </c>
       <c r="D613" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E613">
         <v>3.397246559234171</v>
@@ -33081,7 +33081,7 @@
         <v>3.007352043929224</v>
       </c>
       <c r="D614" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E614">
         <v>2.905376754118364</v>
@@ -33131,7 +33131,7 @@
         <v>2.656297549860791</v>
       </c>
       <c r="D615" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E615">
         <v>2.771294089390736</v>
@@ -33181,7 +33181,7 @@
         <v>2.822961909547421</v>
       </c>
       <c r="D616" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E616">
         <v>2.712110697118804</v>
@@ -33281,7 +33281,7 @@
         <v>2.659605506413721</v>
       </c>
       <c r="D618" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E618">
         <v>2.727944607197146</v>
@@ -33331,7 +33331,7 @@
         <v>2.512391892982672</v>
       </c>
       <c r="D619" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E619">
         <v>2.626039316979385</v>
@@ -33367,7 +33367,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -33381,7 +33381,7 @@
         <v>2.678156842313814</v>
       </c>
       <c r="D620" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E620">
         <v>2.560335199630162</v>
@@ -33417,7 +33417,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -33467,7 +33467,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -33481,7 +33481,7 @@
         <v>2.505806335625231</v>
       </c>
       <c r="D622" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E622">
         <v>2.556160980943223</v>
@@ -33517,7 +33517,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -33531,7 +33531,7 @@
         <v>2.363100927662591</v>
       </c>
       <c r="D623" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E623">
         <v>2.23011354995691</v>
@@ -33681,7 +33681,7 @@
         <v>2.311973203410473</v>
       </c>
       <c r="D626" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E626">
         <v>2.176524708543585</v>
@@ -33831,7 +33831,7 @@
         <v>2.392665654617812</v>
       </c>
       <c r="D629" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E629">
         <v>2.261101423706559</v>
@@ -33981,7 +33981,7 @@
         <v>2.460962360708034</v>
       </c>
       <c r="D632" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E632">
         <v>2.332685704158266</v>
@@ -34131,7 +34131,7 @@
         <v>2.472553095345684</v>
       </c>
       <c r="D635" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E635">
         <v>2.344834377885617</v>
@@ -34167,7 +34167,7 @@
         <v>1</v>
       </c>
       <c r="P635" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="636" spans="1:16">
@@ -34181,7 +34181,7 @@
         <v>2.249322285310123</v>
       </c>
       <c r="D636" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E636">
         <v>2.361212401029489</v>
@@ -34217,7 +34217,7 @@
         <v>1</v>
       </c>
       <c r="P636" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -34231,7 +34231,7 @@
         <v>2.026069301115866</v>
       </c>
       <c r="D637" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E637">
         <v>2.105936739659368</v>
@@ -34281,7 +34281,7 @@
         <v>1.954987212825516</v>
       </c>
       <c r="D638" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E638">
         <v>1.993714676176241</v>
@@ -34331,7 +34331,7 @@
         <v>2.171438029538405</v>
       </c>
       <c r="D639" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E639">
         <v>2.007770302756182</v>
@@ -34367,7 +34367,7 @@
         <v>1</v>
       </c>
       <c r="P639" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="640" spans="1:16">
@@ -34381,7 +34381,7 @@
         <v>1.838135633059935</v>
       </c>
       <c r="D640" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E640">
         <v>1.924723046294879</v>
@@ -34417,7 +34417,7 @@
         <v>1</v>
       </c>
       <c r="P640" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -34467,7 +34467,7 @@
         <v>1</v>
       </c>
       <c r="P641" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -34481,7 +34481,7 @@
         <v>2.037929906406372</v>
       </c>
       <c r="D642" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E642">
         <v>1.920068138483725</v>
@@ -34517,7 +34517,7 @@
         <v>1</v>
       </c>
       <c r="P642" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -34531,7 +34531,7 @@
         <v>2.079724252073675</v>
       </c>
       <c r="D643" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E643">
         <v>1.920068138483725</v>
@@ -34567,7 +34567,7 @@
         <v>1</v>
       </c>
       <c r="P643" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="644" spans="1:16">
@@ -34581,7 +34581,7 @@
         <v>1.759840010065912</v>
       </c>
       <c r="D644" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E644">
         <v>2.012778385388941</v>
@@ -34617,7 +34617,7 @@
         <v>1</v>
       </c>
       <c r="P644" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -34667,7 +34667,7 @@
         <v>1</v>
       </c>
       <c r="P645" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="646" spans="1:16">
@@ -34681,7 +34681,7 @@
         <v>2.075493179307625</v>
       </c>
       <c r="D646" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E646">
         <v>1.954187214442742</v>
@@ -34717,7 +34717,7 @@
         <v>1</v>
       </c>
       <c r="P646" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="647" spans="1:16">
@@ -34731,7 +34731,7 @@
         <v>2.115403979772142</v>
       </c>
       <c r="D647" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E647">
         <v>1.954187214442742</v>
@@ -34767,7 +34767,7 @@
         <v>1</v>
       </c>
       <c r="P647" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="648" spans="1:16">
@@ -34781,7 +34781,7 @@
         <v>1.790299626773804</v>
       </c>
       <c r="D648" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E648">
         <v>2.045552071917397</v>
@@ -34817,7 +34817,7 @@
         <v>1</v>
       </c>
       <c r="P648" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="649" spans="1:16">
@@ -34881,7 +34881,7 @@
         <v>2.129009128756772</v>
       </c>
       <c r="D650" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E650">
         <v>2.002796257352141</v>
@@ -34931,7 +34931,7 @@
         <v>2.166236464707365</v>
       </c>
       <c r="D651" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E651">
         <v>2.002796257352141</v>
@@ -34981,7 +34981,7 @@
         <v>1.833695081484718</v>
       </c>
       <c r="D652" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E652">
         <v>2.092244354459705</v>
@@ -35081,7 +35081,7 @@
         <v>2.239939040829444</v>
       </c>
       <c r="D654" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E654">
         <v>2.103554945395226</v>
@@ -35131,7 +35131,7 @@
         <v>2.271603988638856</v>
       </c>
       <c r="D655" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E655">
         <v>2.103554945395226</v>
@@ -35181,7 +35181,7 @@
         <v>1.923646843996369</v>
       </c>
       <c r="D656" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E656">
         <v>2.189029908116234</v>
@@ -35231,7 +35231,7 @@
         <v>2.307766756004791</v>
       </c>
       <c r="D657" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E657">
         <v>2.165163500439881</v>
@@ -35281,7 +35281,7 @@
         <v>2.336030600617732</v>
       </c>
       <c r="D658" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E658">
         <v>2.165163500439881</v>
@@ -35331,7 +35331,7 @@
         <v>1.978647541402165</v>
       </c>
       <c r="D659" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E659">
         <v>2.248209103734839</v>
@@ -35381,7 +35381,7 @@
         <v>2.34994173114933</v>
       </c>
       <c r="D660" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E660">
         <v>2.20347142915283</v>
@@ -35431,7 +35431,7 @@
         <v>2.376090784744994</v>
       </c>
       <c r="D661" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E661">
         <v>2.20347142915283</v>
@@ -35481,7 +35481,7 @@
         <v>2.012846733281549</v>
       </c>
       <c r="D662" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E662">
         <v>2.285006467435447</v>
@@ -35531,7 +35531,7 @@
         <v>2.424356429970697</v>
       </c>
       <c r="D663" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E663">
         <v>2.271063003726965</v>
@@ -35581,7 +35581,7 @@
         <v>2.446774087493656</v>
       </c>
       <c r="D664" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E664">
         <v>2.271063003726965</v>
@@ -35631,7 +35631,7 @@
         <v>2.073188738343</v>
       </c>
       <c r="D665" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E665">
         <v>2.349932759100507</v>
@@ -35681,7 +35681,7 @@
         <v>2.476793940920776</v>
       </c>
       <c r="D666" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E666">
         <v>2.318692490750389</v>
@@ -35731,7 +35731,7 @@
         <v>2.496582210358846</v>
       </c>
       <c r="D667" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E667">
         <v>2.318692490750389</v>
@@ -35781,7 +35781,7 @@
         <v>2.115709699944353</v>
       </c>
       <c r="D668" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E668">
         <v>2.395684111777582</v>
@@ -35831,7 +35831,7 @@
         <v>2.584469146504871</v>
       </c>
       <c r="D669" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E669">
         <v>2.416494898114739</v>
@@ -35867,7 +35867,7 @@
         <v>1</v>
       </c>
       <c r="P669" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -35881,7 +35881,7 @@
         <v>2.598858229416518</v>
       </c>
       <c r="D670" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E670">
         <v>2.416494898114739</v>
@@ -35917,7 +35917,7 @@
         <v>1</v>
       </c>
       <c r="P670" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -35931,7 +35931,7 @@
         <v>2.203022259200224</v>
       </c>
       <c r="D671" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E671">
         <v>2.489629957337344</v>
@@ -35967,7 +35967,7 @@
         <v>1</v>
       </c>
       <c r="P671" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -35981,7 +35981,7 @@
         <v>2.595657747580263</v>
       </c>
       <c r="D672" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E672">
         <v>2.426657610266313</v>
@@ -36017,7 +36017,7 @@
         <v>1</v>
       </c>
       <c r="P672" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -36031,7 +36031,7 @@
         <v>2.609485797486697</v>
       </c>
       <c r="D673" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E673">
         <v>2.426657610266313</v>
@@ -36067,7 +36067,7 @@
         <v>1</v>
       </c>
       <c r="P673" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -36081,7 +36081,7 @@
         <v>2.212094964370241</v>
       </c>
       <c r="D674" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E674">
         <v>2.499391931628051</v>
@@ -36117,7 +36117,7 @@
         <v>1</v>
       </c>
       <c r="P674" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -36131,7 +36131,7 @@
         <v>2.636274940545768</v>
       </c>
       <c r="D675" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E675">
         <v>2.45227498085372</v>
@@ -36181,7 +36181,7 @@
         <v>2.234964730541333</v>
       </c>
       <c r="D676" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E676">
         <v>2.52399915353299</v>
@@ -36231,7 +36231,7 @@
         <v>2.579447377967671</v>
       </c>
       <c r="D677" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E677">
         <v>2.592619815389574</v>
@@ -36281,7 +36281,7 @@
         <v>2.631243254577488</v>
       </c>
       <c r="D678" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E678">
         <v>2.447463383713615</v>
@@ -36331,7 +36331,7 @@
         <v>2.23066920375695</v>
       </c>
       <c r="D679" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E679">
         <v>2.519377288141312</v>
@@ -36381,7 +36381,7 @@
         <v>2.574544709588321</v>
       </c>
       <c r="D680" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E680">
         <v>2.45999927695337</v>
@@ -36431,7 +36431,7 @@
         <v>1.048613894568265</v>
       </c>
       <c r="D681" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E681">
         <v>1.233990386669996</v>
@@ -36481,7 +36481,7 @@
         <v>1.432253666853354</v>
       </c>
       <c r="D682" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E682">
         <v>1.131246696401861</v>
@@ -36531,7 +36531,7 @@
         <v>1.049051239803361</v>
       </c>
       <c r="D683" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E683">
         <v>1.234377532278106</v>
@@ -36581,7 +36581,7 @@
         <v>1.018513887329972</v>
       </c>
       <c r="D684" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E684">
         <v>1.207345336784271</v>
@@ -36631,7 +36631,7 @@
         <v>1.001192628190998</v>
       </c>
       <c r="D685" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E685">
         <v>1.192012256955163</v>
@@ -36681,7 +36681,7 @@
         <v>0.9747731854838682</v>
       </c>
       <c r="D686" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E686">
         <v>1.168625306802242</v>
@@ -36731,7 +36731,7 @@
         <v>0.9717868354707706</v>
       </c>
       <c r="D687" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E687">
         <v>1.165981737834127</v>
@@ -36781,7 +36781,7 @@
         <v>1.007754046611591</v>
       </c>
       <c r="D688" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E688">
         <v>1.197820538652697</v>
@@ -36831,7 +36831,7 @@
         <v>1.089161671778701</v>
       </c>
       <c r="D689" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E689">
         <v>1.269883984235407</v>
@@ -36881,7 +36881,7 @@
         <v>1.116656748513967</v>
       </c>
       <c r="D690" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E690">
         <v>1.294223104336712</v>
@@ -36931,7 +36931,7 @@
         <v>1.119719286241605</v>
       </c>
       <c r="D691" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E691">
         <v>1.296934115994744</v>
@@ -36981,7 +36981,7 @@
         <v>1.479129019826146</v>
       </c>
       <c r="D692" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E692">
         <v>1.18338168543656</v>
@@ -37031,7 +37031,7 @@
         <v>1.44025373758431</v>
       </c>
       <c r="D693" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E693">
         <v>1.170867265003362</v>
@@ -37081,7 +37081,7 @@
         <v>1.03839194487707</v>
       </c>
       <c r="D694" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E694">
         <v>1.222827777205431</v>
@@ -37131,7 +37131,7 @@
         <v>0.9787286855021877</v>
       </c>
       <c r="D695" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E695">
         <v>1.165914951773363</v>
@@ -37181,7 +37181,7 @@
         <v>1.237649517092823</v>
       </c>
       <c r="D696" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E696">
         <v>1.149176291558275</v>
@@ -37231,7 +37231,7 @@
         <v>1.000202386634846</v>
       </c>
       <c r="D697" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E697">
         <v>1.121953884369979</v>
@@ -37281,7 +37281,7 @@
         <v>0.9326431055477098</v>
       </c>
       <c r="D698" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E698">
         <v>1.121953884369979</v>
@@ -37331,7 +37331,7 @@
         <v>1.187151487993767</v>
       </c>
       <c r="D699" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E699">
         <v>1.090626038673227</v>
@@ -37381,7 +37381,7 @@
         <v>0.9570959009415585</v>
       </c>
       <c r="D700" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E700">
         <v>1.082512916167617</v>
@@ -37417,7 +37417,7 @@
         <v>1</v>
       </c>
       <c r="P700" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="701" spans="1:16">
@@ -37431,7 +37431,7 @@
         <v>0.8912960682500666</v>
       </c>
       <c r="D701" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E701">
         <v>1.082512916167617</v>
@@ -37467,7 +37467,7 @@
         <v>1</v>
       </c>
       <c r="P701" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="702" spans="1:16">
@@ -37481,7 +37481,7 @@
         <v>1.141845691805925</v>
       </c>
       <c r="D702" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E702">
         <v>1.044220587238106</v>
@@ -37517,7 +37517,7 @@
         <v>1</v>
       </c>
       <c r="P702" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="703" spans="1:16">
@@ -37531,7 +37531,7 @@
         <v>1.034306791748018</v>
       </c>
       <c r="D703" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E703">
         <v>1.153158255034751</v>
@@ -37581,7 +37581,7 @@
         <v>0.9653554941256504</v>
       </c>
       <c r="D704" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E704">
         <v>1.153158255034751</v>
@@ -37631,7 +37631,7 @@
         <v>1.222995913775978</v>
       </c>
       <c r="D705" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E705">
         <v>1.0959796796501</v>
@@ -37681,7 +37681,7 @@
         <v>1.069894727041009</v>
       </c>
       <c r="D706" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E706">
         <v>1.185720005353849</v>
@@ -37731,7 +37731,7 @@
         <v>0.9994908606311732</v>
       </c>
       <c r="D707" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E707">
         <v>1.185720005353849</v>
@@ -37781,7 +37781,7 @@
         <v>1.260399560053306</v>
       </c>
       <c r="D708" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E708">
         <v>1.133867515523252</v>
@@ -37831,7 +37831,7 @@
         <v>1.275834275196178</v>
       </c>
       <c r="D709" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E709">
         <v>1.374147687169293</v>
@@ -37867,7 +37867,7 @@
         <v>1</v>
       </c>
       <c r="P709" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="710" spans="1:16">
@@ -37881,7 +37881,7 @@
         <v>1.197024712943274</v>
       </c>
       <c r="D710" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E710">
         <v>1.374147687169293</v>
@@ -37917,7 +37917,7 @@
         <v>1</v>
       </c>
       <c r="P710" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="711" spans="1:16">
@@ -37931,7 +37931,7 @@
         <v>1.274907009552614</v>
       </c>
       <c r="D711" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E711">
         <v>1.373299270645078</v>
@@ -37967,7 +37967,7 @@
         <v>1</v>
       </c>
       <c r="P711" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="712" spans="1:16">
@@ -37981,7 +37981,7 @@
         <v>1.196135294876997</v>
       </c>
       <c r="D712" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E712">
         <v>1.373299270645078</v>
@@ -38017,7 +38017,7 @@
         <v>1</v>
       </c>
       <c r="P712" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="713" spans="1:16">
@@ -38031,7 +38031,7 @@
         <v>1.223983312561158</v>
       </c>
       <c r="D713" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E713">
         <v>1.399863514464367</v>
@@ -38081,7 +38081,7 @@
         <v>1.210876810015815</v>
       </c>
       <c r="D714" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E714">
         <v>1.387361212390972</v>
@@ -38131,7 +38131,7 @@
         <v>1.520609671796993</v>
       </c>
       <c r="D715" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E715">
         <v>1.397446042952939</v>
@@ -38181,7 +38181,7 @@
         <v>1.320086939824524</v>
       </c>
       <c r="D716" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E716">
         <v>1.587968774925407</v>
@@ -38231,7 +38231,7 @@
         <v>1.293236950163952</v>
       </c>
       <c r="D717" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E717">
         <v>1.587968774925407</v>
@@ -38281,7 +38281,7 @@
         <v>1.300393635833263</v>
       </c>
       <c r="D718" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E718">
         <v>1.49607869775581</v>
@@ -38317,7 +38317,7 @@
         <v>1</v>
       </c>
       <c r="P718" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="719" spans="1:16">
@@ -38331,7 +38331,7 @@
         <v>1.328869127694237</v>
       </c>
       <c r="D719" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E719">
         <v>1.59700884106862</v>
@@ -38367,7 +38367,7 @@
         <v>1</v>
       </c>
       <c r="P719" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="720" spans="1:16">
@@ -38381,7 +38381,7 @@
         <v>1.302176730311914</v>
       </c>
       <c r="D720" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E720">
         <v>1.59700884106862</v>
@@ -38417,7 +38417,7 @@
         <v>1</v>
       </c>
       <c r="P720" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="721" spans="1:16">
@@ -38431,7 +38431,7 @@
         <v>1.32594915476176</v>
       </c>
       <c r="D721" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E721">
         <v>1.52293507232763</v>
@@ -38481,7 +38481,7 @@
         <v>1.354592498963809</v>
       </c>
       <c r="D722" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E722">
         <v>1.623487547873024</v>
@@ -38531,7 +38531,7 @@
         <v>1.32836169551944</v>
       </c>
       <c r="D723" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E723">
         <v>1.623487547873024</v>
@@ -38581,7 +38581,7 @@
         <v>1.719970056024559</v>
       </c>
       <c r="D724" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E724">
         <v>1.862382596782238</v>
@@ -38631,7 +38631,7 @@
         <v>1.335054684122451</v>
       </c>
       <c r="D725" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E725">
         <v>1.532504101540835</v>
@@ -38681,7 +38681,7 @@
         <v>1.363757834757081</v>
       </c>
       <c r="D726" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E726">
         <v>1.632922012612918</v>
@@ -38731,7 +38731,7 @@
         <v>1.337691499002314</v>
       </c>
       <c r="D727" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E727">
         <v>1.632922012612918</v>
@@ -38781,7 +38781,7 @@
         <v>1.72944937558889</v>
       </c>
       <c r="D728" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E728">
         <v>1.892086190468752</v>
@@ -38881,7 +38881,7 @@
         <v>1.369435403547676</v>
       </c>
       <c r="D730" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E730">
         <v>1.638766296310903</v>
@@ -38931,7 +38931,7 @@
         <v>1.343470949125203</v>
       </c>
       <c r="D731" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E731">
         <v>1.638766296310903</v>
@@ -38981,7 +38981,7 @@
         <v>1.735321445104775</v>
       </c>
       <c r="D732" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E732">
         <v>1.758353329827142</v>
@@ -39031,7 +39031,7 @@
         <v>1.372482075130423</v>
       </c>
       <c r="D733" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E733">
         <v>1.641902429701953</v>
@@ -39081,7 +39081,7 @@
         <v>1.346572291813024</v>
       </c>
       <c r="D734" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E734">
         <v>1.641902429701953</v>
@@ -39131,7 +39131,7 @@
         <v>1.738472488797208</v>
       </c>
       <c r="D735" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E735">
         <v>1.551403414622868</v>
@@ -39181,7 +39181,7 @@
         <v>1.381049600075371</v>
       </c>
       <c r="D736" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E736">
         <v>1.63013425391119</v>
@@ -39217,7 +39217,7 @@
         <v>1</v>
       </c>
       <c r="P736" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="737" spans="1:16">
@@ -39231,7 +39231,7 @@
         <v>1.361049600075371</v>
       </c>
       <c r="D737" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E737">
         <v>1.63013425391119</v>
@@ -39267,7 +39267,7 @@
         <v>1</v>
       </c>
       <c r="P737" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="738" spans="1:16">
@@ -39281,7 +39281,7 @@
         <v>1.334934666308371</v>
       </c>
       <c r="D738" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E738">
         <v>1.63013425391119</v>
@@ -39317,7 +39317,7 @@
         <v>1</v>
       </c>
       <c r="P738" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="739" spans="1:16">
@@ -39331,7 +39331,7 @@
         <v>1.726648362883826</v>
       </c>
       <c r="D739" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E739">
         <v>1.538702736788463</v>
@@ -39367,7 +39367,7 @@
         <v>1</v>
       </c>
       <c r="P739" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="740" spans="1:16">
@@ -39381,7 +39381,7 @@
         <v>1.335104546864444</v>
       </c>
       <c r="D740" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E740">
         <v>1.582840080051328</v>
@@ -39431,7 +39431,7 @@
         <v>1.315104546864444</v>
       </c>
       <c r="D741" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E741">
         <v>1.582840080051328</v>
@@ -39481,7 +39481,7 @@
         <v>1.28816515047865</v>
       </c>
       <c r="D742" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E742">
         <v>1.582840080051328</v>
@@ -39531,7 +39531,7 @@
         <v>1.679129335582475</v>
       </c>
       <c r="D743" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E743">
         <v>1.487661005570451</v>
@@ -39581,7 +39581,7 @@
         <v>1.279317014732507</v>
       </c>
       <c r="D744" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E744">
         <v>1.525414414838846</v>
@@ -39617,7 +39617,7 @@
         <v>1</v>
       </c>
       <c r="P744" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="745" spans="1:16">
@@ -39631,7 +39631,7 @@
         <v>1.259317014732507</v>
       </c>
       <c r="D745" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E745">
         <v>1.525414414838846</v>
@@ -39667,7 +39667,7 @@
         <v>1</v>
       </c>
       <c r="P745" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="746" spans="1:16">
@@ -39681,7 +39681,7 @@
         <v>1.231376537019713</v>
       </c>
       <c r="D746" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E746">
         <v>1.525414414838846</v>
@@ -39717,7 +39717,7 @@
         <v>1</v>
       </c>
       <c r="P746" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="747" spans="1:16">
@@ -39731,7 +39731,7 @@
         <v>1.621430648189902</v>
       </c>
       <c r="D747" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E747">
         <v>1.425684970689784</v>
@@ -39767,7 +39767,7 @@
         <v>1</v>
       </c>
       <c r="P747" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="748" spans="1:16">
@@ -39781,7 +39781,7 @@
         <v>1.243099801584474</v>
       </c>
       <c r="D748" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E748">
         <v>1.488133727242747</v>
@@ -39817,7 +39817,7 @@
         <v>1</v>
       </c>
       <c r="P748" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="749" spans="1:16">
@@ -39831,7 +39831,7 @@
         <v>1.223099801584475</v>
       </c>
       <c r="D749" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E749">
         <v>1.488133727242747</v>
@@ -39867,7 +39867,7 @@
         <v>1</v>
       </c>
       <c r="P749" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="750" spans="1:16">
@@ -39881,7 +39881,7 @@
         <v>1.194509422820085</v>
       </c>
       <c r="D750" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E750">
         <v>1.488133727242747</v>
@@ -39917,7 +39917,7 @@
         <v>1</v>
       </c>
       <c r="P750" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="751" spans="1:16">
@@ -39931,7 +39931,7 @@
         <v>1.583972714852459</v>
       </c>
       <c r="D751" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E751">
         <v>1.385450187404612</v>
@@ -39967,7 +39967,7 @@
         <v>1</v>
       </c>
       <c r="P751" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="752" spans="1:16">
@@ -39981,7 +39981,7 @@
         <v>1.228734046504393</v>
       </c>
       <c r="D752" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E752">
         <v>1.473346139223935</v>
@@ -40031,7 +40031,7 @@
         <v>1.208734046504393</v>
       </c>
       <c r="D753" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E753">
         <v>1.473346139223935</v>
@@ -40081,7 +40081,7 @@
         <v>1.179885880944113</v>
       </c>
       <c r="D754" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E754">
         <v>1.473346139223935</v>
@@ -40131,7 +40131,7 @@
         <v>1.569114821343859</v>
       </c>
       <c r="D755" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E755">
         <v>1.369490841222662</v>
@@ -40181,7 +40181,7 @@
         <v>1.214848283326875</v>
       </c>
       <c r="D756" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E756">
         <v>1.459052637486556</v>
@@ -40217,7 +40217,7 @@
         <v>1</v>
       </c>
       <c r="P756" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="757" spans="1:16">
@@ -40231,7 +40231,7 @@
         <v>1.194848283326875</v>
       </c>
       <c r="D757" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E757">
         <v>1.459052637486556</v>
@@ -40267,7 +40267,7 @@
         <v>1</v>
       </c>
       <c r="P757" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="758" spans="1:16">
@@ -40281,7 +40281,7 @@
         <v>1.165750944202235</v>
       </c>
       <c r="D758" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E758">
         <v>1.459052637486556</v>
@@ -40317,7 +40317,7 @@
         <v>1</v>
       </c>
       <c r="P758" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="759" spans="1:16">
@@ -40331,7 +40331,7 @@
         <v>1.635157233543995</v>
       </c>
       <c r="D759" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E759">
         <v>1.354064732374555</v>
@@ -40367,7 +40367,7 @@
         <v>1</v>
       </c>
       <c r="P759" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="760" spans="1:16">
@@ -40381,7 +40381,7 @@
         <v>1.204487576632728</v>
       </c>
       <c r="D760" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E760">
         <v>1.448387701232059</v>
@@ -40431,7 +40431,7 @@
         <v>1.184487576632728</v>
       </c>
       <c r="D761" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E761">
         <v>1.448387701232059</v>
@@ -40481,7 +40481,7 @@
         <v>1.155204319443429</v>
       </c>
       <c r="D762" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E762">
         <v>1.448387701232059</v>
@@ -40531,7 +40531,7 @@
         <v>1.624171166086906</v>
       </c>
       <c r="D763" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E763">
         <v>1.342554714007974</v>
@@ -40581,7 +40581,7 @@
         <v>1.178909586838812</v>
       </c>
       <c r="D764" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E764">
         <v>1.442645920546966</v>
@@ -40631,7 +40631,7 @@
         <v>1.149526235216016</v>
       </c>
       <c r="D765" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E765">
         <v>1.442645920546966</v>
@@ -40681,7 +40681,7 @@
         <v>1.618256495016685</v>
       </c>
       <c r="D766" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E766">
         <v>1.336357958625173</v>
@@ -40731,7 +40731,7 @@
         <v>1.197243284500239</v>
       </c>
       <c r="D767" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E767">
         <v>1.461517964958648</v>
@@ -40781,7 +40781,7 @@
         <v>1.168188922558154</v>
       </c>
       <c r="D768" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E768">
         <v>1.461517964958648</v>
@@ -40831,7 +40831,7 @@
         <v>1.637696794331411</v>
       </c>
       <c r="D769" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E769">
         <v>1.356725410676448</v>
@@ -40881,7 +40881,7 @@
         <v>1.620131768920341</v>
       </c>
       <c r="D770" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E770">
         <v>1.338322668668851</v>
@@ -40931,7 +40931,7 @@
         <v>1.626701499044546</v>
       </c>
       <c r="D771" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E771">
         <v>1.345205724383594</v>
@@ -40981,7 +40981,7 @@
         <v>1.588450604285985</v>
       </c>
       <c r="D772" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E772">
         <v>1.305130556182701</v>
@@ -41031,7 +41031,7 @@
         <v>1.519767166709982</v>
       </c>
       <c r="D773" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E773">
         <v>1.233171446968457</v>
@@ -41067,7 +41067,7 @@
         <v>1</v>
       </c>
       <c r="P773" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="774" spans="1:16">
@@ -41117,7 +41117,7 @@
         <v>1</v>
       </c>
       <c r="P774" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="775" spans="1:16">
@@ -41131,7 +41131,7 @@
         <v>1.459764882116069</v>
       </c>
       <c r="D775" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E775">
         <v>1.170307514955451</v>
@@ -41217,7 +41217,7 @@
         <v>1</v>
       </c>
       <c r="P776" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="777" spans="1:16">
@@ -41267,7 +41267,7 @@
         <v>1</v>
       </c>
       <c r="P777" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="778" spans="1:16">
@@ -41381,7 +41381,7 @@
         <v>0.5261471424176589</v>
       </c>
       <c r="D780" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E780">
         <v>0.4529295327128526</v>
@@ -41481,7 +41481,7 @@
         <v>0.5696651621169257</v>
       </c>
       <c r="D782" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E782">
         <v>0.5764125076409874</v>
@@ -41531,7 +41531,7 @@
         <v>0.6229876769730494</v>
       </c>
       <c r="D783" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E783">
         <v>0.5485041779276498</v>
@@ -41581,7 +41581,7 @@
         <v>0.6943532144705493</v>
       </c>
       <c r="D784" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E784">
         <v>0.6189368325820457</v>
@@ -41631,7 +41631,7 @@
         <v>0.5459303920860705</v>
       </c>
       <c r="D785" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E785">
         <v>0.6568485089176113</v>
@@ -41681,7 +41681,7 @@
         <v>0.5409639358514591</v>
       </c>
       <c r="D786" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E786">
         <v>0.6519855205212206</v>
@@ -41781,7 +41781,7 @@
         <v>0.2337286883090668</v>
       </c>
       <c r="D788" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E788">
         <v>0.3511510073026285</v>
@@ -41881,7 +41881,7 @@
         <v>0.1248193267549702</v>
       </c>
       <c r="D790" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E790">
         <v>0.2445105907809086</v>
@@ -42281,7 +42281,7 @@
         <v>0.1728922878763504</v>
       </c>
       <c r="D798" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E798">
         <v>0.3588607309612</v>
@@ -42331,7 +42331,7 @@
         <v>0.5201709869586244</v>
       </c>
       <c r="D799" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E799">
         <v>0.6271254226372589</v>
@@ -42381,7 +42381,7 @@
         <v>0.1860586912284461</v>
       </c>
       <c r="D800" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E800">
         <v>0.371183134098418</v>
@@ -42481,7 +42481,7 @@
         <v>0.5327676901656773</v>
       </c>
       <c r="D802" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E802">
         <v>0.2873943615557639</v>
@@ -42581,7 +42581,7 @@
         <v>0.6443465398743404</v>
       </c>
       <c r="D804" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E804">
         <v>0.4214011207536048</v>
@@ -42667,7 +42667,7 @@
         <v>1</v>
       </c>
       <c r="P805" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="806" spans="1:16">
@@ -42681,7 +42681,7 @@
         <v>0.6440109624004045</v>
       </c>
       <c r="D806" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E806">
         <v>0.4209980905210893</v>
@@ -42717,7 +42717,7 @@
         <v>1</v>
       </c>
       <c r="P806" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="807" spans="1:16">
@@ -42781,7 +42781,7 @@
         <v>0.5150392959986707</v>
       </c>
       <c r="D808" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E808">
         <v>0.26610247107378</v>
@@ -42881,7 +42881,7 @@
         <v>0.4200792035295731</v>
       </c>
       <c r="D810" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E810">
         <v>0.1520549228319998</v>
@@ -42931,7 +42931,7 @@
         <v>0.08944703160528888</v>
       </c>
       <c r="D811" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E811">
         <v>0.2705169356982973</v>
@@ -43031,7 +43031,7 @@
         <v>0.4608540772532166</v>
       </c>
       <c r="D813" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E813">
         <v>0.2010257510729589</v>
@@ -43081,7 +43081,7 @@
         <v>0.1410815450643756</v>
       </c>
       <c r="D814" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E814">
         <v>0.3210586552217425</v>
@@ -43167,7 +43167,7 @@
         <v>1</v>
       </c>
       <c r="P815" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="816" spans="1:16">
@@ -43181,7 +43181,7 @@
         <v>0.5222127281947291</v>
       </c>
       <c r="D816" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E816">
         <v>0.2747177991886449</v>
@@ -43217,7 +43217,7 @@
         <v>1</v>
       </c>
       <c r="P816" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="817" spans="1:16">
@@ -43231,7 +43231,7 @@
         <v>0.2187819472616672</v>
       </c>
       <c r="D817" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E817">
         <v>0.3971146044624776</v>
@@ -43267,7 +43267,7 @@
         <v>1</v>
       </c>
       <c r="P817" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="818" spans="1:16">
@@ -43317,7 +43317,7 @@
         <v>1</v>
       </c>
       <c r="P818" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="819" spans="1:16">
@@ -43331,7 +43331,7 @@
         <v>0.6720103179814281</v>
       </c>
       <c r="D819" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E819">
         <v>0.4546254572741777</v>
@@ -43367,7 +43367,7 @@
         <v>1</v>
       </c>
       <c r="P819" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="820" spans="1:16">
@@ -43431,7 +43431,7 @@
         <v>0.9954766033138363</v>
       </c>
       <c r="D821" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E821">
         <v>0.6006830651009487</v>
@@ -43481,7 +43481,7 @@
         <v>1.036270478123291</v>
       </c>
       <c r="D822" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E822">
         <v>0.6454066250984711</v>
@@ -43531,7 +43531,7 @@
         <v>1.041873911083155</v>
       </c>
       <c r="D823" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E823">
         <v>0.6515498382975879</v>
@@ -43631,7 +43631,7 @@
         <v>1.043253289895938</v>
       </c>
       <c r="D825" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E825">
         <v>0.6530620930510525</v>
@@ -43681,7 +43681,7 @@
         <v>0.6149868979590059</v>
       </c>
       <c r="D826" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E826">
         <v>0.8446855288842503</v>
@@ -43781,7 +43781,7 @@
         <v>1.050214176440594</v>
       </c>
       <c r="D828" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E828">
         <v>0.6606935237123945</v>
@@ -43831,7 +43831,7 @@
         <v>0.6257521672616049</v>
       </c>
       <c r="D829" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E829">
         <v>0.7954716981132099</v>
@@ -43881,7 +43881,7 @@
         <v>0.6236613972463054</v>
       </c>
       <c r="D830" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E830">
         <v>0.8538602753697138</v>
@@ -43931,7 +43931,7 @@
         <v>1.133952619512609</v>
       </c>
       <c r="D831" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E831">
         <v>0.7524985140528146</v>
@@ -43981,7 +43981,7 @@
         <v>0.722550734482466</v>
       </c>
       <c r="D832" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E832">
         <v>0.8902216184087619</v>
@@ -44031,7 +44031,7 @@
         <v>0.7280143500042451</v>
       </c>
       <c r="D833" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E833">
         <v>0.9642311284707485</v>
@@ -44081,7 +44081,7 @@
         <v>1.018049163624012</v>
       </c>
       <c r="D834" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E834">
         <v>0.9372785938694053</v>
@@ -44131,7 +44131,7 @@
         <v>1.184786594926472</v>
       </c>
       <c r="D835" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E835">
         <v>0.8082293403092971</v>
@@ -44181,7 +44181,7 @@
         <v>0.7813129445939042</v>
       </c>
       <c r="D836" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E836">
         <v>0.9477401838617565</v>
@@ -44231,7 +44231,7 @@
         <v>0.7913624997936921</v>
       </c>
       <c r="D837" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E837">
         <v>1.031232484444372</v>
@@ -44281,7 +44281,7 @@
         <v>1.083418235983428</v>
       </c>
       <c r="D838" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E838">
         <v>0.9460931439700282</v>
@@ -44331,7 +44331,7 @@
         <v>0.9959625812148376</v>
       </c>
       <c r="D839" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E839">
         <v>1.275978498686759</v>
@@ -44381,7 +44381,7 @@
         <v>1.045020386307058</v>
       </c>
       <c r="D840" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E840">
         <v>1.275978498686759</v>
@@ -44431,7 +44431,7 @@
         <v>0.5700497471675483</v>
       </c>
       <c r="D841" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E841">
         <v>0.7400823063591968</v>
@@ -44481,7 +44481,7 @@
         <v>0.7993610436752716</v>
       </c>
       <c r="D842" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E842">
         <v>0.5820028088536793</v>
@@ -44531,7 +44531,7 @@
         <v>0.8656656466686519</v>
       </c>
       <c r="D843" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E843">
         <v>0.5820028088536793</v>
@@ -44581,7 +44581,7 @@
         <v>0.7799606635805523</v>
       </c>
       <c r="D844" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E844">
         <v>0.5820028088536793</v>
@@ -44631,7 +44631,7 @@
         <v>0.6527153807916708</v>
       </c>
       <c r="D845" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E845">
         <v>0.8333516469141635</v>
@@ -44667,7 +44667,7 @@
         <v>1</v>
       </c>
       <c r="P845" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="846" spans="1:16">
@@ -44681,7 +44681,7 @@
         <v>0.8903581613164846</v>
       </c>
       <c r="D846" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E846">
         <v>0.669321089396437</v>
@@ -44717,7 +44717,7 @@
         <v>1</v>
       </c>
       <c r="P846" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="847" spans="1:16">
@@ -44731,7 +44731,7 @@
         <v>0.949521492295216</v>
       </c>
       <c r="D847" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E847">
         <v>0.669321089396437</v>
@@ -44767,7 +44767,7 @@
         <v>1</v>
       </c>
       <c r="P847" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="848" spans="1:16">
@@ -44781,7 +44781,7 @@
         <v>0.8668461397587857</v>
       </c>
       <c r="D848" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E848">
         <v>0.669321089396437</v>
@@ -44817,7 +44817,7 @@
         <v>1</v>
       </c>
       <c r="P848" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="849" spans="1:16">
@@ -44831,7 +44831,7 @@
         <v>0.5362313038223281</v>
       </c>
       <c r="D849" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E849">
         <v>0.7019258951503229</v>
@@ -44881,7 +44881,7 @@
         <v>0.7621341970086082</v>
       </c>
       <c r="D850" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E850">
         <v>0.5462809714458361</v>
@@ -44931,7 +44931,7 @@
         <v>0.8313602885632259</v>
       </c>
       <c r="D851" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E851">
         <v>0.5462809714458361</v>
@@ -44981,7 +44981,7 @@
         <v>0.7444158860855108</v>
       </c>
       <c r="D852" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E852">
         <v>0.5462809714458361</v>
@@ -45031,7 +45031,7 @@
         <v>0.7200944227714334</v>
       </c>
       <c r="D853" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E853">
         <v>0.6017779488095529</v>
@@ -45081,7 +45081,7 @@
         <v>0.513443082806087</v>
       </c>
       <c r="D854" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E854">
         <v>0.7680313973173494</v>
@@ -45131,7 +45131,7 @@
         <v>0.5055337955483079</v>
       </c>
       <c r="D855" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E855">
         <v>0.6404001505858758</v>
@@ -45181,7 +45181,7 @@
         <v>0.7021073394927146</v>
       </c>
       <c r="D856" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E856">
         <v>0.584731925773716</v>
@@ -45231,7 +45231,7 @@
         <v>0.4963115088390788</v>
       </c>
       <c r="D857" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E857">
         <v>0.7511778638766478</v>
@@ -45281,7 +45281,7 @@
         <v>0.6702836519976234</v>
       </c>
       <c r="D858" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E858">
         <v>0.5545732112272379</v>
@@ -45331,7 +45331,7 @@
         <v>0.4660014331154549</v>
       </c>
       <c r="D859" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E859">
         <v>0.7213597119787503</v>
@@ -45381,7 +45381,7 @@
         <v>0.39314498933902</v>
       </c>
       <c r="D860" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E860">
         <v>0.5781462127302612</v>
@@ -45431,7 +45431,7 @@
         <v>0.6698856375388864</v>
       </c>
       <c r="D861" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E861">
         <v>0.5541960203549277</v>
@@ -45467,7 +45467,7 @@
         <v>1</v>
       </c>
       <c r="P861" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="862" spans="1:16">
@@ -45481,7 +45481,7 @@
         <v>0.4656223491898324</v>
       </c>
       <c r="D862" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E862">
         <v>0.7209867804763901</v>
@@ -45517,7 +45517,7 @@
         <v>1</v>
       </c>
       <c r="P862" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="863" spans="1:16">
@@ -45531,7 +45531,7 @@
         <v>0.3927696915200212</v>
       </c>
       <c r="D863" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E863">
         <v>0.577777540597852</v>
@@ -45567,7 +45567,7 @@
         <v>1</v>
       </c>
       <c r="P863" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="864" spans="1:16">
@@ -45581,7 +45581,7 @@
         <v>0.3954878947880989</v>
       </c>
       <c r="D864" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E864">
         <v>0.6519905881311141</v>
@@ -45631,7 +45631,7 @@
         <v>0.323335706076108</v>
       </c>
       <c r="D865" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E865">
         <v>0.5095693758301243</v>
@@ -45681,7 +45681,7 @@
         <v>0.3171981212746857</v>
       </c>
       <c r="D866" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E866">
         <v>0.5749714351616149</v>
@@ -45717,7 +45717,7 @@
         <v>1</v>
       </c>
       <c r="P866" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="867" spans="1:16">
@@ -45731,7 +45731,7 @@
         <v>0.2458278528974107</v>
       </c>
       <c r="D867" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E867">
         <v>0.4334298832371788</v>
@@ -45767,7 +45767,7 @@
         <v>1</v>
       </c>
       <c r="P867" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="868" spans="1:16">
@@ -45781,7 +45781,7 @@
         <v>0.2915743926955265</v>
       </c>
       <c r="D868" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E868">
         <v>0.5497635723396703</v>
@@ -45817,7 +45817,7 @@
         <v>1</v>
       </c>
       <c r="P868" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="869" spans="1:16">
@@ -45831,7 +45831,7 @@
         <v>0.2204600417073062</v>
       </c>
       <c r="D869" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E869">
         <v>0.4085099274779216</v>
@@ -45867,7 +45867,7 @@
         <v>1</v>
       </c>
       <c r="P869" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="870" spans="1:16">
@@ -45881,7 +45881,7 @@
         <v>0.2914363891999283</v>
       </c>
       <c r="D870" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E870">
         <v>0.549627808601179</v>
@@ -45931,7 +45931,7 @@
         <v>0.2203234165237742</v>
       </c>
       <c r="D871" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E871">
         <v>0.4083757143405045</v>
@@ -45981,7 +45981,7 @@
         <v>0.440452112284536</v>
       </c>
       <c r="D872" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E872">
         <v>0.2408030568040092</v>
@@ -46031,7 +46031,7 @@
         <v>0.2502766400247971</v>
       </c>
       <c r="D873" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E873">
         <v>0.5091360703365053</v>
@@ -46081,7 +46081,7 @@
         <v>0.1795747509858474</v>
       </c>
       <c r="D874" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E874">
         <v>0.3683464451676866</v>
@@ -46131,7 +46131,7 @@
         <v>0.2350979914460511</v>
       </c>
       <c r="D875" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E875">
         <v>0.4942037668657795</v>
@@ -46181,7 +46181,7 @@
         <v>0.1645476993966524</v>
       </c>
       <c r="D876" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E876">
         <v>0.353584688310205</v>
@@ -46231,7 +46231,7 @@
         <v>0.2406666795503796</v>
       </c>
       <c r="D877" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E877">
         <v>0.4996820767611734</v>
@@ -46267,7 +46267,7 @@
         <v>1</v>
       </c>
       <c r="P877" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="878" spans="1:16">
@@ -46281,7 +46281,7 @@
         <v>0.170060770141637</v>
       </c>
       <c r="D878" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E878">
         <v>0.3590004286763371</v>
@@ -46317,7 +46317,7 @@
         <v>1</v>
       </c>
       <c r="P878" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="879" spans="1:16">
@@ -46331,7 +46331,7 @@
         <v>0.2742039557921805</v>
       </c>
       <c r="D879" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E879">
         <v>0.5326750526394992</v>
@@ -46381,7 +46381,7 @@
         <v>0.2032630923136063</v>
       </c>
       <c r="D880" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E880">
         <v>0.3916165812261028</v>
@@ -46431,7 +46431,7 @@
         <v>0.20602047828244</v>
       </c>
       <c r="D881" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E881">
         <v>0.4094108608699649</v>
@@ -46481,7 +46481,7 @@
         <v>0.1902584565168475</v>
       </c>
       <c r="D882" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E882">
         <v>0.4094108608699649</v>
@@ -46581,7 +46581,7 @@
         <v>0.2149006804504703</v>
       </c>
       <c r="D884" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E884">
         <v>0.4378109137038262</v>
@@ -46631,7 +46631,7 @@
         <v>0.1995305969898986</v>
       </c>
       <c r="D885" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E885">
         <v>0.4378109137038262</v>
@@ -46731,7 +46731,7 @@
         <v>0.220681641616733</v>
       </c>
       <c r="D887" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E887">
         <v>0.4543105478992491</v>
@@ -46781,7 +46781,7 @@
         <v>0.2055667077662751</v>
       </c>
       <c r="D888" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E888">
         <v>0.4543105478992491</v>
@@ -46831,7 +46831,7 @@
         <v>0.781658654846642</v>
       </c>
       <c r="D889" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E889">
         <v>0.7512399348909664</v>
@@ -46981,7 +46981,7 @@
         <v>0.8282846905272105</v>
       </c>
       <c r="D892" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E892">
         <v>0.7959104201693021</v>
@@ -47131,7 +47131,7 @@
         <v>0.8617859564717074</v>
       </c>
       <c r="D895" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E895">
         <v>0.8113064915805275</v>
@@ -47217,7 +47217,7 @@
         <v>1</v>
       </c>
       <c r="P896" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="897" spans="1:16">
@@ -47267,7 +47267,7 @@
         <v>1</v>
       </c>
       <c r="P897" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="898" spans="1:16">
@@ -47281,7 +47281,7 @@
         <v>0.8932933858146832</v>
       </c>
       <c r="D898" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E898">
         <v>0.8005022184919994</v>
@@ -47317,7 +47317,7 @@
         <v>1</v>
       </c>
       <c r="P898" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="899" spans="1:16">
@@ -47431,7 +47431,7 @@
         <v>0.8962828597968739</v>
       </c>
       <c r="D901" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E901">
         <v>0.6692115204282212</v>
@@ -47581,7 +47581,7 @@
         <v>0.8981411674430042</v>
       </c>
       <c r="D904" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E904">
         <v>0.8198710501231963</v>
@@ -47681,7 +47681,7 @@
         <v>0.9413670597381616</v>
       </c>
       <c r="D906" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E906">
         <v>0.7547458273291996</v>
@@ -47767,7 +47767,7 @@
         <v>1</v>
       </c>
       <c r="P907" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="908" spans="1:16">
@@ -47817,7 +47817,7 @@
         <v>1</v>
       </c>
       <c r="P908" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="909" spans="1:16">
@@ -47867,7 +47867,7 @@
         <v>1</v>
       </c>
       <c r="P909" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="910" spans="1:16">
@@ -47917,7 +47917,7 @@
         <v>1</v>
       </c>
       <c r="P910" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="911" spans="1:16">
@@ -48117,7 +48117,7 @@
         <v>1</v>
       </c>
       <c r="P914" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="915" spans="1:16">
@@ -48131,7 +48131,7 @@
         <v>1.107102545011632</v>
       </c>
       <c r="D915" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E915">
         <v>0.8734430904800172</v>
@@ -48167,7 +48167,7 @@
         <v>1</v>
       </c>
       <c r="P915" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="916" spans="1:16">
@@ -48181,7 +48181,7 @@
         <v>0.720711199573695</v>
       </c>
       <c r="D916" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E916">
         <v>0.7812575777549604</v>
@@ -48217,7 +48217,7 @@
         <v>1</v>
       </c>
       <c r="P916" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="917" spans="1:16">
@@ -48267,7 +48267,7 @@
         <v>1</v>
       </c>
       <c r="P917" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="918" spans="1:16">
@@ -48281,7 +48281,7 @@
         <v>1.158678139422666</v>
       </c>
       <c r="D918" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E918">
         <v>0.9234069475657076</v>
@@ -48317,7 +48317,7 @@
         <v>1</v>
       </c>
       <c r="P918" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="919" spans="1:16">
@@ -48331,7 +48331,7 @@
         <v>0.7703527091943165</v>
       </c>
       <c r="D919" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E919">
         <v>0.9670720336113794</v>
@@ -48367,7 +48367,7 @@
         <v>1</v>
       </c>
       <c r="P919" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="920" spans="1:16">
@@ -48381,7 +48381,7 @@
         <v>1.205098348075446</v>
       </c>
       <c r="D920" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E920">
         <v>0.9683765246980878</v>
@@ -48431,7 +48431,7 @@
         <v>0.8150321600226169</v>
       </c>
       <c r="D921" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E921">
         <v>1.012389762308656</v>
@@ -48481,7 +48481,7 @@
         <v>1.265548211097165</v>
       </c>
       <c r="D922" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E922">
         <v>1.026937329500378</v>
@@ -48531,7 +48531,7 @@
         <v>0.8732151531810217</v>
       </c>
       <c r="D923" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E923">
         <v>1.179592728986194</v>
@@ -48581,7 +48581,7 @@
         <v>1.050983836179513</v>
       </c>
       <c r="D924" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E924">
         <v>1.288316949085643</v>
@@ -48631,7 +48631,7 @@
         <v>1.538931769261536</v>
       </c>
       <c r="D925" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E925">
         <v>1.227927991208364</v>
@@ -48681,7 +48681,7 @@
         <v>1.143875098463955</v>
       </c>
       <c r="D926" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E926">
         <v>1.38499221811229</v>
@@ -48731,7 +48731,7 @@
         <v>1.652909100942503</v>
       </c>
       <c r="D927" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E927">
         <v>1.742871320410783</v>
@@ -48781,7 +48781,7 @@
         <v>1.20852843839123</v>
       </c>
       <c r="D928" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E928">
         <v>1.452279268338836</v>
@@ -48817,7 +48817,7 @@
         <v>1</v>
       </c>
       <c r="P928" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="929" spans="1:16">
@@ -48831,7 +48831,7 @@
         <v>1.718327066440535</v>
       </c>
       <c r="D929" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E929">
         <v>1.669818546791849</v>
@@ -48867,7 +48867,7 @@
         <v>1</v>
       </c>
       <c r="P929" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="930" spans="1:16">
@@ -49031,7 +49031,7 @@
         <v>-0.6426033445997472</v>
       </c>
       <c r="D933" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E933">
         <v>-0.2500317921627495</v>
@@ -49081,7 +49081,7 @@
         <v>-0.07261057009128002</v>
       </c>
       <c r="D934" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E934">
         <v>0.3971032201607283</v>
@@ -49131,7 +49131,7 @@
         <v>-1.878055653011497</v>
       </c>
       <c r="D935" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E935">
         <v>-1.110931447959295</v>
@@ -49181,7 +49181,7 @@
         <v>-1.806521642344054</v>
       </c>
       <c r="D936" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E936">
         <v>-1.110931447959295</v>
@@ -49231,7 +49231,7 @@
         <v>-1.057629327802248</v>
       </c>
       <c r="D937" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E937">
         <v>-1.684327207645206</v>
@@ -49281,7 +49281,7 @@
         <v>-1.237894167267878</v>
       </c>
       <c r="D938" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E938">
         <v>-1.868045396525886</v>
@@ -49331,7 +49331,7 @@
         <v>-2.388287363338694</v>
       </c>
       <c r="D939" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E939">
         <v>-2.093332732116094</v>
@@ -49467,7 +49467,7 @@
         <v>1</v>
       </c>
       <c r="P941" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="942" spans="1:16">
@@ -49581,7 +49581,7 @@
         <v>-1.425604304635755</v>
       </c>
       <c r="D944" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E944">
         <v>-0.5363947570877485</v>
@@ -49631,7 +49631,7 @@
         <v>-1.405338494066783</v>
       </c>
       <c r="D945" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E945">
         <v>-0.5167334212453234</v>
@@ -49681,7 +49681,7 @@
         <v>0.1149685243430643</v>
       </c>
       <c r="D946" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E946">
         <v>0.3729357241249502</v>
@@ -49731,7 +49731,7 @@
         <v>-1.072693158733248</v>
       </c>
       <c r="D947" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E947">
         <v>-0.4674872802772256</v>
@@ -49781,7 +49781,7 @@
         <v>-1.354578313166009</v>
       </c>
       <c r="D948" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E948">
         <v>-0.4674872802772256</v>
@@ -49831,7 +49831,7 @@
         <v>0.1620631348805173</v>
       </c>
       <c r="D949" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E949">
         <v>0.6046849880736325</v>
@@ -50331,7 +50331,7 @@
         <v>-3.138391034641701</v>
       </c>
       <c r="D959" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E959">
         <v>-2.872578938688298</v>
@@ -50381,7 +50381,7 @@
         <v>-2.992309947312686</v>
       </c>
       <c r="D960" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E960">
         <v>-2.411584851935402</v>
@@ -50431,7 +50431,7 @@
         <v>-2.846851772941491</v>
       </c>
       <c r="D961" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E961">
         <v>-2.411584851935402</v>
@@ -50517,7 +50517,7 @@
         <v>1</v>
       </c>
       <c r="P962" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="963" spans="1:16">
@@ -50531,7 +50531,7 @@
         <v>-2.994162180198932</v>
       </c>
       <c r="D963" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E963">
         <v>-2.540787137784747</v>
@@ -50581,7 +50581,7 @@
         <v>-4.0633745679387</v>
       </c>
       <c r="D964" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E964">
         <v>-3.611328022174025</v>
@@ -50631,7 +50631,7 @@
         <v>-4.311328022174026</v>
       </c>
       <c r="D965" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E965">
         <v>-3.388229112424099</v>
@@ -50681,7 +50681,7 @@
         <v>-3.611284825643983</v>
       </c>
       <c r="D966" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E966">
         <v>-2.708991395511205</v>
@@ -50731,7 +50731,7 @@
         <v>-2.395532401159251</v>
       </c>
       <c r="D967" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E967">
         <v>-2.950081563119214</v>
@@ -50781,7 +50781,7 @@
         <v>-2.773524785828151</v>
       </c>
       <c r="D968" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E968">
         <v>-3.079491758996795</v>
@@ -50831,7 +50831,7 @@
         <v>-3.592212860519359</v>
       </c>
       <c r="D969" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E969">
         <v>-2.690486254524902</v>
@@ -50881,7 +50881,7 @@
         <v>-2.378027538064098</v>
       </c>
       <c r="D970" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E970">
         <v>-3.135983502288957</v>
@@ -50931,7 +50931,7 @@
         <v>-3.368141169467101</v>
       </c>
       <c r="D971" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E971">
         <v>-2.473074036808113</v>
@@ -50981,7 +50981,7 @@
         <v>-2.172367332115783</v>
       </c>
       <c r="D972" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E972">
         <v>-2.917787817120937</v>
@@ -51031,7 +51031,7 @@
         <v>-2.653854045231991</v>
       </c>
       <c r="D973" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E973">
         <v>-2.946319386551849</v>
@@ -51067,7 +51067,7 @@
         <v>1</v>
       </c>
       <c r="P973" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="974" spans="1:16">
@@ -51081,7 +51081,7 @@
         <v>-3.453964953008454</v>
       </c>
       <c r="D974" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E974">
         <v>-2.556347113495963</v>
@@ -51117,7 +51117,7 @@
         <v>1</v>
       </c>
       <c r="P974" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="975" spans="1:16">
@@ -51131,7 +51131,7 @@
         <v>-2.251139161415102</v>
       </c>
       <c r="D975" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E975">
         <v>-3.001360976968023</v>
@@ -51167,7 +51167,7 @@
         <v>1</v>
       </c>
       <c r="P975" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="976" spans="1:16">
@@ -51181,7 +51181,7 @@
         <v>-2.229923395837275</v>
       </c>
       <c r="D976" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E976">
         <v>-2.978852059964501</v>
@@ -51231,7 +51231,7 @@
         <v>-1.97712127608305</v>
       </c>
       <c r="D977" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E977">
         <v>-2.710641049101445</v>
@@ -51281,7 +51281,7 @@
         <v>-1.674354704142281</v>
       </c>
       <c r="D978" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E978">
         <v>-2.417869901775436</v>
@@ -51317,7 +51317,7 @@
         <v>1</v>
       </c>
       <c r="P978" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="979" spans="1:16">
@@ -51331,7 +51331,7 @@
         <v>-2.868361143195562</v>
       </c>
       <c r="D979" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E979">
         <v>-2.571745481657086</v>
@@ -51367,7 +51367,7 @@
         <v>1</v>
       </c>
       <c r="P979" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="980" spans="1:16">
@@ -51381,7 +51381,7 @@
         <v>-1.554260584894401</v>
       </c>
       <c r="D980" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E980">
         <v>-2.289083255801042</v>
@@ -51417,7 +51417,7 @@
         <v>1</v>
       </c>
       <c r="P980" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="981" spans="1:16">
@@ -51431,7 +51431,7 @@
         <v>-2.737058239484545</v>
       </c>
       <c r="D981" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E981">
         <v>-2.149876480635447</v>
@@ -51467,7 +51467,7 @@
         <v>1</v>
       </c>
       <c r="P981" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="982" spans="1:16">
@@ -51481,7 +51481,7 @@
         <v>-3.279632962436352</v>
       </c>
       <c r="D982" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E982">
         <v>-2.02552610937566</v>
@@ -51531,7 +51531,7 @@
         <v>-1.694404575644969</v>
       </c>
       <c r="D983" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E983">
         <v>-1.986719012677817</v>
@@ -51581,7 +51581,7 @@
         <v>-2.055164356946799</v>
       </c>
       <c r="D984" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E984">
         <v>-2.177069801948008</v>
@@ -51631,7 +51631,7 @@
         <v>-4.129383895568031</v>
       </c>
       <c r="D985" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E985">
         <v>-3.23914719210129</v>
@@ -51681,7 +51681,7 @@
         <v>-2.754774625142764</v>
       </c>
       <c r="D986" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E986">
         <v>-2.869215286561634</v>
@@ -51731,7 +51731,7 @@
         <v>-4.285130263211196</v>
       </c>
       <c r="D987" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E987">
         <v>-3.433614429791151</v>
@@ -51781,7 +51781,7 @@
         <v>-4.345102192221939</v>
       </c>
       <c r="D988" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E988">
         <v>-3.433614429791151</v>
@@ -51831,7 +51831,7 @@
         <v>-2.64781440659724</v>
       </c>
       <c r="D989" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E989">
         <v>-3.458600394296521</v>
@@ -51917,7 +51917,7 @@
         <v>1</v>
       </c>
       <c r="P990" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="991" spans="1:16">
@@ -51967,7 +51967,7 @@
         <v>1</v>
       </c>
       <c r="P991" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="992" spans="1:16">
@@ -51981,7 +51981,7 @@
         <v>-5.586260494704211</v>
       </c>
       <c r="D992" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E992">
         <v>-4.939853558512011</v>
@@ -52031,7 +52031,7 @@
         <v>-4.065542576207699</v>
       </c>
       <c r="D993" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E993">
         <v>-4.963286699173338</v>
@@ -52081,7 +52081,7 @@
         <v>-3.720545582896333</v>
       </c>
       <c r="D994" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E994">
         <v>-4.59712888261396</v>
@@ -52131,7 +52131,7 @@
         <v>-2.602638326676717</v>
       </c>
       <c r="D995" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E995">
         <v>-3.272496544975409</v>
@@ -52181,7 +52181,7 @@
         <v>-3.794696356374601</v>
       </c>
       <c r="D996" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E996">
         <v>-3.256823081894201</v>
@@ -52231,7 +52231,7 @@
         <v>-2.667815553803349</v>
       </c>
       <c r="D997" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E997">
         <v>-2.887886444654004</v>
@@ -52281,7 +52281,7 @@
         <v>-1.0615988972548</v>
       </c>
       <c r="D998" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E998">
         <v>-1.724705573694033</v>
@@ -52381,7 +52381,7 @@
         <v>1.667385247989756</v>
       </c>
       <c r="D1000" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E1000">
         <v>1.01623469047821</v>
@@ -52481,7 +52481,7 @@
         <v>2.473695893750117</v>
       </c>
       <c r="D1002" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E1002">
         <v>1.826077912999843</v>
@@ -52581,7 +52581,7 @@
         <v>2.324260320387948</v>
       </c>
       <c r="D1004" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E1004">
         <v>1.675987638330502</v>
@@ -52617,7 +52617,7 @@
         <v>1</v>
       </c>
       <c r="P1004" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1005" spans="1:16">
@@ -52667,7 +52667,7 @@
         <v>1</v>
       </c>
       <c r="P1005" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1006" spans="1:16">
@@ -52681,7 +52681,7 @@
         <v>2.359346111981594</v>
       </c>
       <c r="D1006" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E1006">
         <v>1.7112271464262</v>
@@ -52781,7 +52781,7 @@
         <v>2.612168565872217</v>
       </c>
       <c r="D1008" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E1008">
         <v>1.965157256193672</v>
@@ -52981,7 +52981,7 @@
         <v>2.670003768525686</v>
       </c>
       <c r="D1012" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E1012">
         <v>2.583538441910299</v>
@@ -53031,7 +53031,7 @@
         <v>3.758701543642353</v>
       </c>
       <c r="D1013" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E1013">
         <v>3.257153973350029</v>
@@ -53081,7 +53081,7 @@
         <v>2.991915098027219</v>
       </c>
       <c r="D1014" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E1014">
         <v>2.930902437558249</v>
@@ -53131,7 +53131,7 @@
         <v>3.710399964967485</v>
       </c>
       <c r="D1015" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E1015">
         <v>3.208639612390249</v>
@@ -53167,7 +53167,7 @@
         <v>1</v>
       </c>
       <c r="P1015" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1016" spans="1:16">
@@ -53217,7 +53217,7 @@
         <v>1</v>
       </c>
       <c r="P1016" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1017" spans="1:16">
@@ -53267,7 +53267,7 @@
         <v>1</v>
       </c>
       <c r="P1017" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1018" spans="1:16">
@@ -53317,7 +53317,7 @@
         <v>1</v>
       </c>
       <c r="P1018" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1019" spans="1:16">
@@ -53367,7 +53367,7 @@
         <v>1</v>
       </c>
       <c r="P1019" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1020" spans="1:16">
@@ -53417,7 +53417,7 @@
         <v>1</v>
       </c>
       <c r="P1020" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1021" spans="1:16">
@@ -53431,7 +53431,7 @@
         <v>2.727566851628665</v>
       </c>
       <c r="D1021" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E1021">
         <v>2.664231139428988</v>
@@ -53467,7 +53467,7 @@
         <v>1</v>
       </c>
       <c r="P1021" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1022" spans="1:16">
@@ -53517,7 +53517,7 @@
         <v>1</v>
       </c>
       <c r="P1022" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1023" spans="1:16">
@@ -53567,7 +53567,7 @@
         <v>1</v>
       </c>
       <c r="P1023" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1024" spans="1:16">
@@ -53781,7 +53781,7 @@
         <v>2.609928198170193</v>
       </c>
       <c r="D1028" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E1028">
         <v>2.725965239194989</v>
@@ -53831,7 +53831,7 @@
         <v>2.643524059557652</v>
       </c>
       <c r="D1029" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E1029">
         <v>2.725965239194989</v>
@@ -53917,7 +53917,7 @@
         <v>1</v>
       </c>
       <c r="P1030" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1031" spans="1:16">
@@ -53967,7 +53967,7 @@
         <v>1</v>
       </c>
       <c r="P1031" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1032" spans="1:16">
@@ -54017,7 +54017,7 @@
         <v>1</v>
       </c>
       <c r="P1032" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1033" spans="1:16">
@@ -54131,7 +54131,7 @@
         <v>2.532644095276093</v>
       </c>
       <c r="D1035" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E1035">
         <v>2.550325375262486</v>
@@ -54181,7 +54181,7 @@
         <v>2.503716607270652</v>
       </c>
       <c r="D1036" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E1036">
         <v>2.550325375262486</v>
@@ -54231,7 +54231,7 @@
         <v>2.520325375262487</v>
       </c>
       <c r="D1037" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E1037">
         <v>2.550325375262486</v>
@@ -54317,7 +54317,7 @@
         <v>1</v>
       </c>
       <c r="P1038" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1039" spans="1:16">
@@ -54367,7 +54367,7 @@
         <v>1</v>
       </c>
       <c r="P1039" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1040" spans="1:16">
@@ -54381,7 +54381,7 @@
         <v>2.618623293428294</v>
       </c>
       <c r="D1040" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E1040">
         <v>2.697920723755893</v>
@@ -54417,7 +54417,7 @@
         <v>1</v>
       </c>
       <c r="P1040" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1041" spans="1:16">
@@ -54431,7 +54431,7 @@
         <v>2.590342265559335</v>
       </c>
       <c r="D1041" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E1041">
         <v>2.697920723755893</v>
@@ -54467,7 +54467,7 @@
         <v>1</v>
       </c>
       <c r="P1041" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1042" spans="1:16">
@@ -54481,7 +54481,7 @@
         <v>2.607920723755893</v>
       </c>
       <c r="D1042" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E1042">
         <v>2.697920723755893</v>
@@ -54517,7 +54517,7 @@
         <v>1</v>
       </c>
       <c r="P1042" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1043" spans="1:16">
@@ -54531,7 +54531,7 @@
         <v>2.558955950720363</v>
       </c>
       <c r="D1043" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E1043">
         <v>2.543266523322259</v>
@@ -54567,7 +54567,7 @@
         <v>1</v>
       </c>
       <c r="P1043" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1044" spans="1:16">
@@ -54581,7 +54581,7 @@
         <v>2.530226296214503</v>
       </c>
       <c r="D1044" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E1044">
         <v>2.543266523322259</v>
@@ -54617,7 +54617,7 @@
         <v>1</v>
       </c>
       <c r="P1044" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1045" spans="1:16">
@@ -54631,7 +54631,7 @@
         <v>2.547131814455709</v>
       </c>
       <c r="D1045" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E1045">
         <v>2.543266523322259</v>
@@ -54667,7 +54667,7 @@
         <v>1</v>
       </c>
       <c r="P1045" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1046" spans="1:16">
@@ -54731,7 +54731,7 @@
         <v>2.451815866315989</v>
       </c>
       <c r="D1047" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E1047">
         <v>2.47805935023451</v>
@@ -54781,7 +54781,7 @@
         <v>2.331390177963218</v>
       </c>
       <c r="D1048" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E1048">
         <v>2.286661509124484</v>
@@ -54831,7 +54831,7 @@
         <v>2.40117481667639</v>
       </c>
       <c r="D1049" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E1049">
         <v>2.48838014543113</v>
@@ -54931,7 +54931,7 @@
         <v>2.385066165658595</v>
       </c>
       <c r="D1051" t="s">
-        <v>489</v>
+        <v>255</v>
       </c>
       <c r="E1051">
         <v>2.397054367222326</v>
@@ -55017,7 +55017,7 @@
         <v>1</v>
       </c>
       <c r="P1052" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1053" spans="1:16">
@@ -55028,45 +55028,95 @@
         <v>255</v>
       </c>
       <c r="C1053">
+        <v>-0.8267743859950887</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1053">
+        <v>-0.6312799147310404</v>
+      </c>
+      <c r="F1053">
+        <v>1</v>
+      </c>
+      <c r="G1053">
+        <v>0.01762677438599509</v>
+      </c>
+      <c r="H1053">
+        <v>0.01753127991473104</v>
+      </c>
+      <c r="I1053">
+        <v>0.1954944712640483</v>
+      </c>
+      <c r="J1053">
+        <v>1.212453927200406</v>
+      </c>
+      <c r="K1053">
+        <v>7.61</v>
+      </c>
+      <c r="L1053">
+        <v>8.4</v>
+      </c>
+      <c r="M1053">
+        <v>7.49</v>
+      </c>
+      <c r="N1053">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="O1053">
+        <v>1</v>
+      </c>
+      <c r="P1053" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:16">
+      <c r="A1054" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1054">
         <v>-1.472000121676759</v>
       </c>
-      <c r="D1053" t="s">
+      <c r="D1054" t="s">
         <v>491</v>
       </c>
-      <c r="E1053">
+      <c r="E1054">
         <v>-1.196813307152839</v>
       </c>
-      <c r="F1053">
-        <v>1</v>
-      </c>
-      <c r="G1053">
+      <c r="F1054">
+        <v>1</v>
+      </c>
+      <c r="G1054">
         <v>0.01767200012167676</v>
       </c>
-      <c r="H1053">
+      <c r="H1054">
         <v>0.01773681330715283</v>
       </c>
-      <c r="I1053">
+      <c r="I1054">
         <v>0.27518681452392</v>
       </c>
-      <c r="J1053">
+      <c r="J1054">
         <v>1.314835181549005</v>
       </c>
-      <c r="K1053">
+      <c r="K1054">
         <v>7.28</v>
       </c>
-      <c r="L1053">
+      <c r="L1054">
         <v>8.1</v>
       </c>
-      <c r="M1053">
+      <c r="M1054">
         <v>7.2</v>
       </c>
-      <c r="N1053">
+      <c r="N1054">
         <v>8.27</v>
       </c>
-      <c r="O1053">
-        <v>1</v>
-      </c>
-      <c r="P1053" t="s">
+      <c r="O1054">
+        <v>1</v>
+      </c>
+      <c r="P1054" t="s">
         <v>490</v>
       </c>
     </row>

--- a/s60_signal/position-01157-000157.xlsx
+++ b/s60_signal/position-01157-000157.xlsx
@@ -55031,10 +55031,10 @@
         <v>-0.8267743859950887</v>
       </c>
       <c r="D1053" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E1053">
-        <v>-0.6312799147310404</v>
+        <v>-0.4596682758429225</v>
       </c>
       <c r="F1053">
         <v>1</v>
@@ -55043,10 +55043,10 @@
         <v>0.01762677438599509</v>
       </c>
       <c r="H1053">
-        <v>0.01753127991473104</v>
+        <v>0.01699966827584292</v>
       </c>
       <c r="I1053">
-        <v>0.1954944712640483</v>
+        <v>0.3671061101521662</v>
       </c>
       <c r="J1053">
         <v>1.212453927200406</v>
@@ -55058,10 +55058,10 @@
         <v>8.4</v>
       </c>
       <c r="M1053">
-        <v>7.49</v>
+        <v>7.2</v>
       </c>
       <c r="N1053">
-        <v>8.449999999999999</v>
+        <v>8.27</v>
       </c>
       <c r="O1053">
         <v>1</v>
